--- a/pools-example-medium.xlsx
+++ b/pools-example-medium.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="Pool Draw" sheetId="2" r:id="rId2"/>
-    <sheet name="Pool Matches" sheetId="6" r:id="rId3"/>
-    <sheet name="Elimination Matches" sheetId="7" r:id="rId4"/>
-    <sheet name="Names to Print" sheetId="8" r:id="rId5"/>
-    <sheet name="Tree 1" sheetId="9" r:id="rId12"/>
+    <sheet name="Time Estimator" sheetId="9" r:id="rId2"/>
+    <sheet name="Pool Draw" sheetId="2" r:id="rId3"/>
+    <sheet name="Pool Matches" sheetId="6" r:id="rId4"/>
+    <sheet name="Elimination Matches" sheetId="7" r:id="rId5"/>
+    <sheet name="Names to Print" sheetId="8" r:id="rId6"/>
+    <sheet name="Tree 1" sheetId="10" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="130">
   <si>
     <t>Elimination Round 1</t>
   </si>
@@ -49,6 +50,33 @@
     <t>Tournament Pools</t>
   </si>
   <si>
+    <t>Number of pools</t>
+  </si>
+  <si>
+    <t>Team size</t>
+  </si>
+  <si>
+    <t>Matches per pool</t>
+  </si>
+  <si>
+    <t>Time per match</t>
+  </si>
+  <si>
+    <t>Total time for matches</t>
+  </si>
+  <si>
+    <t>Padding time for rotation</t>
+  </si>
+  <si>
+    <t>Time for breaks</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Number of Elimination Matches</t>
+  </si>
+  <si>
     <t>Pool</t>
   </si>
   <si>
@@ -64,6 +92,45 @@
     <t>Pool A</t>
   </si>
   <si>
+    <t>Willy Wonka</t>
+  </si>
+  <si>
+    <t>Team Psi</t>
+  </si>
+  <si>
+    <t>W. WONKA</t>
+  </si>
+  <si>
+    <t>Ygritte</t>
+  </si>
+  <si>
+    <t>Team Alpha</t>
+  </si>
+  <si>
+    <t>Y. YGRITTE</t>
+  </si>
+  <si>
+    <t>Samwise Gamgee</t>
+  </si>
+  <si>
+    <t>Team Tau</t>
+  </si>
+  <si>
+    <t>S. GAMGEE</t>
+  </si>
+  <si>
+    <t>Ron Weasley</t>
+  </si>
+  <si>
+    <t>Team Sigma</t>
+  </si>
+  <si>
+    <t>R. WEASLEY</t>
+  </si>
+  <si>
+    <t>Pool B</t>
+  </si>
+  <si>
     <t>Neville Longbottom</t>
   </si>
   <si>
@@ -73,6 +140,126 @@
     <t>N. LONGBOTTOM</t>
   </si>
   <si>
+    <t>Petyr Baelish</t>
+  </si>
+  <si>
+    <t>Team Pi</t>
+  </si>
+  <si>
+    <t>P. BAELISH</t>
+  </si>
+  <si>
+    <t>Hermione Granger</t>
+  </si>
+  <si>
+    <t>Team Theta</t>
+  </si>
+  <si>
+    <t>H. GRANGER</t>
+  </si>
+  <si>
+    <t>Pool C</t>
+  </si>
+  <si>
+    <t>Inigo Montoya</t>
+  </si>
+  <si>
+    <t>Team Iota</t>
+  </si>
+  <si>
+    <t>I. MONTOYA</t>
+  </si>
+  <si>
+    <t>Ulysses</t>
+  </si>
+  <si>
+    <t>Team Phi</t>
+  </si>
+  <si>
+    <t>U. ULYSSES</t>
+  </si>
+  <si>
+    <t>Tyrion Lannister</t>
+  </si>
+  <si>
+    <t>Team Upsilon</t>
+  </si>
+  <si>
+    <t>T. LANNISTER</t>
+  </si>
+  <si>
+    <t>Pool D</t>
+  </si>
+  <si>
+    <t>Quirinus Quirrell</t>
+  </si>
+  <si>
+    <t>Team Rho</t>
+  </si>
+  <si>
+    <t>Q. QUIRRELL</t>
+  </si>
+  <si>
+    <t>Legolas Greenleaf</t>
+  </si>
+  <si>
+    <t>Team Mu</t>
+  </si>
+  <si>
+    <t>L. GREENLEAF</t>
+  </si>
+  <si>
+    <t>Cersei Lannister</t>
+  </si>
+  <si>
+    <t>Team Gamma</t>
+  </si>
+  <si>
+    <t>C. LANNISTER</t>
+  </si>
+  <si>
+    <t>Pool E</t>
+  </si>
+  <si>
+    <t>Eddard Stark</t>
+  </si>
+  <si>
+    <t>Team Epsilon</t>
+  </si>
+  <si>
+    <t>E. STARK</t>
+  </si>
+  <si>
+    <t>Voldemort</t>
+  </si>
+  <si>
+    <t>Team Chi</t>
+  </si>
+  <si>
+    <t>V. VOLDEMORT</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen</t>
+  </si>
+  <si>
+    <t>Team Delta</t>
+  </si>
+  <si>
+    <t>D. TARGARYEN</t>
+  </si>
+  <si>
+    <t>Pool F</t>
+  </si>
+  <si>
+    <t>Frodo Baggins</t>
+  </si>
+  <si>
+    <t>Team Zeta</t>
+  </si>
+  <si>
+    <t>F. BAGGINS</t>
+  </si>
+  <si>
     <t>Jon Snow</t>
   </si>
   <si>
@@ -82,13 +269,25 @@
     <t>J. SNOW</t>
   </si>
   <si>
-    <t>Daenerys Targaryen</t>
-  </si>
-  <si>
-    <t>Team Delta</t>
-  </si>
-  <si>
-    <t>D. TARGARYEN</t>
+    <t>Moby Dick</t>
+  </si>
+  <si>
+    <t>Team Nu</t>
+  </si>
+  <si>
+    <t>M. DICK</t>
+  </si>
+  <si>
+    <t>Pool G</t>
+  </si>
+  <si>
+    <t>Katniss Everdeen</t>
+  </si>
+  <si>
+    <t>Team Lambda</t>
+  </si>
+  <si>
+    <t>K. EVERDEEN</t>
   </si>
   <si>
     <t>Xaro Xhoan Daxos</t>
@@ -100,7 +299,13 @@
     <t>X. DAXOS</t>
   </si>
   <si>
-    <t>Pool B</t>
+    <t>Othello</t>
+  </si>
+  <si>
+    <t>Team Omicron</t>
+  </si>
+  <si>
+    <t>O. OTHELLO</t>
   </si>
   <si>
     <t>Gandalf The Grey</t>
@@ -110,183 +315,6 @@
   </si>
   <si>
     <t>G. GREY</t>
-  </si>
-  <si>
-    <t>Willy Wonka</t>
-  </si>
-  <si>
-    <t>Team Psi</t>
-  </si>
-  <si>
-    <t>W. WONKA</t>
-  </si>
-  <si>
-    <t>Katniss Everdeen</t>
-  </si>
-  <si>
-    <t>Team Lambda</t>
-  </si>
-  <si>
-    <t>K. EVERDEEN</t>
-  </si>
-  <si>
-    <t>Pool C</t>
-  </si>
-  <si>
-    <t>Ygritte</t>
-  </si>
-  <si>
-    <t>Team Alpha</t>
-  </si>
-  <si>
-    <t>Y. YGRITTE</t>
-  </si>
-  <si>
-    <t>Eddard Stark</t>
-  </si>
-  <si>
-    <t>Team Epsilon</t>
-  </si>
-  <si>
-    <t>E. STARK</t>
-  </si>
-  <si>
-    <t>Ulysses</t>
-  </si>
-  <si>
-    <t>Team Phi</t>
-  </si>
-  <si>
-    <t>U. ULYSSES</t>
-  </si>
-  <si>
-    <t>Pool D</t>
-  </si>
-  <si>
-    <t>Hermione Granger</t>
-  </si>
-  <si>
-    <t>Team Theta</t>
-  </si>
-  <si>
-    <t>H. GRANGER</t>
-  </si>
-  <si>
-    <t>Othello</t>
-  </si>
-  <si>
-    <t>Team Omicron</t>
-  </si>
-  <si>
-    <t>O. OTHELLO</t>
-  </si>
-  <si>
-    <t>Voldemort</t>
-  </si>
-  <si>
-    <t>Team Chi</t>
-  </si>
-  <si>
-    <t>V. VOLDEMORT</t>
-  </si>
-  <si>
-    <t>Pool E</t>
-  </si>
-  <si>
-    <t>Quirinus Quirrell</t>
-  </si>
-  <si>
-    <t>Team Rho</t>
-  </si>
-  <si>
-    <t>Q. QUIRRELL</t>
-  </si>
-  <si>
-    <t>Ron Weasley</t>
-  </si>
-  <si>
-    <t>Team Sigma</t>
-  </si>
-  <si>
-    <t>R. WEASLEY</t>
-  </si>
-  <si>
-    <t>Frodo Baggins</t>
-  </si>
-  <si>
-    <t>Team Zeta</t>
-  </si>
-  <si>
-    <t>F. BAGGINS</t>
-  </si>
-  <si>
-    <t>Pool F</t>
-  </si>
-  <si>
-    <t>Inigo Montoya</t>
-  </si>
-  <si>
-    <t>Team Iota</t>
-  </si>
-  <si>
-    <t>I. MONTOYA</t>
-  </si>
-  <si>
-    <t>Moby Dick</t>
-  </si>
-  <si>
-    <t>Team Nu</t>
-  </si>
-  <si>
-    <t>M. DICK</t>
-  </si>
-  <si>
-    <t>Samwise Gamgee</t>
-  </si>
-  <si>
-    <t>Team Tau</t>
-  </si>
-  <si>
-    <t>S. GAMGEE</t>
-  </si>
-  <si>
-    <t>Pool G</t>
-  </si>
-  <si>
-    <t>Legolas Greenleaf</t>
-  </si>
-  <si>
-    <t>Team Mu</t>
-  </si>
-  <si>
-    <t>L. GREENLEAF</t>
-  </si>
-  <si>
-    <t>Petyr Baelish</t>
-  </si>
-  <si>
-    <t>Team Pi</t>
-  </si>
-  <si>
-    <t>P. BAELISH</t>
-  </si>
-  <si>
-    <t>Cersei Lannister</t>
-  </si>
-  <si>
-    <t>Team Gamma</t>
-  </si>
-  <si>
-    <t>C. LANNISTER</t>
-  </si>
-  <si>
-    <t>Tyrion Lannister</t>
-  </si>
-  <si>
-    <t>Team Upsilon</t>
-  </si>
-  <si>
-    <t>T. LANNISTER</t>
   </si>
   <si>
     <t>Pool A.1</t>
@@ -410,6 +438,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="16">
     <font>
       <sz val="10"/>
@@ -697,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -718,6 +749,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -1048,7 +1091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -1061,338 +1104,338 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12.75" customHeight="true">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12.75" customHeight="true">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12.75" customHeight="true">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.75" customHeight="true">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12.75" customHeight="true">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12.75" customHeight="true">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12.75" customHeight="true">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12.75" customHeight="true">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12.75" customHeight="true">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12.75" customHeight="true">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12.75" customHeight="true">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12.75" customHeight="true">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12.75" customHeight="true">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12.75" customHeight="true">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12.75" customHeight="true">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12.75" customHeight="true">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12.75" customHeight="true">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12.75" customHeight="true">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12.75" customHeight="true">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12.75" customHeight="true">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12.75" customHeight="true">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12.75" customHeight="true"/>
@@ -2428,7 +2471,687 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4065E12-1BC4-BF48-9DCD-AFB9407081DC}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="false" view="pageLayout" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="13"/>
+  <cols>
+    <col customWidth="true" max="1" min="1" width="20.83203125"/>
+    <col customWidth="true" max="3" min="3" width="20"/>
+    <col customWidth="true" max="5" min="5" width="20"/>
+  </cols>
+  <sheetData>
+    <row r="4">
+      <c r="A4" s="25" t="str">
+        <f>data!A5</f>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="26" t="str">
+        <f>data!B2</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="27" t="str">
+        <f>data!B3</f>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="27" t="str">
+        <f>data!B4</f>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="28" t="str">
+        <f>data!B5</f>
+      </c>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="22"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="25" t="str">
+        <f>data!A8</f>
+      </c>
+      <c r="G10" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="26" t="str">
+        <f>data!B6</f>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="27" t="str">
+        <f>data!B7</f>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="28" t="str">
+        <f>data!B8</f>
+      </c>
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="20"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="22"/>
+      <c r="C14" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="20"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="25" t="str">
+        <f>data!A11</f>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="26" t="str">
+        <f>data!B9</f>
+      </c>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="27" t="str">
+        <f>data!B10</f>
+      </c>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="28" t="str">
+        <f>data!B11</f>
+      </c>
+      <c r="I18" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="22"/>
+      <c r="C19" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="25" t="str">
+        <f>data!A14</f>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="26" t="str">
+        <f>data!B12</f>
+      </c>
+      <c r="E21" s="21">
+        <v>2</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="27" t="str">
+        <f>data!B13</f>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="28" t="str">
+        <f>data!B14</f>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="G23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="22"/>
+      <c r="G24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="25" t="str">
+        <f>data!A17</f>
+      </c>
+      <c r="G25" s="21">
+        <v>8</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="20"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="26" t="str">
+        <f>data!B15</f>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="27" t="str">
+        <f>data!B16</f>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="28" t="str">
+        <f>data!B17</f>
+      </c>
+      <c r="E28" s="21">
+        <v>3</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="20"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="22"/>
+      <c r="C29" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="20"/>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="25" t="str">
+        <f>data!A20</f>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="26" t="str">
+        <f>data!B18</f>
+      </c>
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="27" t="str">
+        <f>data!B19</f>
+      </c>
+      <c r="K32" s="20"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="28" t="str">
+        <f>data!B20</f>
+      </c>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="22"/>
+      <c r="K34" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="25" t="str">
+        <f>data!A24</f>
+      </c>
+      <c r="K35" s="20"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="26" t="str">
+        <f>data!B21</f>
+      </c>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="27" t="str">
+        <f>data!B22</f>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="K37" s="20"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="27" t="str">
+        <f>data!B23</f>
+      </c>
+      <c r="E38" s="24"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="20"/>
+      <c r="K38" s="20"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="28" t="str">
+        <f>data!B24</f>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="K39" s="20"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="22"/>
+      <c r="G40" s="20"/>
+      <c r="K40" s="20"/>
+    </row>
+    <row r="41">
+      <c r="G41" s="21">
+        <v>9</v>
+      </c>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="42">
+      <c r="C42" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="20"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="20"/>
+      <c r="K42" s="20"/>
+    </row>
+    <row r="43">
+      <c r="C43" s="24"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="K43" s="20"/>
+    </row>
+    <row r="44">
+      <c r="E44" s="21">
+        <v>4</v>
+      </c>
+      <c r="F44" s="23"/>
+      <c r="G44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="K44" s="20"/>
+    </row>
+    <row r="45">
+      <c r="C45" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="23"/>
+      <c r="E45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="K45" s="20"/>
+    </row>
+    <row r="46">
+      <c r="C46" s="24"/>
+      <c r="I46" s="20"/>
+      <c r="K46" s="20"/>
+    </row>
+    <row r="47">
+      <c r="I47" s="20"/>
+      <c r="K47" s="20"/>
+    </row>
+    <row r="48">
+      <c r="I48" s="20"/>
+      <c r="K48" s="20"/>
+    </row>
+    <row r="49">
+      <c r="I49" s="21">
+        <v>12</v>
+      </c>
+      <c r="J49" s="23"/>
+      <c r="K49" s="20"/>
+    </row>
+    <row r="50">
+      <c r="C50" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I50" s="20"/>
+    </row>
+    <row r="51">
+      <c r="C51" s="24"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="20"/>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52">
+      <c r="E52" s="21">
+        <v>5</v>
+      </c>
+      <c r="I52" s="20"/>
+    </row>
+    <row r="53">
+      <c r="C53" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="20"/>
+      <c r="I53" s="20"/>
+    </row>
+    <row r="54">
+      <c r="C54" s="24"/>
+      <c r="G54" s="20"/>
+      <c r="I54" s="20"/>
+    </row>
+    <row r="55">
+      <c r="G55" s="20"/>
+      <c r="I55" s="20"/>
+    </row>
+    <row r="56">
+      <c r="G56" s="21">
+        <v>10</v>
+      </c>
+      <c r="H56" s="23"/>
+      <c r="I56" s="20"/>
+    </row>
+    <row r="57">
+      <c r="C57" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58">
+      <c r="C58" s="24"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="20"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59">
+      <c r="E59" s="21">
+        <v>6</v>
+      </c>
+      <c r="F59" s="23"/>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60">
+      <c r="C60" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="23"/>
+      <c r="E60" s="20"/>
+    </row>
+    <row r="61">
+      <c r="C61" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C60:C61"/>
+  </mergeCells>
+  <printOptions horizontalCentered="true" verticalCentered="true"/>
+  <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176316AF-4790-BF4E-A6AB-8C7837CD465B}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col customWidth="true" max="1" min="1" width="21.83203125"/>
+    <col customWidth="true" max="4" min="4" width="14.6640625"/>
+    <col customWidth="true" max="5" min="5" width="17"/>
+    <col customWidth="true" max="7" min="6" width="13.1640625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="51">
+      <c r="A1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="11" customFormat="true" ht="16">
+      <c r="A2" s="11">
+        <v>7</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E2" s="12">
+        <f>(A2*B2*C2*D2)</f>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="F2" s="12">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="G2" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H2" s="12">
+        <f>E2+(A2*C2*F2)+G2</f>
+        <v>6.041666666666666E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16">
+      <c r="A3" s="11">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E3" s="12">
+        <f>(A3*B3*C3*D3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="G3" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H3" s="12">
+        <f>E3+(A3*C3*F3)+G3</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" ht="16">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" ht="16">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" ht="51">
+      <c r="A7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="11" customFormat="true" ht="16">
+      <c r="A8" s="11">
+        <v>13</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E8" s="12">
+        <f>(A8*B8*D8)</f>
+        <v>4.1666666666666671E-2</v>
+      </c>
+      <c r="F8" s="12">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="G8" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H8" s="12">
+        <f>E8+(A8*F8)+G8</f>
+        <v>6.4236111111111119E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="16">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" ht="16">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="true"/>
@@ -2456,13 +3179,13 @@
   <sheetData>
     <row r="2" spans="1:8" ht="20">
       <c r="A2" s="2"/>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
@@ -2619,7 +3342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F663BF-AB57-994A-845A-DBCD1B560412}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2644,565 +3367,617 @@
   </cols>
   <sheetData>
     <row r="4">
-      <c r="A4" s="20" t="str">
+      <c r="A4" s="24" t="str">
         <f>data!A5</f>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="I4" s="20" t="str">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="I4" s="24" t="str">
         <f>data!A8</f>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="O5" s="28" t="s">
-        <v>98</v>
+      <c r="A5" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="26" t="str">
+      <c r="A6" s="30" t="str">
         <f>data!B2</f>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26" t="str">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30" t="str">
         <f>data!B3</f>
       </c>
-      <c r="I6" s="26" t="str">
+      <c r="I6" s="30" t="str">
         <f>data!B6</f>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26" t="str">
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30" t="str">
         <f>data!B7</f>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="26" t="str">
+      <c r="A7" s="30" t="str">
         <f>data!B4</f>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26" t="str">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30" t="str">
         <f>data!B3</f>
       </c>
-      <c r="I7" s="26" t="str">
+      <c r="I7" s="30" t="str">
         <f>data!B8</f>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26" t="str">
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30" t="str">
         <f>data!B7</f>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="26" t="str">
+      <c r="A8" s="30" t="str">
         <f>data!B4</f>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26" t="str">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30" t="str">
         <f>data!B5</f>
       </c>
-      <c r="I8" s="26" t="str">
+      <c r="I8" s="30" t="str">
         <f>data!B8</f>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26" t="str">
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30" t="str">
         <f>data!B6</f>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="26" t="str">
+      <c r="A9" s="30" t="str">
+        <f>data!B3</f>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30" t="str">
+        <f>data!B5</f>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="30" t="str">
         <f>data!B2</f>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26" t="str">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30" t="str">
+        <f>data!B4</f>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" s="23"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="30" t="str">
+        <f>data!B2</f>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30" t="str">
         <f>data!B5</f>
       </c>
-    </row>
-    <row r="10">
-      <c r="N10" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="O10" s="19"/>
-    </row>
-    <row r="11">
-      <c r="F11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="19"/>
       <c r="N11" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11" s="19"/>
+        <v>109</v>
+      </c>
+      <c r="O11" s="23"/>
     </row>
     <row r="12">
-      <c r="F12" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="19"/>
       <c r="N12" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="O12" s="19"/>
+        <v>110</v>
+      </c>
+      <c r="O12" s="23"/>
     </row>
     <row r="13">
       <c r="F13" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="19"/>
+        <v>108</v>
+      </c>
+      <c r="G13" s="23"/>
     </row>
     <row r="14">
       <c r="F14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="20" t="str">
+        <v>109</v>
+      </c>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15">
+      <c r="F15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16">
+      <c r="F16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="24" t="str">
         <f>data!A11</f>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="I17" s="20" t="str">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="I19" s="24" t="str">
         <f>data!A14</f>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="L18" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="O18" s="30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="26" t="str">
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="O20" s="34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="30" t="str">
         <f>data!B9</f>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26" t="str">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30" t="str">
         <f>data!B10</f>
       </c>
-      <c r="I19" s="26" t="str">
+      <c r="I21" s="30" t="str">
         <f>data!B12</f>
       </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26" t="str">
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30" t="str">
         <f>data!B13</f>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="26" t="str">
+    <row r="22">
+      <c r="A22" s="30" t="str">
         <f>data!B11</f>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26" t="str">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30" t="str">
         <f>data!B10</f>
       </c>
-      <c r="I20" s="26" t="str">
+      <c r="I22" s="30" t="str">
         <f>data!B14</f>
       </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26" t="str">
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30" t="str">
         <f>data!B13</f>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="26" t="str">
+    <row r="23">
+      <c r="A23" s="30" t="str">
         <f>data!B11</f>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26" t="str">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30" t="str">
         <f>data!B9</f>
       </c>
-      <c r="I21" s="26" t="str">
+      <c r="I23" s="30" t="str">
         <f>data!B14</f>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26" t="str">
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30" t="str">
         <f>data!B12</f>
       </c>
-    </row>
-    <row r="23">
-      <c r="F23" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="19"/>
-      <c r="N23" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="O23" s="19"/>
-    </row>
-    <row r="24">
-      <c r="F24" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="19"/>
-      <c r="N24" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="O24" s="19"/>
     </row>
     <row r="25">
       <c r="F25" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" s="19"/>
+        <v>108</v>
+      </c>
+      <c r="G25" s="23"/>
       <c r="N25" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="O25" s="19"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="20" t="str">
+        <v>108</v>
+      </c>
+      <c r="O25" s="23"/>
+    </row>
+    <row r="26">
+      <c r="F26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="N26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="O26" s="23"/>
+    </row>
+    <row r="27">
+      <c r="F27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="N27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O27" s="23"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="24" t="str">
         <f>data!A17</f>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="I28" s="20" t="str">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="I30" s="24" t="str">
         <f>data!A20</f>
       </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="L29" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="O29" s="32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="26" t="str">
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="L31" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="O31" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="30" t="str">
         <f>data!B15</f>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26" t="str">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30" t="str">
         <f>data!B16</f>
       </c>
-      <c r="I30" s="26" t="str">
+      <c r="I32" s="30" t="str">
         <f>data!B18</f>
       </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26" t="str">
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30" t="str">
         <f>data!B19</f>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="26" t="str">
+    <row r="33">
+      <c r="A33" s="30" t="str">
         <f>data!B17</f>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26" t="str">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30" t="str">
         <f>data!B16</f>
       </c>
-      <c r="I31" s="26" t="str">
+      <c r="I33" s="30" t="str">
         <f>data!B20</f>
       </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26" t="str">
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30" t="str">
         <f>data!B19</f>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="26" t="str">
+    <row r="34">
+      <c r="A34" s="30" t="str">
         <f>data!B17</f>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26" t="str">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30" t="str">
         <f>data!B15</f>
       </c>
-      <c r="I32" s="26" t="str">
+      <c r="I34" s="30" t="str">
         <f>data!B20</f>
       </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26" t="str">
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30" t="str">
         <f>data!B18</f>
       </c>
-    </row>
-    <row r="34">
-      <c r="F34" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="19"/>
-      <c r="N34" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="O34" s="19"/>
-    </row>
-    <row r="35">
-      <c r="F35" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G35" s="19"/>
-      <c r="N35" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="O35" s="19"/>
     </row>
     <row r="36">
       <c r="F36" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G36" s="19"/>
+        <v>108</v>
+      </c>
+      <c r="G36" s="23"/>
       <c r="N36" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="O36" s="19"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="20" t="str">
+        <v>108</v>
+      </c>
+      <c r="O36" s="23"/>
+    </row>
+    <row r="37">
+      <c r="F37" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="23"/>
+      <c r="N37" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="O37" s="23"/>
+    </row>
+    <row r="38">
+      <c r="F38" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="N38" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O38" s="23"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="24" t="str">
         <f>data!A24</f>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="G40" s="33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="26" t="str">
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="30" t="str">
         <f>data!B21</f>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26" t="str">
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30" t="str">
         <f>data!B22</f>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="26" t="str">
+    <row r="44">
+      <c r="A44" s="30" t="str">
         <f>data!B23</f>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26" t="str">
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30" t="str">
         <f>data!B22</f>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="26" t="str">
+    <row r="45">
+      <c r="A45" s="30" t="str">
         <f>data!B23</f>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26" t="str">
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30" t="str">
         <f>data!B24</f>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="26" t="str">
+    <row r="46">
+      <c r="A46" s="30" t="str">
+        <f>data!B22</f>
+      </c>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30" t="str">
+        <f>data!B24</f>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="30" t="str">
         <f>data!B21</f>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26" t="str">
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30" t="str">
+        <f>data!B23</f>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="30" t="str">
+        <f>data!B21</f>
+      </c>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30" t="str">
         <f>data!B24</f>
       </c>
     </row>
-    <row r="46">
-      <c r="F46" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" s="19"/>
-    </row>
-    <row r="47">
-      <c r="F47" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48">
-      <c r="F48" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G48" s="19"/>
-    </row>
-    <row r="49">
-      <c r="F49" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G49" s="19"/>
+    <row r="50">
+      <c r="F50" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50" s="23"/>
+    </row>
+    <row r="51">
+      <c r="F51" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="23"/>
+    </row>
+    <row r="52">
+      <c r="F52" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G52" s="23"/>
+    </row>
+    <row r="53">
+      <c r="F53" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G53" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="I4:O4"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="I28:O28"/>
-    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="I30:O30"/>
+    <mergeCell ref="A41:G41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D4E4C4-15C1-724B-94C9-DD9C94F4D3CF}">
   <dimension ref="A1:O1"/>
   <sheetViews>
@@ -3227,631 +4002,631 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="true">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
     </row>
     <row r="3">
-      <c r="A3" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="I3" s="20" t="s">
+      <c r="A3" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="I3" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="O4" s="37" t="s">
-        <v>98</v>
+      <c r="G4" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="26" t="str">
-        <f>CONCATENATE("Pool G.2 ",'Pool Matches'!G47)</f>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26" t="str">
-        <f>CONCATENATE("Pool A.2 ",'Pool Matches'!G12)</f>
-      </c>
-      <c r="I5" s="26" t="str">
-        <f>CONCATENATE("Pool G.1 ",'Pool Matches'!G46)</f>
-      </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26" t="str">
+      <c r="A5" s="30" t="str">
+        <f>CONCATENATE("Pool G.2 ",'Pool Matches'!G51)</f>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30" t="str">
+        <f>CONCATENATE("Pool A.2 ",'Pool Matches'!G14)</f>
+      </c>
+      <c r="I5" s="30" t="str">
+        <f>CONCATENATE("Pool G.1 ",'Pool Matches'!G50)</f>
+      </c>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30" t="str">
         <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O10)</f>
       </c>
     </row>
     <row r="7">
       <c r="F7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="G7" s="23"/>
       <c r="N7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="O7" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="O7" s="23"/>
     </row>
     <row r="8">
       <c r="F8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="N8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O8" s="23"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="I11" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="N8" s="7" t="s">
+      <c r="D12" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="O8" s="19"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="20" t="s">
+      <c r="L12" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="I11" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="O12" s="39" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" s="26" t="str">
-        <f>CONCATENATE("Pool F.2 ",'Pool Matches'!O35)</f>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26" t="str">
+      <c r="A13" s="30" t="str">
+        <f>CONCATENATE("Pool F.2 ",'Pool Matches'!O37)</f>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30" t="str">
         <f>CONCATENATE("Pool B.2 ",'Pool Matches'!O11)</f>
       </c>
-      <c r="I13" s="26" t="str">
-        <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G23)</f>
-      </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26" t="str">
-        <f>CONCATENATE("Pool E.2 ",'Pool Matches'!G35)</f>
+      <c r="I13" s="30" t="str">
+        <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G25)</f>
+      </c>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30" t="str">
+        <f>CONCATENATE("Pool E.2 ",'Pool Matches'!G37)</f>
       </c>
     </row>
     <row r="15">
       <c r="F15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="G15" s="23"/>
       <c r="N15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="O15" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="O15" s="23"/>
     </row>
     <row r="16">
       <c r="F16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="N16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" s="23"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="I19" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="N16" s="7" t="s">
+      <c r="D20" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="O16" s="19"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="I19" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="L20" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="O20" s="41" t="s">
-        <v>98</v>
+      <c r="L20" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="O20" s="45" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="26" t="str">
-        <f>CONCATENATE("Pool E.1 ",'Pool Matches'!G34)</f>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26" t="str">
-        <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G24)</f>
-      </c>
-      <c r="I21" s="26" t="str">
-        <f>CONCATENATE("Pool D.1 ",'Pool Matches'!O23)</f>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26" t="str">
-        <f>CONCATENATE("Pool D.2 ",'Pool Matches'!O24)</f>
+      <c r="A21" s="30" t="str">
+        <f>CONCATENATE("Pool E.1 ",'Pool Matches'!G36)</f>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30" t="str">
+        <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G26)</f>
+      </c>
+      <c r="I21" s="30" t="str">
+        <f>CONCATENATE("Pool D.1 ",'Pool Matches'!O25)</f>
+      </c>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30" t="str">
+        <f>CONCATENATE("Pool D.2 ",'Pool Matches'!O26)</f>
       </c>
     </row>
     <row r="23">
       <c r="F23" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="G23" s="23"/>
       <c r="N23" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="O23" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="O23" s="23"/>
     </row>
     <row r="24">
       <c r="F24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="N24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O24" s="23"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="I34" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="N24" s="7" t="s">
+      <c r="D35" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="O24" s="19"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="I34" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="G35" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="L35" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="O35" s="43" t="s">
-        <v>98</v>
+      <c r="L35" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="O35" s="47" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="26" t="str">
-        <f>CONCATENATE("Pool A.1 ",'Pool Matches'!G11)</f>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26" t="str">
+      <c r="A36" s="30" t="str">
+        <f>CONCATENATE("Pool A.1 ",'Pool Matches'!G13)</f>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30" t="str">
         <f>CONCATENATE("M 1 ",'Elimination Matches'!G7)</f>
       </c>
-      <c r="I36" s="26" t="str">
+      <c r="I36" s="30" t="str">
         <f>CONCATENATE("M 2 ",'Elimination Matches'!O7)</f>
       </c>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26" t="str">
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30" t="str">
         <f>CONCATENATE("M 3 ",'Elimination Matches'!G15)</f>
       </c>
     </row>
     <row r="38">
       <c r="F38" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G38" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="G38" s="23"/>
       <c r="N38" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="O38" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="O38" s="23"/>
     </row>
     <row r="39">
       <c r="F39" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" s="23"/>
+      <c r="N39" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O39" s="23"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="I42" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G39" s="19"/>
-      <c r="N39" s="7" t="s">
+      <c r="D43" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="O39" s="19"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="I42" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="G43" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="I43" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="L43" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="O43" s="45" t="s">
-        <v>98</v>
+      <c r="L43" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="O43" s="49" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="26" t="str">
-        <f>CONCATENATE("Pool F.1 ",'Pool Matches'!O34)</f>
-      </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26" t="str">
+      <c r="A44" s="30" t="str">
+        <f>CONCATENATE("Pool F.1 ",'Pool Matches'!O36)</f>
+      </c>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30" t="str">
         <f>CONCATENATE("M 4 ",'Elimination Matches'!O15)</f>
       </c>
-      <c r="I44" s="26" t="str">
+      <c r="I44" s="30" t="str">
         <f>CONCATENATE("M 5 ",'Elimination Matches'!G23)</f>
       </c>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26" t="str">
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30" t="str">
         <f>CONCATENATE("M 6 ",'Elimination Matches'!O23)</f>
       </c>
     </row>
     <row r="46">
       <c r="F46" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G46" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="G46" s="23"/>
       <c r="N46" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="O46" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="O46" s="23"/>
     </row>
     <row r="47">
       <c r="F47" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" s="23"/>
+      <c r="N47" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O47" s="23"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="I57" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G47" s="19"/>
-      <c r="N47" s="7" t="s">
+      <c r="D58" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G58" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="I58" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="O47" s="19"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="I57" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="G58" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="I58" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="L58" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="O58" s="47" t="s">
-        <v>98</v>
+      <c r="L58" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="O58" s="51" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="26" t="str">
+      <c r="A59" s="30" t="str">
         <f>CONCATENATE("M 7 ",'Elimination Matches'!G38)</f>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26" t="str">
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30" t="str">
         <f>CONCATENATE("M 8 ",'Elimination Matches'!O38)</f>
       </c>
-      <c r="I59" s="26" t="str">
+      <c r="I59" s="30" t="str">
         <f>CONCATENATE("M 9 ",'Elimination Matches'!G46)</f>
       </c>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26" t="str">
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30" t="str">
         <f>CONCATENATE("M 10 ",'Elimination Matches'!O46)</f>
       </c>
     </row>
     <row r="61">
       <c r="F61" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G61" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="G61" s="23"/>
       <c r="N61" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="O61" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="O61" s="23"/>
     </row>
     <row r="62">
       <c r="F62" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G62" s="23"/>
+      <c r="N62" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O62" s="23"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G62" s="19"/>
-      <c r="N62" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="O62" s="19"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="20"/>
-      <c r="O70" s="20"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="G73" s="48" t="s">
-        <v>98</v>
+      <c r="D73" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G73" s="52" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="26" t="str">
+      <c r="A74" s="30" t="str">
         <f>CONCATENATE("M 11 ",'Elimination Matches'!G61)</f>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26" t="str">
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30" t="str">
         <f>CONCATENATE("M 12 ",'Elimination Matches'!O61)</f>
       </c>
     </row>
     <row r="76">
       <c r="F76" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G76" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="G76" s="23"/>
     </row>
     <row r="77">
       <c r="F77" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G77" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="G77" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -3877,7 +4652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA952CF-7580-BA4A-BFF2-63054D7F5497}">
   <sheetPr>
     <pageSetUpPr fitToPage="true"/>
@@ -3896,326 +4671,326 @@
   </cols>
   <sheetData>
     <row r="1" ht="110" customHeight="true">
-      <c r="A1" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="35" t="str">
+      <c r="A1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="39" t="str">
         <f>data!D2</f>
       </c>
     </row>
     <row r="2" ht="115" customHeight="true">
-      <c r="A2" s="34">
+      <c r="A2" s="38">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="39"/>
     </row>
     <row r="3" ht="110" customHeight="true">
-      <c r="A3" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="35" t="str">
+      <c r="A3" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="39" t="str">
         <f>data!D3</f>
       </c>
     </row>
     <row r="4" ht="115" customHeight="true">
-      <c r="A4" s="34">
+      <c r="A4" s="38">
         <v>2</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="39"/>
     </row>
     <row r="5" ht="110" customHeight="true">
-      <c r="A5" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="35" t="str">
+      <c r="A5" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="39" t="str">
         <f>data!D4</f>
       </c>
     </row>
     <row r="6" ht="115" customHeight="true">
-      <c r="A6" s="34">
+      <c r="A6" s="38">
         <v>3</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="39"/>
     </row>
     <row r="7" ht="110" customHeight="true">
-      <c r="A7" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="35" t="str">
+      <c r="A7" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="39" t="str">
         <f>data!D5</f>
       </c>
     </row>
     <row r="8" ht="115" customHeight="true">
-      <c r="A8" s="34">
+      <c r="A8" s="38">
         <v>4</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="39"/>
     </row>
     <row r="9" ht="110" customHeight="true">
-      <c r="A9" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="35" t="str">
+      <c r="A9" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="39" t="str">
         <f>data!D6</f>
       </c>
     </row>
     <row r="10" ht="115" customHeight="true">
-      <c r="A10" s="34">
+      <c r="A10" s="38">
         <v>1</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="39"/>
     </row>
     <row r="11" ht="110" customHeight="true">
-      <c r="A11" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="35" t="str">
+      <c r="A11" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="39" t="str">
         <f>data!D7</f>
       </c>
     </row>
     <row r="12" ht="115" customHeight="true">
-      <c r="A12" s="34">
+      <c r="A12" s="38">
         <v>2</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="39"/>
     </row>
     <row r="13" ht="110" customHeight="true">
-      <c r="A13" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="35" t="str">
+      <c r="A13" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="39" t="str">
         <f>data!D8</f>
       </c>
     </row>
     <row r="14" ht="115" customHeight="true">
-      <c r="A14" s="34">
+      <c r="A14" s="38">
         <v>3</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="39"/>
     </row>
     <row r="15" ht="110" customHeight="true">
-      <c r="A15" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="35" t="str">
+      <c r="A15" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="39" t="str">
         <f>data!D9</f>
       </c>
     </row>
     <row r="16" ht="115" customHeight="true">
-      <c r="A16" s="34">
+      <c r="A16" s="38">
         <v>1</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="39"/>
     </row>
     <row r="17" ht="110" customHeight="true">
-      <c r="A17" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="35" t="str">
+      <c r="A17" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="39" t="str">
         <f>data!D10</f>
       </c>
     </row>
     <row r="18" ht="115" customHeight="true">
-      <c r="A18" s="34">
+      <c r="A18" s="38">
         <v>2</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="39"/>
     </row>
     <row r="19" ht="110" customHeight="true">
-      <c r="A19" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="35" t="str">
+      <c r="A19" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="39" t="str">
         <f>data!D11</f>
       </c>
     </row>
     <row r="20" ht="115" customHeight="true">
-      <c r="A20" s="34">
+      <c r="A20" s="38">
         <v>3</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="39"/>
     </row>
     <row r="21" ht="110" customHeight="true">
-      <c r="A21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="35" t="str">
+      <c r="A21" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="39" t="str">
         <f>data!D12</f>
       </c>
     </row>
     <row r="22" ht="115" customHeight="true">
-      <c r="A22" s="34">
+      <c r="A22" s="38">
         <v>1</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="39"/>
     </row>
     <row r="23" ht="110" customHeight="true">
-      <c r="A23" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="35" t="str">
+      <c r="A23" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="39" t="str">
         <f>data!D13</f>
       </c>
     </row>
     <row r="24" ht="115" customHeight="true">
-      <c r="A24" s="34">
+      <c r="A24" s="38">
         <v>2</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="39"/>
     </row>
     <row r="25" ht="110" customHeight="true">
-      <c r="A25" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="35" t="str">
+      <c r="A25" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="39" t="str">
         <f>data!D14</f>
       </c>
     </row>
     <row r="26" ht="115" customHeight="true">
-      <c r="A26" s="34">
+      <c r="A26" s="38">
         <v>3</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="39"/>
     </row>
     <row r="27" ht="110" customHeight="true">
-      <c r="A27" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="35" t="str">
+      <c r="A27" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="39" t="str">
         <f>data!D15</f>
       </c>
     </row>
     <row r="28" ht="115" customHeight="true">
-      <c r="A28" s="34">
+      <c r="A28" s="38">
         <v>1</v>
       </c>
-      <c r="B28" s="35"/>
+      <c r="B28" s="39"/>
     </row>
     <row r="29" ht="110" customHeight="true">
-      <c r="A29" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="35" t="str">
+      <c r="A29" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="39" t="str">
         <f>data!D16</f>
       </c>
     </row>
     <row r="30" ht="115" customHeight="true">
-      <c r="A30" s="34">
+      <c r="A30" s="38">
         <v>2</v>
       </c>
-      <c r="B30" s="35"/>
+      <c r="B30" s="39"/>
     </row>
     <row r="31" ht="110" customHeight="true">
-      <c r="A31" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="35" t="str">
+      <c r="A31" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="39" t="str">
         <f>data!D17</f>
       </c>
     </row>
     <row r="32" ht="115" customHeight="true">
-      <c r="A32" s="34">
+      <c r="A32" s="38">
         <v>3</v>
       </c>
-      <c r="B32" s="35"/>
+      <c r="B32" s="39"/>
     </row>
     <row r="33" ht="110" customHeight="true">
-      <c r="A33" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="35" t="str">
+      <c r="A33" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="39" t="str">
         <f>data!D18</f>
       </c>
     </row>
     <row r="34" ht="115" customHeight="true">
-      <c r="A34" s="34">
+      <c r="A34" s="38">
         <v>1</v>
       </c>
-      <c r="B34" s="35"/>
+      <c r="B34" s="39"/>
     </row>
     <row r="35" ht="110" customHeight="true">
-      <c r="A35" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="35" t="str">
+      <c r="A35" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="39" t="str">
         <f>data!D19</f>
       </c>
     </row>
     <row r="36" ht="115" customHeight="true">
-      <c r="A36" s="34">
+      <c r="A36" s="38">
         <v>2</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="39"/>
     </row>
     <row r="37" ht="110" customHeight="true">
-      <c r="A37" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="35" t="str">
+      <c r="A37" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="39" t="str">
         <f>data!D20</f>
       </c>
     </row>
     <row r="38" ht="115" customHeight="true">
-      <c r="A38" s="34">
+      <c r="A38" s="38">
         <v>3</v>
       </c>
-      <c r="B38" s="35"/>
+      <c r="B38" s="39"/>
     </row>
     <row r="39" ht="110" customHeight="true">
-      <c r="A39" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="35" t="str">
+      <c r="A39" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="39" t="str">
         <f>data!D21</f>
       </c>
     </row>
     <row r="40" ht="115" customHeight="true">
-      <c r="A40" s="34">
+      <c r="A40" s="38">
         <v>1</v>
       </c>
-      <c r="B40" s="35"/>
+      <c r="B40" s="39"/>
     </row>
     <row r="41" ht="110" customHeight="true">
-      <c r="A41" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="35" t="str">
+      <c r="A41" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="39" t="str">
         <f>data!D22</f>
       </c>
     </row>
     <row r="42" ht="115" customHeight="true">
-      <c r="A42" s="34">
+      <c r="A42" s="38">
         <v>2</v>
       </c>
-      <c r="B42" s="35"/>
+      <c r="B42" s="39"/>
     </row>
     <row r="43" ht="110" customHeight="true">
-      <c r="A43" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="35" t="str">
+      <c r="A43" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="39" t="str">
         <f>data!D23</f>
       </c>
     </row>
     <row r="44" ht="115" customHeight="true">
-      <c r="A44" s="34">
+      <c r="A44" s="38">
         <v>3</v>
       </c>
-      <c r="B44" s="35"/>
+      <c r="B44" s="39"/>
     </row>
     <row r="45" ht="110" customHeight="true">
-      <c r="A45" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="35" t="str">
+      <c r="A45" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="39" t="str">
         <f>data!D24</f>
       </c>
     </row>
     <row r="46" ht="115" customHeight="true">
-      <c r="A46" s="34">
+      <c r="A46" s="38">
         <v>4</v>
       </c>
-      <c r="B46" s="35"/>
+      <c r="B46" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -4247,472 +5022,4 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" horizontalDpi="0" orientation="landscape" paperSize="8" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4065E12-1BC4-BF48-9DCD-AFB9407081DC}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="true"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="false" view="pageLayout" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="13"/>
-  <cols>
-    <col customWidth="true" max="1" min="1" width="20.83203125"/>
-    <col customWidth="true" max="3" min="3" width="20"/>
-    <col customWidth="true" max="5" min="5" width="20"/>
-  </cols>
-  <sheetData>
-    <row r="4">
-      <c r="A4" s="21" t="str">
-        <f>data!A5</f>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="22" t="str">
-        <f>data!B2</f>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="23" t="str">
-        <f>data!B3</f>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="23" t="str">
-        <f>data!B4</f>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="24" t="str">
-        <f>data!B5</f>
-      </c>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="18"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="21" t="str">
-        <f>data!A8</f>
-      </c>
-      <c r="G10" s="17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="22" t="str">
-        <f>data!B6</f>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="23" t="str">
-        <f>data!B7</f>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="24" t="str">
-        <f>data!B8</f>
-      </c>
-      <c r="E13" s="17">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="16"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="18"/>
-      <c r="C14" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="16"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="21" t="str">
-        <f>data!A11</f>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="22" t="str">
-        <f>data!B9</f>
-      </c>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="23" t="str">
-        <f>data!B10</f>
-      </c>
-      <c r="I17" s="16"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="24" t="str">
-        <f>data!B11</f>
-      </c>
-      <c r="I18" s="17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="18"/>
-      <c r="C19" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="21" t="str">
-        <f>data!A14</f>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="22" t="str">
-        <f>data!B12</f>
-      </c>
-      <c r="E21" s="17">
-        <v>2</v>
-      </c>
-      <c r="I21" s="16"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="23" t="str">
-        <f>data!B13</f>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="24" t="str">
-        <f>data!B14</f>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="G23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="18"/>
-      <c r="G24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="21" t="str">
-        <f>data!A17</f>
-      </c>
-      <c r="G25" s="17">
-        <v>8</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="16"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="22" t="str">
-        <f>data!B15</f>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="16"/>
-      <c r="K26" s="16"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="23" t="str">
-        <f>data!B16</f>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="24" t="str">
-        <f>data!B17</f>
-      </c>
-      <c r="E28" s="17">
-        <v>3</v>
-      </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="16"/>
-      <c r="K28" s="16"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="18"/>
-      <c r="C29" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="21" t="str">
-        <f>data!A20</f>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="22" t="str">
-        <f>data!B18</f>
-      </c>
-      <c r="K31" s="16"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="23" t="str">
-        <f>data!B19</f>
-      </c>
-      <c r="K32" s="16"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="24" t="str">
-        <f>data!B20</f>
-      </c>
-      <c r="K33" s="16"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="18"/>
-      <c r="K34" s="17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="21" t="str">
-        <f>data!A24</f>
-      </c>
-      <c r="K35" s="16"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="22" t="str">
-        <f>data!B21</f>
-      </c>
-      <c r="K36" s="16"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="23" t="str">
-        <f>data!B22</f>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="K37" s="16"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="23" t="str">
-        <f>data!B23</f>
-      </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="16"/>
-      <c r="K38" s="16"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="24" t="str">
-        <f>data!B24</f>
-      </c>
-      <c r="G39" s="16"/>
-      <c r="K39" s="16"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="18"/>
-      <c r="G40" s="16"/>
-      <c r="K40" s="16"/>
-    </row>
-    <row r="41">
-      <c r="G41" s="17">
-        <v>9</v>
-      </c>
-      <c r="K41" s="16"/>
-    </row>
-    <row r="42">
-      <c r="C42" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" s="16"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="16"/>
-      <c r="K42" s="16"/>
-    </row>
-    <row r="43">
-      <c r="C43" s="20"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="K43" s="16"/>
-    </row>
-    <row r="44">
-      <c r="E44" s="17">
-        <v>4</v>
-      </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="K44" s="16"/>
-    </row>
-    <row r="45">
-      <c r="C45" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="K45" s="16"/>
-    </row>
-    <row r="46">
-      <c r="C46" s="20"/>
-      <c r="I46" s="16"/>
-      <c r="K46" s="16"/>
-    </row>
-    <row r="47">
-      <c r="I47" s="16"/>
-      <c r="K47" s="16"/>
-    </row>
-    <row r="48">
-      <c r="I48" s="16"/>
-      <c r="K48" s="16"/>
-    </row>
-    <row r="49">
-      <c r="I49" s="17">
-        <v>12</v>
-      </c>
-      <c r="J49" s="19"/>
-      <c r="K49" s="16"/>
-    </row>
-    <row r="50">
-      <c r="C50" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="I50" s="16"/>
-    </row>
-    <row r="51">
-      <c r="C51" s="20"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="16"/>
-      <c r="I51" s="16"/>
-    </row>
-    <row r="52">
-      <c r="E52" s="17">
-        <v>5</v>
-      </c>
-      <c r="I52" s="16"/>
-    </row>
-    <row r="53">
-      <c r="C53" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="16"/>
-      <c r="I53" s="16"/>
-    </row>
-    <row r="54">
-      <c r="C54" s="20"/>
-      <c r="G54" s="16"/>
-      <c r="I54" s="16"/>
-    </row>
-    <row r="55">
-      <c r="G55" s="16"/>
-      <c r="I55" s="16"/>
-    </row>
-    <row r="56">
-      <c r="G56" s="17">
-        <v>10</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="16"/>
-    </row>
-    <row r="57">
-      <c r="C57" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G57" s="16"/>
-    </row>
-    <row r="58">
-      <c r="C58" s="20"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="16"/>
-      <c r="G58" s="16"/>
-    </row>
-    <row r="59">
-      <c r="E59" s="17">
-        <v>6</v>
-      </c>
-      <c r="F59" s="19"/>
-      <c r="G59" s="16"/>
-    </row>
-    <row r="60">
-      <c r="C60" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="16"/>
-    </row>
-    <row r="61">
-      <c r="C61" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C60:C61"/>
-  </mergeCells>
-  <printOptions horizontalCentered="true" verticalCentered="true"/>
-  <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/pools-example-medium.xlsx
+++ b/pools-example-medium.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="26060" windowHeight="21580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -92,6 +92,213 @@
     <t>Pool A</t>
   </si>
   <si>
+    <t>Cersei Lannister</t>
+  </si>
+  <si>
+    <t>Team Gamma</t>
+  </si>
+  <si>
+    <t>C. LANNISTER</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen</t>
+  </si>
+  <si>
+    <t>Team Delta</t>
+  </si>
+  <si>
+    <t>D. TARGARYEN</t>
+  </si>
+  <si>
+    <t>Eddard Stark</t>
+  </si>
+  <si>
+    <t>Team Epsilon</t>
+  </si>
+  <si>
+    <t>E. STARK</t>
+  </si>
+  <si>
+    <t>Xaro Xhoan Daxos</t>
+  </si>
+  <si>
+    <t>Team Omega</t>
+  </si>
+  <si>
+    <t>X. DAXOS</t>
+  </si>
+  <si>
+    <t>Pool B</t>
+  </si>
+  <si>
+    <t>Frodo Baggins</t>
+  </si>
+  <si>
+    <t>Team Zeta</t>
+  </si>
+  <si>
+    <t>F. BAGGINS</t>
+  </si>
+  <si>
+    <t>Gandalf The Grey</t>
+  </si>
+  <si>
+    <t>Team Eta</t>
+  </si>
+  <si>
+    <t>G. GREY</t>
+  </si>
+  <si>
+    <t>Hermione Granger</t>
+  </si>
+  <si>
+    <t>Team Theta</t>
+  </si>
+  <si>
+    <t>H. GRANGER</t>
+  </si>
+  <si>
+    <t>Pool C</t>
+  </si>
+  <si>
+    <t>Inigo Montoya</t>
+  </si>
+  <si>
+    <t>Team Iota</t>
+  </si>
+  <si>
+    <t>I. MONTOYA</t>
+  </si>
+  <si>
+    <t>Jon Snow</t>
+  </si>
+  <si>
+    <t>Team Kappa</t>
+  </si>
+  <si>
+    <t>J. SNOW</t>
+  </si>
+  <si>
+    <t>Katniss Everdeen</t>
+  </si>
+  <si>
+    <t>Team Lambda</t>
+  </si>
+  <si>
+    <t>K. EVERDEEN</t>
+  </si>
+  <si>
+    <t>Pool D</t>
+  </si>
+  <si>
+    <t>Legolas Greenleaf</t>
+  </si>
+  <si>
+    <t>Team Mu</t>
+  </si>
+  <si>
+    <t>L. GREENLEAF</t>
+  </si>
+  <si>
+    <t>Moby Dick</t>
+  </si>
+  <si>
+    <t>Team Nu</t>
+  </si>
+  <si>
+    <t>M. DICK</t>
+  </si>
+  <si>
+    <t>Neville Longbottom</t>
+  </si>
+  <si>
+    <t>Team Xi</t>
+  </si>
+  <si>
+    <t>N. LONGBOTTOM</t>
+  </si>
+  <si>
+    <t>Pool E</t>
+  </si>
+  <si>
+    <t>Othello</t>
+  </si>
+  <si>
+    <t>Team Omicron</t>
+  </si>
+  <si>
+    <t>O. OTHELLO</t>
+  </si>
+  <si>
+    <t>Petyr Baelish</t>
+  </si>
+  <si>
+    <t>Team Pi</t>
+  </si>
+  <si>
+    <t>P. BAELISH</t>
+  </si>
+  <si>
+    <t>Quirinus Quirrell</t>
+  </si>
+  <si>
+    <t>Team Rho</t>
+  </si>
+  <si>
+    <t>Q. QUIRRELL</t>
+  </si>
+  <si>
+    <t>Pool F</t>
+  </si>
+  <si>
+    <t>Ron Weasley</t>
+  </si>
+  <si>
+    <t>Team Sigma</t>
+  </si>
+  <si>
+    <t>R. WEASLEY</t>
+  </si>
+  <si>
+    <t>Samwise Gamgee</t>
+  </si>
+  <si>
+    <t>Team Tau</t>
+  </si>
+  <si>
+    <t>S. GAMGEE</t>
+  </si>
+  <si>
+    <t>Tyrion Lannister</t>
+  </si>
+  <si>
+    <t>Team Upsilon</t>
+  </si>
+  <si>
+    <t>T. LANNISTER</t>
+  </si>
+  <si>
+    <t>Pool G</t>
+  </si>
+  <si>
+    <t>Ulysses</t>
+  </si>
+  <si>
+    <t>Team Phi</t>
+  </si>
+  <si>
+    <t>U. ULYSSES</t>
+  </si>
+  <si>
+    <t>Voldemort</t>
+  </si>
+  <si>
+    <t>Team Chi</t>
+  </si>
+  <si>
+    <t>V. VOLDEMORT</t>
+  </si>
+  <si>
     <t>Willy Wonka</t>
   </si>
   <si>
@@ -108,213 +315,6 @@
   </si>
   <si>
     <t>Y. YGRITTE</t>
-  </si>
-  <si>
-    <t>Samwise Gamgee</t>
-  </si>
-  <si>
-    <t>Team Tau</t>
-  </si>
-  <si>
-    <t>S. GAMGEE</t>
-  </si>
-  <si>
-    <t>Ron Weasley</t>
-  </si>
-  <si>
-    <t>Team Sigma</t>
-  </si>
-  <si>
-    <t>R. WEASLEY</t>
-  </si>
-  <si>
-    <t>Pool B</t>
-  </si>
-  <si>
-    <t>Neville Longbottom</t>
-  </si>
-  <si>
-    <t>Team Xi</t>
-  </si>
-  <si>
-    <t>N. LONGBOTTOM</t>
-  </si>
-  <si>
-    <t>Petyr Baelish</t>
-  </si>
-  <si>
-    <t>Team Pi</t>
-  </si>
-  <si>
-    <t>P. BAELISH</t>
-  </si>
-  <si>
-    <t>Hermione Granger</t>
-  </si>
-  <si>
-    <t>Team Theta</t>
-  </si>
-  <si>
-    <t>H. GRANGER</t>
-  </si>
-  <si>
-    <t>Pool C</t>
-  </si>
-  <si>
-    <t>Inigo Montoya</t>
-  </si>
-  <si>
-    <t>Team Iota</t>
-  </si>
-  <si>
-    <t>I. MONTOYA</t>
-  </si>
-  <si>
-    <t>Ulysses</t>
-  </si>
-  <si>
-    <t>Team Phi</t>
-  </si>
-  <si>
-    <t>U. ULYSSES</t>
-  </si>
-  <si>
-    <t>Tyrion Lannister</t>
-  </si>
-  <si>
-    <t>Team Upsilon</t>
-  </si>
-  <si>
-    <t>T. LANNISTER</t>
-  </si>
-  <si>
-    <t>Pool D</t>
-  </si>
-  <si>
-    <t>Quirinus Quirrell</t>
-  </si>
-  <si>
-    <t>Team Rho</t>
-  </si>
-  <si>
-    <t>Q. QUIRRELL</t>
-  </si>
-  <si>
-    <t>Legolas Greenleaf</t>
-  </si>
-  <si>
-    <t>Team Mu</t>
-  </si>
-  <si>
-    <t>L. GREENLEAF</t>
-  </si>
-  <si>
-    <t>Cersei Lannister</t>
-  </si>
-  <si>
-    <t>Team Gamma</t>
-  </si>
-  <si>
-    <t>C. LANNISTER</t>
-  </si>
-  <si>
-    <t>Pool E</t>
-  </si>
-  <si>
-    <t>Eddard Stark</t>
-  </si>
-  <si>
-    <t>Team Epsilon</t>
-  </si>
-  <si>
-    <t>E. STARK</t>
-  </si>
-  <si>
-    <t>Voldemort</t>
-  </si>
-  <si>
-    <t>Team Chi</t>
-  </si>
-  <si>
-    <t>V. VOLDEMORT</t>
-  </si>
-  <si>
-    <t>Daenerys Targaryen</t>
-  </si>
-  <si>
-    <t>Team Delta</t>
-  </si>
-  <si>
-    <t>D. TARGARYEN</t>
-  </si>
-  <si>
-    <t>Pool F</t>
-  </si>
-  <si>
-    <t>Frodo Baggins</t>
-  </si>
-  <si>
-    <t>Team Zeta</t>
-  </si>
-  <si>
-    <t>F. BAGGINS</t>
-  </si>
-  <si>
-    <t>Jon Snow</t>
-  </si>
-  <si>
-    <t>Team Kappa</t>
-  </si>
-  <si>
-    <t>J. SNOW</t>
-  </si>
-  <si>
-    <t>Moby Dick</t>
-  </si>
-  <si>
-    <t>Team Nu</t>
-  </si>
-  <si>
-    <t>M. DICK</t>
-  </si>
-  <si>
-    <t>Pool G</t>
-  </si>
-  <si>
-    <t>Katniss Everdeen</t>
-  </si>
-  <si>
-    <t>Team Lambda</t>
-  </si>
-  <si>
-    <t>K. EVERDEEN</t>
-  </si>
-  <si>
-    <t>Xaro Xhoan Daxos</t>
-  </si>
-  <si>
-    <t>Team Omega</t>
-  </si>
-  <si>
-    <t>X. DAXOS</t>
-  </si>
-  <si>
-    <t>Othello</t>
-  </si>
-  <si>
-    <t>Team Omicron</t>
-  </si>
-  <si>
-    <t>O. OTHELLO</t>
-  </si>
-  <si>
-    <t>Gandalf The Grey</t>
-  </si>
-  <si>
-    <t>Team Eta</t>
-  </si>
-  <si>
-    <t>G. GREY</t>
   </si>
   <si>
     <t>Pool A.1</t>
@@ -728,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -787,8 +787,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="false">
       <alignment/>
@@ -801,6 +801,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false">
       <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -2478,462 +2481,342 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="false" view="pageLayout" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56"/>
+    <sheetView showGridLines="false" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="13"/>
   <cols>
     <col customWidth="true" max="1" min="1" width="20.83203125"/>
-    <col customWidth="true" max="3" min="3" width="20"/>
-    <col customWidth="true" max="5" min="5" width="20"/>
+    <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
+    <row r="2">
+      <c r="A2" s="25" t="str">
+        <f>data!A5</f>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="26" t="str">
+        <f>data!B2</f>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="20"/>
+    </row>
     <row r="4">
-      <c r="A4" s="25" t="str">
-        <f>data!A5</f>
+      <c r="A4" s="27" t="str">
+        <f>data!B3</f>
+      </c>
+      <c r="G4" s="21">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="26" t="str">
-        <f>data!B2</f>
-      </c>
+      <c r="A5" s="27" t="str">
+        <f>data!B4</f>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6">
-      <c r="A6" s="27" t="str">
-        <f>data!B3</f>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>91</v>
-      </c>
+      <c r="A6" s="28" t="str">
+        <f>data!B5</f>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="20"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7">
-      <c r="A7" s="27" t="str">
-        <f>data!B4</f>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="20"/>
+      <c r="A7" s="22"/>
+      <c r="C7" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="20"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8">
-      <c r="A8" s="28" t="str">
-        <f>data!B5</f>
-      </c>
-      <c r="G8" s="20"/>
+      <c r="A8" s="25" t="str">
+        <f>data!A8</f>
+      </c>
+      <c r="I8" s="21">
+        <v>11</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="22"/>
-      <c r="G9" s="20"/>
+      <c r="A9" s="26" t="str">
+        <f>data!B6</f>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10">
-      <c r="A10" s="25" t="str">
-        <f>data!A8</f>
-      </c>
-      <c r="G10" s="21">
-        <v>7</v>
-      </c>
+      <c r="A10" s="27" t="str">
+        <f>data!B7</f>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="21">
+        <v>2</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11">
-      <c r="A11" s="26" t="str">
-        <f>data!B6</f>
+      <c r="A11" s="28" t="str">
+        <f>data!B8</f>
       </c>
       <c r="C11" s="24" t="s">
-        <v>92</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="22"/>
       <c r="I11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12">
-      <c r="A12" s="27" t="str">
-        <f>data!B7</f>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="A12" s="22"/>
+      <c r="G12" s="21">
+        <v>8</v>
+      </c>
+      <c r="H12" s="23"/>
       <c r="I12" s="20"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13">
-      <c r="A13" s="28" t="str">
-        <f>data!B8</f>
-      </c>
-      <c r="E13" s="21">
-        <v>1</v>
-      </c>
-      <c r="F13" s="23"/>
+      <c r="A13" s="25" t="str">
+        <f>data!A11</f>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="G13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14">
-      <c r="A14" s="22"/>
-      <c r="C14" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="A14" s="26" t="str">
+        <f>data!B9</f>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="21">
+        <v>3</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="A15" s="25" t="str">
-        <f>data!A11</f>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="I15" s="20"/>
+      <c r="A15" s="27" t="str">
+        <f>data!B10</f>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16">
-      <c r="A16" s="26" t="str">
-        <f>data!B9</f>
-      </c>
-      <c r="I16" s="20"/>
+      <c r="A16" s="28" t="str">
+        <f>data!B11</f>
+      </c>
+      <c r="K16" s="21">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="27" t="str">
-        <f>data!B10</f>
-      </c>
-      <c r="I17" s="20"/>
+      <c r="A17" s="22"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18">
-      <c r="A18" s="28" t="str">
-        <f>data!B11</f>
-      </c>
-      <c r="I18" s="21">
-        <v>11</v>
-      </c>
+      <c r="A18" s="25" t="str">
+        <f>data!A14</f>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="20"/>
     </row>
     <row r="19">
-      <c r="A19" s="22"/>
-      <c r="C19" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="22"/>
+      <c r="A19" s="26" t="str">
+        <f>data!B12</f>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="20"/>
       <c r="K19" s="20"/>
     </row>
     <row r="20">
-      <c r="A20" s="25" t="str">
-        <f>data!A14</f>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="A20" s="27" t="str">
+        <f>data!B13</f>
+      </c>
+      <c r="G20" s="21">
+        <v>9</v>
+      </c>
       <c r="K20" s="20"/>
     </row>
     <row r="21">
-      <c r="A21" s="26" t="str">
-        <f>data!B12</f>
-      </c>
-      <c r="E21" s="21">
-        <v>2</v>
-      </c>
+      <c r="A21" s="28" t="str">
+        <f>data!B14</f>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="20"/>
       <c r="K21" s="20"/>
     </row>
     <row r="22">
-      <c r="A22" s="27" t="str">
-        <f>data!B13</f>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="22"/>
+      <c r="A22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="21">
+        <v>4</v>
+      </c>
+      <c r="F22" s="23"/>
       <c r="G22" s="20"/>
       <c r="I22" s="20"/>
       <c r="K22" s="20"/>
     </row>
     <row r="23">
-      <c r="A23" s="28" t="str">
-        <f>data!B14</f>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="G23" s="20"/>
+      <c r="A23" s="25" t="str">
+        <f>data!A17</f>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="20"/>
       <c r="I23" s="20"/>
       <c r="K23" s="20"/>
     </row>
     <row r="24">
-      <c r="A24" s="22"/>
-      <c r="G24" s="20"/>
-      <c r="I24" s="20"/>
+      <c r="A24" s="26" t="str">
+        <f>data!B15</f>
+      </c>
+      <c r="I24" s="21">
+        <v>12</v>
+      </c>
+      <c r="J24" s="23"/>
       <c r="K24" s="20"/>
     </row>
     <row r="25">
-      <c r="A25" s="25" t="str">
-        <f>data!A17</f>
-      </c>
-      <c r="G25" s="21">
-        <v>8</v>
-      </c>
-      <c r="H25" s="23"/>
+      <c r="A25" s="27" t="str">
+        <f>data!B16</f>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="I25" s="20"/>
-      <c r="K25" s="20"/>
     </row>
     <row r="26">
-      <c r="A26" s="26" t="str">
-        <f>data!B15</f>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="K26" s="20"/>
+      <c r="A26" s="28" t="str">
+        <f>data!B17</f>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="21">
+        <v>5</v>
+      </c>
+      <c r="I26" s="20"/>
     </row>
     <row r="27">
-      <c r="A27" s="27" t="str">
-        <f>data!B16</f>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="22"/>
+      <c r="C27" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="23"/>
       <c r="E27" s="20"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="20"/>
-      <c r="K27" s="20"/>
+      <c r="I27" s="20"/>
     </row>
     <row r="28">
-      <c r="A28" s="28" t="str">
-        <f>data!B17</f>
-      </c>
-      <c r="E28" s="21">
-        <v>3</v>
-      </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="20"/>
-      <c r="K28" s="20"/>
+      <c r="A28" s="25" t="str">
+        <f>data!A20</f>
+      </c>
+      <c r="G28" s="21">
+        <v>10</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="20"/>
     </row>
     <row r="29">
-      <c r="A29" s="22"/>
+      <c r="A29" s="26" t="str">
+        <f>data!B18</f>
+      </c>
       <c r="C29" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="20"/>
-      <c r="K29" s="20"/>
+        <v>103</v>
+      </c>
+      <c r="G29" s="20"/>
     </row>
     <row r="30">
-      <c r="A30" s="25" t="str">
-        <f>data!A20</f>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="K30" s="20"/>
+      <c r="A30" s="27" t="str">
+        <f>data!B19</f>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="21">
+        <v>6</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31">
-      <c r="A31" s="26" t="str">
-        <f>data!B18</f>
-      </c>
-      <c r="K31" s="20"/>
+      <c r="A31" s="28" t="str">
+        <f>data!B20</f>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32">
-      <c r="A32" s="27" t="str">
-        <f>data!B19</f>
-      </c>
-      <c r="K32" s="20"/>
+      <c r="A32" s="22"/>
     </row>
     <row r="33">
-      <c r="A33" s="28" t="str">
-        <f>data!B20</f>
-      </c>
-      <c r="K33" s="20"/>
+      <c r="A33" s="25" t="str">
+        <f>data!A24</f>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="22"/>
-      <c r="K34" s="21">
-        <v>13</v>
+      <c r="A34" s="26" t="str">
+        <f>data!B21</f>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="25" t="str">
-        <f>data!A24</f>
-      </c>
-      <c r="K35" s="20"/>
+      <c r="A35" s="27" t="str">
+        <f>data!B22</f>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="26" t="str">
-        <f>data!B21</f>
-      </c>
-      <c r="K36" s="20"/>
+      <c r="A36" s="27" t="str">
+        <f>data!B23</f>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="str">
-        <f>data!B22</f>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="K37" s="20"/>
+      <c r="A37" s="28" t="str">
+        <f>data!B24</f>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="str">
-        <f>data!B23</f>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="20"/>
-      <c r="K38" s="20"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="28" t="str">
-        <f>data!B24</f>
-      </c>
-      <c r="G39" s="20"/>
-      <c r="K39" s="20"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="22"/>
-      <c r="G40" s="20"/>
-      <c r="K40" s="20"/>
-    </row>
-    <row r="41">
-      <c r="G41" s="21">
-        <v>9</v>
-      </c>
-      <c r="K41" s="20"/>
-    </row>
-    <row r="42">
-      <c r="C42" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="20"/>
-      <c r="K42" s="20"/>
-    </row>
-    <row r="43">
-      <c r="C43" s="24"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="K43" s="20"/>
-    </row>
-    <row r="44">
-      <c r="E44" s="21">
-        <v>4</v>
-      </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="K44" s="20"/>
-    </row>
-    <row r="45">
-      <c r="C45" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="K45" s="20"/>
-    </row>
-    <row r="46">
-      <c r="C46" s="24"/>
-      <c r="I46" s="20"/>
-      <c r="K46" s="20"/>
-    </row>
-    <row r="47">
-      <c r="I47" s="20"/>
-      <c r="K47" s="20"/>
-    </row>
-    <row r="48">
-      <c r="I48" s="20"/>
-      <c r="K48" s="20"/>
-    </row>
-    <row r="49">
-      <c r="I49" s="21">
-        <v>12</v>
-      </c>
-      <c r="J49" s="23"/>
-      <c r="K49" s="20"/>
-    </row>
-    <row r="50">
-      <c r="C50" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="I50" s="20"/>
-    </row>
-    <row r="51">
-      <c r="C51" s="24"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="20"/>
-      <c r="I51" s="20"/>
-    </row>
-    <row r="52">
-      <c r="E52" s="21">
-        <v>5</v>
-      </c>
-      <c r="I52" s="20"/>
-    </row>
-    <row r="53">
-      <c r="C53" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="20"/>
-      <c r="I53" s="20"/>
-    </row>
-    <row r="54">
-      <c r="C54" s="24"/>
-      <c r="G54" s="20"/>
-      <c r="I54" s="20"/>
-    </row>
-    <row r="55">
-      <c r="G55" s="20"/>
-      <c r="I55" s="20"/>
-    </row>
-    <row r="56">
-      <c r="G56" s="21">
-        <v>10</v>
-      </c>
-      <c r="H56" s="23"/>
-      <c r="I56" s="20"/>
-    </row>
-    <row r="57">
-      <c r="C57" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="G57" s="20"/>
-    </row>
-    <row r="58">
-      <c r="C58" s="24"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="20"/>
-      <c r="G58" s="20"/>
-    </row>
-    <row r="59">
-      <c r="E59" s="21">
-        <v>6</v>
-      </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="20"/>
-    </row>
-    <row r="60">
-      <c r="C60" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="20"/>
-    </row>
-    <row r="61">
-      <c r="C61" s="24"/>
+      <c r="A38" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C60:C61"/>
-  </mergeCells>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2986,7 +2869,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="11">
         <v>3</v>
@@ -3096,7 +2979,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="12">
         <v>2.7777777777777779E-3</v>
@@ -3367,140 +3250,140 @@
   </cols>
   <sheetData>
     <row r="4">
-      <c r="A4" s="24" t="str">
+      <c r="A4" s="29" t="str">
         <f>data!A5</f>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="I4" s="24" t="str">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="I4" s="29" t="str">
         <f>data!A8</f>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="O5" s="33" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="30" t="str">
+      <c r="A6" s="31" t="str">
         <f>data!B2</f>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30" t="str">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31" t="str">
         <f>data!B3</f>
       </c>
-      <c r="I6" s="30" t="str">
+      <c r="I6" s="31" t="str">
         <f>data!B6</f>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30" t="str">
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="str">
         <f>data!B7</f>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="30" t="str">
+      <c r="A7" s="31" t="str">
         <f>data!B4</f>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30" t="str">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31" t="str">
         <f>data!B3</f>
       </c>
-      <c r="I7" s="30" t="str">
+      <c r="I7" s="31" t="str">
         <f>data!B8</f>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30" t="str">
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="str">
         <f>data!B7</f>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="30" t="str">
+      <c r="A8" s="31" t="str">
         <f>data!B4</f>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30" t="str">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31" t="str">
         <f>data!B5</f>
       </c>
-      <c r="I8" s="30" t="str">
+      <c r="I8" s="31" t="str">
         <f>data!B8</f>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30" t="str">
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="str">
         <f>data!B6</f>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="30" t="str">
+      <c r="A9" s="31" t="str">
         <f>data!B3</f>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30" t="str">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31" t="str">
         <f>data!B5</f>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="30" t="str">
+      <c r="A10" s="31" t="str">
         <f>data!B2</f>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30" t="str">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31" t="str">
         <f>data!B4</f>
       </c>
       <c r="N10" s="7" t="s">
@@ -3509,15 +3392,15 @@
       <c r="O10" s="23"/>
     </row>
     <row r="11">
-      <c r="A11" s="30" t="str">
+      <c r="A11" s="31" t="str">
         <f>data!B2</f>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30" t="str">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31" t="str">
         <f>data!B5</f>
       </c>
       <c r="N11" s="7" t="s">
@@ -3556,114 +3439,114 @@
       <c r="G16" s="23"/>
     </row>
     <row r="19">
-      <c r="A19" s="24" t="str">
+      <c r="A19" s="29" t="str">
         <f>data!A11</f>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="I19" s="24" t="str">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="I19" s="29" t="str">
         <f>data!A14</f>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
     </row>
     <row r="20">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="O20" s="34" t="s">
+      <c r="O20" s="35" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="30" t="str">
+      <c r="A21" s="31" t="str">
         <f>data!B9</f>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30" t="str">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31" t="str">
         <f>data!B10</f>
       </c>
-      <c r="I21" s="30" t="str">
+      <c r="I21" s="31" t="str">
         <f>data!B12</f>
       </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30" t="str">
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="str">
         <f>data!B13</f>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="30" t="str">
+      <c r="A22" s="31" t="str">
         <f>data!B11</f>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30" t="str">
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31" t="str">
         <f>data!B10</f>
       </c>
-      <c r="I22" s="30" t="str">
+      <c r="I22" s="31" t="str">
         <f>data!B14</f>
       </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30" t="str">
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="str">
         <f>data!B13</f>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="30" t="str">
+      <c r="A23" s="31" t="str">
         <f>data!B11</f>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30" t="str">
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31" t="str">
         <f>data!B9</f>
       </c>
-      <c r="I23" s="30" t="str">
+      <c r="I23" s="31" t="str">
         <f>data!B14</f>
       </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30" t="str">
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="str">
         <f>data!B12</f>
       </c>
     </row>
@@ -3698,114 +3581,114 @@
       <c r="O27" s="23"/>
     </row>
     <row r="30">
-      <c r="A30" s="24" t="str">
+      <c r="A30" s="29" t="str">
         <f>data!A17</f>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="I30" s="24" t="str">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="I30" s="29" t="str">
         <f>data!A20</f>
       </c>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
     </row>
     <row r="31">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="I31" s="29" t="s">
+      <c r="I31" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="L31" s="30" t="s">
+      <c r="L31" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="O31" s="36" t="s">
+      <c r="O31" s="37" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="30" t="str">
+      <c r="A32" s="31" t="str">
         <f>data!B15</f>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30" t="str">
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31" t="str">
         <f>data!B16</f>
       </c>
-      <c r="I32" s="30" t="str">
+      <c r="I32" s="31" t="str">
         <f>data!B18</f>
       </c>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30" t="str">
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="str">
         <f>data!B19</f>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="30" t="str">
+      <c r="A33" s="31" t="str">
         <f>data!B17</f>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30" t="str">
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31" t="str">
         <f>data!B16</f>
       </c>
-      <c r="I33" s="30" t="str">
+      <c r="I33" s="31" t="str">
         <f>data!B20</f>
       </c>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30" t="str">
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="str">
         <f>data!B19</f>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="30" t="str">
+      <c r="A34" s="31" t="str">
         <f>data!B17</f>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30" t="str">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31" t="str">
         <f>data!B15</f>
       </c>
-      <c r="I34" s="30" t="str">
+      <c r="I34" s="31" t="str">
         <f>data!B20</f>
       </c>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30" t="str">
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="str">
         <f>data!B18</f>
       </c>
     </row>
@@ -3840,102 +3723,102 @@
       <c r="O38" s="23"/>
     </row>
     <row r="41">
-      <c r="A41" s="24" t="str">
+      <c r="A41" s="29" t="str">
         <f>data!A24</f>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
     </row>
     <row r="42">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="G42" s="37" t="s">
+      <c r="G42" s="38" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="30" t="str">
+      <c r="A43" s="31" t="str">
         <f>data!B21</f>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30" t="str">
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31" t="str">
         <f>data!B22</f>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="30" t="str">
+      <c r="A44" s="31" t="str">
         <f>data!B23</f>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30" t="str">
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31" t="str">
         <f>data!B22</f>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="30" t="str">
+      <c r="A45" s="31" t="str">
         <f>data!B23</f>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30" t="str">
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31" t="str">
         <f>data!B24</f>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="30" t="str">
+      <c r="A46" s="31" t="str">
         <f>data!B22</f>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30" t="str">
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31" t="str">
         <f>data!B24</f>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="30" t="str">
+      <c r="A47" s="31" t="str">
         <f>data!B21</f>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30" t="str">
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31" t="str">
         <f>data!B23</f>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="30" t="str">
+      <c r="A48" s="31" t="str">
         <f>data!B21</f>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30" t="str">
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31" t="str">
         <f>data!B24</f>
       </c>
     </row>
@@ -4002,85 +3885,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="true">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
     </row>
     <row r="3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="I3" s="24" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="I3" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="O4" s="41" t="s">
+      <c r="O4" s="42" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="30" t="str">
+      <c r="A5" s="31" t="str">
         <f>CONCATENATE("Pool G.2 ",'Pool Matches'!G51)</f>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30" t="str">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31" t="str">
         <f>CONCATENATE("Pool A.2 ",'Pool Matches'!G14)</f>
       </c>
-      <c r="I5" s="30" t="str">
+      <c r="I5" s="31" t="str">
         <f>CONCATENATE("Pool G.1 ",'Pool Matches'!G50)</f>
       </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30" t="str">
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31" t="str">
         <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O10)</f>
       </c>
     </row>
@@ -4105,66 +3988,66 @@
       <c r="O8" s="23"/>
     </row>
     <row r="11">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="I11" s="24" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="I11" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
     </row>
     <row r="12">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="L12" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="O12" s="43" t="s">
+      <c r="O12" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="30" t="str">
+      <c r="A13" s="31" t="str">
         <f>CONCATENATE("Pool F.2 ",'Pool Matches'!O37)</f>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30" t="str">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31" t="str">
         <f>CONCATENATE("Pool B.2 ",'Pool Matches'!O11)</f>
       </c>
-      <c r="I13" s="30" t="str">
+      <c r="I13" s="31" t="str">
         <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G25)</f>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30" t="str">
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31" t="str">
         <f>CONCATENATE("Pool E.2 ",'Pool Matches'!G37)</f>
       </c>
     </row>
@@ -4189,66 +4072,66 @@
       <c r="O16" s="23"/>
     </row>
     <row r="19">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="I19" s="24" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="I19" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
     </row>
     <row r="20">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="O20" s="45" t="s">
+      <c r="O20" s="46" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="30" t="str">
+      <c r="A21" s="31" t="str">
         <f>CONCATENATE("Pool E.1 ",'Pool Matches'!G36)</f>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30" t="str">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31" t="str">
         <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G26)</f>
       </c>
-      <c r="I21" s="30" t="str">
+      <c r="I21" s="31" t="str">
         <f>CONCATENATE("Pool D.1 ",'Pool Matches'!O25)</f>
       </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30" t="str">
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="str">
         <f>CONCATENATE("Pool D.2 ",'Pool Matches'!O26)</f>
       </c>
     </row>
@@ -4273,85 +4156,85 @@
       <c r="O24" s="23"/>
     </row>
     <row r="32">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
     </row>
     <row r="34">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="I34" s="24" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="I34" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
     </row>
     <row r="35">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="46" t="s">
+      <c r="G35" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="I35" s="29" t="s">
+      <c r="I35" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="L35" s="30" t="s">
+      <c r="L35" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="O35" s="47" t="s">
+      <c r="O35" s="48" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="30" t="str">
+      <c r="A36" s="31" t="str">
         <f>CONCATENATE("Pool A.1 ",'Pool Matches'!G13)</f>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30" t="str">
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31" t="str">
         <f>CONCATENATE("M 1 ",'Elimination Matches'!G7)</f>
       </c>
-      <c r="I36" s="30" t="str">
+      <c r="I36" s="31" t="str">
         <f>CONCATENATE("M 2 ",'Elimination Matches'!O7)</f>
       </c>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30" t="str">
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31" t="str">
         <f>CONCATENATE("M 3 ",'Elimination Matches'!G15)</f>
       </c>
     </row>
@@ -4376,66 +4259,66 @@
       <c r="O39" s="23"/>
     </row>
     <row r="42">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="I42" s="24" t="s">
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="I42" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
     </row>
     <row r="43">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="G43" s="48" t="s">
+      <c r="G43" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="I43" s="29" t="s">
+      <c r="I43" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="L43" s="30" t="s">
+      <c r="L43" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="O43" s="49" t="s">
+      <c r="O43" s="50" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="30" t="str">
+      <c r="A44" s="31" t="str">
         <f>CONCATENATE("Pool F.1 ",'Pool Matches'!O36)</f>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30" t="str">
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31" t="str">
         <f>CONCATENATE("M 4 ",'Elimination Matches'!O15)</f>
       </c>
-      <c r="I44" s="30" t="str">
+      <c r="I44" s="31" t="str">
         <f>CONCATENATE("M 5 ",'Elimination Matches'!G23)</f>
       </c>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30" t="str">
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31" t="str">
         <f>CONCATENATE("M 6 ",'Elimination Matches'!O23)</f>
       </c>
     </row>
@@ -4460,85 +4343,85 @@
       <c r="O47" s="23"/>
     </row>
     <row r="55">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
     </row>
     <row r="57">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="I57" s="24" t="s">
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="I57" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
     </row>
     <row r="58">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="G58" s="50" t="s">
+      <c r="G58" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="I58" s="29" t="s">
+      <c r="I58" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="L58" s="30" t="s">
+      <c r="L58" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="O58" s="51" t="s">
+      <c r="O58" s="52" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="30" t="str">
+      <c r="A59" s="31" t="str">
         <f>CONCATENATE("M 7 ",'Elimination Matches'!G38)</f>
       </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30" t="str">
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31" t="str">
         <f>CONCATENATE("M 8 ",'Elimination Matches'!O38)</f>
       </c>
-      <c r="I59" s="30" t="str">
+      <c r="I59" s="31" t="str">
         <f>CONCATENATE("M 9 ",'Elimination Matches'!G46)</f>
       </c>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30" t="str">
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31" t="str">
         <f>CONCATENATE("M 10 ",'Elimination Matches'!O46)</f>
       </c>
     </row>
@@ -4563,56 +4446,56 @@
       <c r="O62" s="23"/>
     </row>
     <row r="70">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="24"/>
-      <c r="O70" s="24"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29"/>
     </row>
     <row r="72">
-      <c r="A72" s="24" t="s">
+      <c r="A72" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
     </row>
     <row r="73">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D73" s="30" t="s">
+      <c r="D73" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="G73" s="52" t="s">
+      <c r="G73" s="53" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="30" t="str">
+      <c r="A74" s="31" t="str">
         <f>CONCATENATE("M 11 ",'Elimination Matches'!G61)</f>
       </c>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30" t="str">
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31" t="str">
         <f>CONCATENATE("M 12 ",'Elimination Matches'!O61)</f>
       </c>
     </row>
@@ -4671,326 +4554,326 @@
   </cols>
   <sheetData>
     <row r="1" ht="110" customHeight="true">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="39" t="str">
+      <c r="B1" s="40" t="str">
         <f>data!D2</f>
       </c>
     </row>
     <row r="2" ht="115" customHeight="true">
-      <c r="A2" s="38">
+      <c r="A2" s="39">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="40"/>
     </row>
     <row r="3" ht="110" customHeight="true">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="39" t="str">
+      <c r="B3" s="40" t="str">
         <f>data!D3</f>
       </c>
     </row>
     <row r="4" ht="115" customHeight="true">
-      <c r="A4" s="38">
+      <c r="A4" s="39">
         <v>2</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="40"/>
     </row>
     <row r="5" ht="110" customHeight="true">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="39" t="str">
+      <c r="B5" s="40" t="str">
         <f>data!D4</f>
       </c>
     </row>
     <row r="6" ht="115" customHeight="true">
-      <c r="A6" s="38">
+      <c r="A6" s="39">
         <v>3</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="40"/>
     </row>
     <row r="7" ht="110" customHeight="true">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="39" t="str">
+      <c r="B7" s="40" t="str">
         <f>data!D5</f>
       </c>
     </row>
     <row r="8" ht="115" customHeight="true">
-      <c r="A8" s="38">
+      <c r="A8" s="39">
         <v>4</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="40"/>
     </row>
     <row r="9" ht="110" customHeight="true">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="39" t="str">
+      <c r="B9" s="40" t="str">
         <f>data!D6</f>
       </c>
     </row>
     <row r="10" ht="115" customHeight="true">
-      <c r="A10" s="38">
+      <c r="A10" s="39">
         <v>1</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="40"/>
     </row>
     <row r="11" ht="110" customHeight="true">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="39" t="str">
+      <c r="B11" s="40" t="str">
         <f>data!D7</f>
       </c>
     </row>
     <row r="12" ht="115" customHeight="true">
-      <c r="A12" s="38">
+      <c r="A12" s="39">
         <v>2</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="40"/>
     </row>
     <row r="13" ht="110" customHeight="true">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="39" t="str">
+      <c r="B13" s="40" t="str">
         <f>data!D8</f>
       </c>
     </row>
     <row r="14" ht="115" customHeight="true">
-      <c r="A14" s="38">
+      <c r="A14" s="39">
         <v>3</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="40"/>
     </row>
     <row r="15" ht="110" customHeight="true">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="39" t="str">
+      <c r="B15" s="40" t="str">
         <f>data!D9</f>
       </c>
     </row>
     <row r="16" ht="115" customHeight="true">
-      <c r="A16" s="38">
+      <c r="A16" s="39">
         <v>1</v>
       </c>
-      <c r="B16" s="39"/>
+      <c r="B16" s="40"/>
     </row>
     <row r="17" ht="110" customHeight="true">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="39" t="str">
+      <c r="B17" s="40" t="str">
         <f>data!D10</f>
       </c>
     </row>
     <row r="18" ht="115" customHeight="true">
-      <c r="A18" s="38">
+      <c r="A18" s="39">
         <v>2</v>
       </c>
-      <c r="B18" s="39"/>
+      <c r="B18" s="40"/>
     </row>
     <row r="19" ht="110" customHeight="true">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="39" t="str">
+      <c r="B19" s="40" t="str">
         <f>data!D11</f>
       </c>
     </row>
     <row r="20" ht="115" customHeight="true">
-      <c r="A20" s="38">
+      <c r="A20" s="39">
         <v>3</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B20" s="40"/>
     </row>
     <row r="21" ht="110" customHeight="true">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="39" t="str">
+      <c r="B21" s="40" t="str">
         <f>data!D12</f>
       </c>
     </row>
     <row r="22" ht="115" customHeight="true">
-      <c r="A22" s="38">
+      <c r="A22" s="39">
         <v>1</v>
       </c>
-      <c r="B22" s="39"/>
+      <c r="B22" s="40"/>
     </row>
     <row r="23" ht="110" customHeight="true">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="39" t="str">
+      <c r="B23" s="40" t="str">
         <f>data!D13</f>
       </c>
     </row>
     <row r="24" ht="115" customHeight="true">
-      <c r="A24" s="38">
+      <c r="A24" s="39">
         <v>2</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="40"/>
     </row>
     <row r="25" ht="110" customHeight="true">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="39" t="str">
+      <c r="B25" s="40" t="str">
         <f>data!D14</f>
       </c>
     </row>
     <row r="26" ht="115" customHeight="true">
-      <c r="A26" s="38">
+      <c r="A26" s="39">
         <v>3</v>
       </c>
-      <c r="B26" s="39"/>
+      <c r="B26" s="40"/>
     </row>
     <row r="27" ht="110" customHeight="true">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="39" t="str">
+      <c r="B27" s="40" t="str">
         <f>data!D15</f>
       </c>
     </row>
     <row r="28" ht="115" customHeight="true">
-      <c r="A28" s="38">
+      <c r="A28" s="39">
         <v>1</v>
       </c>
-      <c r="B28" s="39"/>
+      <c r="B28" s="40"/>
     </row>
     <row r="29" ht="110" customHeight="true">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="39" t="str">
+      <c r="B29" s="40" t="str">
         <f>data!D16</f>
       </c>
     </row>
     <row r="30" ht="115" customHeight="true">
-      <c r="A30" s="38">
+      <c r="A30" s="39">
         <v>2</v>
       </c>
-      <c r="B30" s="39"/>
+      <c r="B30" s="40"/>
     </row>
     <row r="31" ht="110" customHeight="true">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="39" t="str">
+      <c r="B31" s="40" t="str">
         <f>data!D17</f>
       </c>
     </row>
     <row r="32" ht="115" customHeight="true">
-      <c r="A32" s="38">
+      <c r="A32" s="39">
         <v>3</v>
       </c>
-      <c r="B32" s="39"/>
+      <c r="B32" s="40"/>
     </row>
     <row r="33" ht="110" customHeight="true">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="39" t="str">
+      <c r="B33" s="40" t="str">
         <f>data!D18</f>
       </c>
     </row>
     <row r="34" ht="115" customHeight="true">
-      <c r="A34" s="38">
+      <c r="A34" s="39">
         <v>1</v>
       </c>
-      <c r="B34" s="39"/>
+      <c r="B34" s="40"/>
     </row>
     <row r="35" ht="110" customHeight="true">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="39" t="str">
+      <c r="B35" s="40" t="str">
         <f>data!D19</f>
       </c>
     </row>
     <row r="36" ht="115" customHeight="true">
-      <c r="A36" s="38">
+      <c r="A36" s="39">
         <v>2</v>
       </c>
-      <c r="B36" s="39"/>
+      <c r="B36" s="40"/>
     </row>
     <row r="37" ht="110" customHeight="true">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="39" t="str">
+      <c r="B37" s="40" t="str">
         <f>data!D20</f>
       </c>
     </row>
     <row r="38" ht="115" customHeight="true">
-      <c r="A38" s="38">
+      <c r="A38" s="39">
         <v>3</v>
       </c>
-      <c r="B38" s="39"/>
+      <c r="B38" s="40"/>
     </row>
     <row r="39" ht="110" customHeight="true">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="39" t="str">
+      <c r="B39" s="40" t="str">
         <f>data!D21</f>
       </c>
     </row>
     <row r="40" ht="115" customHeight="true">
-      <c r="A40" s="38">
+      <c r="A40" s="39">
         <v>1</v>
       </c>
-      <c r="B40" s="39"/>
+      <c r="B40" s="40"/>
     </row>
     <row r="41" ht="110" customHeight="true">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="39" t="str">
+      <c r="B41" s="40" t="str">
         <f>data!D22</f>
       </c>
     </row>
     <row r="42" ht="115" customHeight="true">
-      <c r="A42" s="38">
+      <c r="A42" s="39">
         <v>2</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="40"/>
     </row>
     <row r="43" ht="110" customHeight="true">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="39" t="str">
+      <c r="B43" s="40" t="str">
         <f>data!D23</f>
       </c>
     </row>
     <row r="44" ht="115" customHeight="true">
-      <c r="A44" s="38">
+      <c r="A44" s="39">
         <v>3</v>
       </c>
-      <c r="B44" s="39"/>
+      <c r="B44" s="40"/>
     </row>
     <row r="45" ht="110" customHeight="true">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="39" t="str">
+      <c r="B45" s="40" t="str">
         <f>data!D24</f>
       </c>
     </row>
     <row r="46" ht="115" customHeight="true">
-      <c r="A46" s="38">
+      <c r="A46" s="39">
         <v>4</v>
       </c>
-      <c r="B46" s="39"/>
+      <c r="B46" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="23">

--- a/pools-example-medium.xlsx
+++ b/pools-example-medium.xlsx
@@ -320,43 +320,43 @@
     <t>Pool A.1</t>
   </si>
   <si>
+    <t>Pool C.1</t>
+  </si>
+  <si>
+    <t>Pool B.2</t>
+  </si>
+  <si>
+    <t>Pool E.1</t>
+  </si>
+  <si>
+    <t>Pool D.2</t>
+  </si>
+  <si>
+    <t>Pool G.1</t>
+  </si>
+  <si>
+    <t>Pool F.2</t>
+  </si>
+  <si>
+    <t>Pool B.1</t>
+  </si>
+  <si>
+    <t>Pool A.2</t>
+  </si>
+  <si>
+    <t>Pool C.2</t>
+  </si>
+  <si>
+    <t>Pool D.1</t>
+  </si>
+  <si>
+    <t>Pool E.2</t>
+  </si>
+  <si>
+    <t>Pool F.1</t>
+  </si>
+  <si>
     <t>Pool G.2</t>
-  </si>
-  <si>
-    <t>Pool A.2</t>
-  </si>
-  <si>
-    <t>Pool G.1</t>
-  </si>
-  <si>
-    <t>Pool B.1</t>
-  </si>
-  <si>
-    <t>Pool F.2</t>
-  </si>
-  <si>
-    <t>Pool B.2</t>
-  </si>
-  <si>
-    <t>Pool F.1</t>
-  </si>
-  <si>
-    <t>Pool C.1</t>
-  </si>
-  <si>
-    <t>Pool E.2</t>
-  </si>
-  <si>
-    <t>Pool E.1</t>
-  </si>
-  <si>
-    <t>Pool C.2</t>
-  </si>
-  <si>
-    <t>Pool D.1</t>
-  </si>
-  <si>
-    <t>Pool D.2</t>
   </si>
   <si>
     <t>Red</t>
@@ -2495,107 +2495,101 @@
       <c r="A2" s="25" t="str">
         <f>data!A5</f>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="str">
         <f>data!B2</f>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="20"/>
+      <c r="E3" s="24" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="27" t="str">
         <f>data!B3</f>
       </c>
-      <c r="G4" s="21">
-        <v>7</v>
-      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5">
       <c r="A5" s="27" t="str">
         <f>data!B4</f>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="20"/>
+      <c r="G5" s="21">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="28" t="str">
         <f>data!B5</f>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="21">
-        <v>1</v>
-      </c>
-      <c r="F6" s="23"/>
+      <c r="C6" s="24" t="s">
+        <v>92</v>
+      </c>
       <c r="G6" s="20"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="20"/>
     </row>
     <row r="7">
       <c r="A7" s="22"/>
-      <c r="C7" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="21">
+        <v>1</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="20"/>
       <c r="I7" s="20"/>
     </row>
     <row r="8">
       <c r="A8" s="25" t="str">
         <f>data!A8</f>
       </c>
-      <c r="I8" s="21">
-        <v>11</v>
-      </c>
+      <c r="C8" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="20"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9">
       <c r="A9" s="26" t="str">
         <f>data!B6</f>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="20"/>
+      <c r="I9" s="21">
+        <v>11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="27" t="str">
         <f>data!B7</f>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21">
-        <v>2</v>
+      <c r="C10" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="I10" s="20"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="20"/>
     </row>
     <row r="11">
       <c r="A11" s="28" t="str">
         <f>data!B8</f>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="20"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="21">
+        <v>2</v>
+      </c>
       <c r="I11" s="20"/>
       <c r="K11" s="20"/>
     </row>
     <row r="12">
       <c r="A12" s="22"/>
-      <c r="G12" s="21">
-        <v>8</v>
-      </c>
-      <c r="H12" s="23"/>
+      <c r="C12" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20"/>
       <c r="I12" s="20"/>
       <c r="K12" s="20"/>
     </row>
@@ -2603,21 +2597,20 @@
       <c r="A13" s="25" t="str">
         <f>data!A11</f>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="21">
+        <v>8</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14">
       <c r="A14" s="26" t="str">
         <f>data!B9</f>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21">
-        <v>3</v>
-      </c>
-      <c r="F14" s="23"/>
+      <c r="C14" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="G14" s="20"/>
       <c r="K14" s="20"/>
     </row>
@@ -2625,71 +2618,70 @@
       <c r="A15" s="27" t="str">
         <f>data!B10</f>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21">
+        <v>3</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="20"/>
       <c r="K15" s="20"/>
     </row>
     <row r="16">
       <c r="A16" s="28" t="str">
         <f>data!B11</f>
       </c>
-      <c r="K16" s="21">
-        <v>13</v>
-      </c>
+      <c r="C16" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17">
       <c r="A17" s="22"/>
-      <c r="K17" s="20"/>
+      <c r="K17" s="21">
+        <v>13</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="25" t="str">
         <f>data!A14</f>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>98</v>
-      </c>
       <c r="K18" s="20"/>
     </row>
     <row r="19">
       <c r="A19" s="26" t="str">
         <f>data!B12</f>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
+      <c r="E19" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="K19" s="20"/>
     </row>
     <row r="20">
       <c r="A20" s="27" t="str">
         <f>data!B13</f>
       </c>
-      <c r="G20" s="21">
-        <v>9</v>
-      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="20"/>
       <c r="K20" s="20"/>
     </row>
     <row r="21">
       <c r="A21" s="28" t="str">
         <f>data!B14</f>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="20"/>
+      <c r="G21" s="21">
+        <v>9</v>
+      </c>
       <c r="K21" s="20"/>
     </row>
     <row r="22">
       <c r="A22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="21">
-        <v>4</v>
-      </c>
-      <c r="F22" s="23"/>
+      <c r="C22" s="24" t="s">
+        <v>99</v>
+      </c>
       <c r="G22" s="20"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="20"/>
       <c r="K22" s="20"/>
     </row>
@@ -2697,11 +2689,12 @@
       <c r="A23" s="25" t="str">
         <f>data!A17</f>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21">
+        <v>4</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="20"/>
       <c r="I23" s="20"/>
       <c r="K23" s="20"/>
     </row>
@@ -2709,84 +2702,91 @@
       <c r="A24" s="26" t="str">
         <f>data!B15</f>
       </c>
-      <c r="I24" s="21">
-        <v>12</v>
-      </c>
-      <c r="J24" s="23"/>
+      <c r="C24" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="20"/>
+      <c r="I24" s="20"/>
       <c r="K24" s="20"/>
     </row>
     <row r="25">
       <c r="A25" s="27" t="str">
         <f>data!B16</f>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="I25" s="20"/>
+      <c r="I25" s="21">
+        <v>12</v>
+      </c>
+      <c r="J25" s="23"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26">
       <c r="A26" s="28" t="str">
         <f>data!B17</f>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21">
-        <v>5</v>
+      <c r="C26" s="24" t="s">
+        <v>101</v>
       </c>
       <c r="I26" s="20"/>
     </row>
     <row r="27">
       <c r="A27" s="22"/>
-      <c r="C27" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="20"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="21">
+        <v>5</v>
+      </c>
       <c r="I27" s="20"/>
     </row>
     <row r="28">
       <c r="A28" s="25" t="str">
         <f>data!A20</f>
       </c>
-      <c r="G28" s="21">
-        <v>10</v>
-      </c>
-      <c r="H28" s="23"/>
+      <c r="C28" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
       <c r="I28" s="20"/>
     </row>
     <row r="29">
       <c r="A29" s="26" t="str">
         <f>data!B18</f>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" s="20"/>
+      <c r="G29" s="21">
+        <v>10</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="20"/>
     </row>
     <row r="30">
       <c r="A30" s="27" t="str">
         <f>data!B19</f>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="21">
-        <v>6</v>
-      </c>
-      <c r="F30" s="23"/>
+      <c r="C30" s="24" t="s">
+        <v>103</v>
+      </c>
       <c r="G30" s="20"/>
     </row>
     <row r="31">
       <c r="A31" s="28" t="str">
         <f>data!B20</f>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="21">
+        <v>6</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32">
       <c r="A32" s="22"/>
+      <c r="C32" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="20"/>
     </row>
     <row r="33">
       <c r="A33" s="25" t="str">
@@ -2872,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" s="12">
         <v>2.0833333333333333E-3</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="5">
       <c r="A5" s="31" t="str">
-        <f>CONCATENATE("Pool G.2 ",'Pool Matches'!G51)</f>
+        <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G25)</f>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -3953,10 +3953,10 @@
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31" t="str">
-        <f>CONCATENATE("Pool A.2 ",'Pool Matches'!G14)</f>
+        <f>CONCATENATE("Pool B.2 ",'Pool Matches'!O11)</f>
       </c>
       <c r="I5" s="31" t="str">
-        <f>CONCATENATE("Pool G.1 ",'Pool Matches'!G50)</f>
+        <f>CONCATENATE("Pool E.1 ",'Pool Matches'!G36)</f>
       </c>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
@@ -3964,7 +3964,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
       <c r="O5" s="31" t="str">
-        <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O10)</f>
+        <f>CONCATENATE("Pool D.2 ",'Pool Matches'!O26)</f>
       </c>
     </row>
     <row r="7">
@@ -4029,7 +4029,7 @@
     </row>
     <row r="13">
       <c r="A13" s="31" t="str">
-        <f>CONCATENATE("Pool F.2 ",'Pool Matches'!O37)</f>
+        <f>CONCATENATE("Pool G.1 ",'Pool Matches'!G50)</f>
       </c>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
@@ -4037,10 +4037,10 @@
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31" t="str">
-        <f>CONCATENATE("Pool B.2 ",'Pool Matches'!O11)</f>
+        <f>CONCATENATE("Pool F.2 ",'Pool Matches'!O37)</f>
       </c>
       <c r="I13" s="31" t="str">
-        <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G25)</f>
+        <f>CONCATENATE("Pool A.2 ",'Pool Matches'!G14)</f>
       </c>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
@@ -4048,7 +4048,7 @@
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
       <c r="O13" s="31" t="str">
-        <f>CONCATENATE("Pool E.2 ",'Pool Matches'!G37)</f>
+        <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G26)</f>
       </c>
     </row>
     <row r="15">
@@ -4113,7 +4113,7 @@
     </row>
     <row r="21">
       <c r="A21" s="31" t="str">
-        <f>CONCATENATE("Pool E.1 ",'Pool Matches'!G36)</f>
+        <f>CONCATENATE("Pool D.1 ",'Pool Matches'!O25)</f>
       </c>
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
@@ -4121,10 +4121,10 @@
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31" t="str">
-        <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G26)</f>
+        <f>CONCATENATE("Pool E.2 ",'Pool Matches'!G37)</f>
       </c>
       <c r="I21" s="31" t="str">
-        <f>CONCATENATE("Pool D.1 ",'Pool Matches'!O25)</f>
+        <f>CONCATENATE("Pool F.1 ",'Pool Matches'!O36)</f>
       </c>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
@@ -4132,7 +4132,7 @@
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
       <c r="O21" s="31" t="str">
-        <f>CONCATENATE("Pool D.2 ",'Pool Matches'!O26)</f>
+        <f>CONCATENATE("Pool G.2 ",'Pool Matches'!G51)</f>
       </c>
     </row>
     <row r="23">
@@ -4300,7 +4300,7 @@
     </row>
     <row r="44">
       <c r="A44" s="31" t="str">
-        <f>CONCATENATE("Pool F.1 ",'Pool Matches'!O36)</f>
+        <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O10)</f>
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>

--- a/pools-example-medium.xlsx
+++ b/pools-example-medium.xlsx
@@ -227,7 +227,7 @@
     <t>Team Omicron</t>
   </si>
   <si>
-    <t>O. OTHELLO</t>
+    <t>OTHELLO</t>
   </si>
   <si>
     <t>Petyr Baelish</t>
@@ -287,7 +287,7 @@
     <t>Team Phi</t>
   </si>
   <si>
-    <t>U. ULYSSES</t>
+    <t>ULYSSES</t>
   </si>
   <si>
     <t>Voldemort</t>
@@ -296,7 +296,7 @@
     <t>Team Chi</t>
   </si>
   <si>
-    <t>V. VOLDEMORT</t>
+    <t>VOLDEMORT</t>
   </si>
   <si>
     <t>Willy Wonka</t>
@@ -314,7 +314,7 @@
     <t>Team Alpha</t>
   </si>
   <si>
-    <t>Y. YGRITTE</t>
+    <t>YGRITTE</t>
   </si>
   <si>
     <t>Pool A.1</t>

--- a/pools-example-medium.xlsx
+++ b/pools-example-medium.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Elimination Round 1</t>
   </si>
@@ -119,6 +119,189 @@
     <t>E. STARK</t>
   </si>
   <si>
+    <t>Pool B</t>
+  </si>
+  <si>
+    <t>Frodo Baggins</t>
+  </si>
+  <si>
+    <t>Team Zeta</t>
+  </si>
+  <si>
+    <t>F. BAGGINS</t>
+  </si>
+  <si>
+    <t>Gandalf The Grey</t>
+  </si>
+  <si>
+    <t>Team Eta</t>
+  </si>
+  <si>
+    <t>G. GREY</t>
+  </si>
+  <si>
+    <t>Hermione Granger</t>
+  </si>
+  <si>
+    <t>Team Theta</t>
+  </si>
+  <si>
+    <t>H. GRANGER</t>
+  </si>
+  <si>
+    <t>Pool C</t>
+  </si>
+  <si>
+    <t>Inigo Montoya</t>
+  </si>
+  <si>
+    <t>Team Iota</t>
+  </si>
+  <si>
+    <t>I. MONTOYA</t>
+  </si>
+  <si>
+    <t>Jon Snow</t>
+  </si>
+  <si>
+    <t>Team Kappa</t>
+  </si>
+  <si>
+    <t>J. SNOW</t>
+  </si>
+  <si>
+    <t>Katniss Everdeen</t>
+  </si>
+  <si>
+    <t>Team Lambda</t>
+  </si>
+  <si>
+    <t>K. EVERDEEN</t>
+  </si>
+  <si>
+    <t>Pool D</t>
+  </si>
+  <si>
+    <t>Team Mu</t>
+  </si>
+  <si>
+    <t>Moby Dick</t>
+  </si>
+  <si>
+    <t>Team Nu</t>
+  </si>
+  <si>
+    <t>M. DICK</t>
+  </si>
+  <si>
+    <t>Neville Longbottom</t>
+  </si>
+  <si>
+    <t>Team Xi</t>
+  </si>
+  <si>
+    <t>N. LONGBOTTOM</t>
+  </si>
+  <si>
+    <t>Pool E</t>
+  </si>
+  <si>
+    <t>Legolas Greenleaf</t>
+  </si>
+  <si>
+    <t>L. GREENLEAF</t>
+  </si>
+  <si>
+    <t>Othello</t>
+  </si>
+  <si>
+    <t>Team Omicron</t>
+  </si>
+  <si>
+    <t>OTHELLO</t>
+  </si>
+  <si>
+    <t>Petyr Baelish</t>
+  </si>
+  <si>
+    <t>Team Pi</t>
+  </si>
+  <si>
+    <t>P. BAELISH</t>
+  </si>
+  <si>
+    <t>Pool F</t>
+  </si>
+  <si>
+    <t>Quirinus Quirrell</t>
+  </si>
+  <si>
+    <t>Team Rho</t>
+  </si>
+  <si>
+    <t>Q. QUIRRELL</t>
+  </si>
+  <si>
+    <t>Ron Weasley</t>
+  </si>
+  <si>
+    <t>Team Sigma</t>
+  </si>
+  <si>
+    <t>R. WEASLEY</t>
+  </si>
+  <si>
+    <t>Samwise Gamgee</t>
+  </si>
+  <si>
+    <t>Team Tau</t>
+  </si>
+  <si>
+    <t>S. GAMGEE</t>
+  </si>
+  <si>
+    <t>Pool G</t>
+  </si>
+  <si>
+    <t>Tyrion Lannister</t>
+  </si>
+  <si>
+    <t>Team Upsilon</t>
+  </si>
+  <si>
+    <t>T. LANNISTER</t>
+  </si>
+  <si>
+    <t>Ulysses</t>
+  </si>
+  <si>
+    <t>Team Phi</t>
+  </si>
+  <si>
+    <t>ULYSSES</t>
+  </si>
+  <si>
+    <t>Voldemort</t>
+  </si>
+  <si>
+    <t>Team Chi</t>
+  </si>
+  <si>
+    <t>VOLDEMORT</t>
+  </si>
+  <si>
+    <t>Pool H</t>
+  </si>
+  <si>
+    <t>Willy Wonka</t>
+  </si>
+  <si>
+    <t>Team Psi</t>
+  </si>
+  <si>
+    <t>W. WONKA</t>
+  </si>
+  <si>
     <t>Xaro Xhoan Daxos</t>
   </si>
   <si>
@@ -128,186 +311,6 @@
     <t>X. DAXOS</t>
   </si>
   <si>
-    <t>Pool B</t>
-  </si>
-  <si>
-    <t>Frodo Baggins</t>
-  </si>
-  <si>
-    <t>Team Zeta</t>
-  </si>
-  <si>
-    <t>F. BAGGINS</t>
-  </si>
-  <si>
-    <t>Gandalf The Grey</t>
-  </si>
-  <si>
-    <t>Team Eta</t>
-  </si>
-  <si>
-    <t>G. GREY</t>
-  </si>
-  <si>
-    <t>Hermione Granger</t>
-  </si>
-  <si>
-    <t>Team Theta</t>
-  </si>
-  <si>
-    <t>H. GRANGER</t>
-  </si>
-  <si>
-    <t>Pool C</t>
-  </si>
-  <si>
-    <t>Inigo Montoya</t>
-  </si>
-  <si>
-    <t>Team Iota</t>
-  </si>
-  <si>
-    <t>I. MONTOYA</t>
-  </si>
-  <si>
-    <t>Jon Snow</t>
-  </si>
-  <si>
-    <t>Team Kappa</t>
-  </si>
-  <si>
-    <t>J. SNOW</t>
-  </si>
-  <si>
-    <t>Katniss Everdeen</t>
-  </si>
-  <si>
-    <t>Team Lambda</t>
-  </si>
-  <si>
-    <t>K. EVERDEEN</t>
-  </si>
-  <si>
-    <t>Pool D</t>
-  </si>
-  <si>
-    <t>Legolas Greenleaf</t>
-  </si>
-  <si>
-    <t>Team Mu</t>
-  </si>
-  <si>
-    <t>L. GREENLEAF</t>
-  </si>
-  <si>
-    <t>Moby Dick</t>
-  </si>
-  <si>
-    <t>Team Nu</t>
-  </si>
-  <si>
-    <t>M. DICK</t>
-  </si>
-  <si>
-    <t>Neville Longbottom</t>
-  </si>
-  <si>
-    <t>Team Xi</t>
-  </si>
-  <si>
-    <t>N. LONGBOTTOM</t>
-  </si>
-  <si>
-    <t>Pool E</t>
-  </si>
-  <si>
-    <t>Othello</t>
-  </si>
-  <si>
-    <t>Team Omicron</t>
-  </si>
-  <si>
-    <t>OTHELLO</t>
-  </si>
-  <si>
-    <t>Petyr Baelish</t>
-  </si>
-  <si>
-    <t>Team Pi</t>
-  </si>
-  <si>
-    <t>P. BAELISH</t>
-  </si>
-  <si>
-    <t>Quirinus Quirrell</t>
-  </si>
-  <si>
-    <t>Team Rho</t>
-  </si>
-  <si>
-    <t>Q. QUIRRELL</t>
-  </si>
-  <si>
-    <t>Pool F</t>
-  </si>
-  <si>
-    <t>Ron Weasley</t>
-  </si>
-  <si>
-    <t>Team Sigma</t>
-  </si>
-  <si>
-    <t>R. WEASLEY</t>
-  </si>
-  <si>
-    <t>Samwise Gamgee</t>
-  </si>
-  <si>
-    <t>Team Tau</t>
-  </si>
-  <si>
-    <t>S. GAMGEE</t>
-  </si>
-  <si>
-    <t>Tyrion Lannister</t>
-  </si>
-  <si>
-    <t>Team Upsilon</t>
-  </si>
-  <si>
-    <t>T. LANNISTER</t>
-  </si>
-  <si>
-    <t>Pool G</t>
-  </si>
-  <si>
-    <t>Ulysses</t>
-  </si>
-  <si>
-    <t>Team Phi</t>
-  </si>
-  <si>
-    <t>ULYSSES</t>
-  </si>
-  <si>
-    <t>Voldemort</t>
-  </si>
-  <si>
-    <t>Team Chi</t>
-  </si>
-  <si>
-    <t>VOLDEMORT</t>
-  </si>
-  <si>
-    <t>Willy Wonka</t>
-  </si>
-  <si>
-    <t>Team Psi</t>
-  </si>
-  <si>
-    <t>W. WONKA</t>
-  </si>
-  <si>
     <t>Ygritte</t>
   </si>
   <si>
@@ -320,22 +323,25 @@
     <t>Pool A.1</t>
   </si>
   <si>
+    <t>Pool B.2</t>
+  </si>
+  <si>
     <t>Pool C.1</t>
   </si>
   <si>
-    <t>Pool B.2</t>
+    <t>Pool D.2</t>
   </si>
   <si>
     <t>Pool E.1</t>
   </si>
   <si>
-    <t>Pool D.2</t>
+    <t>Pool F.2</t>
   </si>
   <si>
     <t>Pool G.1</t>
   </si>
   <si>
-    <t>Pool F.2</t>
+    <t>Pool H.2</t>
   </si>
   <si>
     <t>Pool B.1</t>
@@ -344,16 +350,19 @@
     <t>Pool A.2</t>
   </si>
   <si>
+    <t>Pool D.1</t>
+  </si>
+  <si>
     <t>Pool C.2</t>
   </si>
   <si>
-    <t>Pool D.1</t>
+    <t>Pool F.1</t>
   </si>
   <si>
     <t>Pool E.2</t>
   </si>
   <si>
-    <t>Pool F.1</t>
+    <t>Pool H.1</t>
   </si>
   <si>
     <t>Pool G.2</t>
@@ -377,9 +386,6 @@
     <t xml:space="preserve">3. </t>
   </si>
   <si>
-    <t xml:space="preserve">4. </t>
-  </si>
-  <si>
     <t>Match 1</t>
   </si>
   <si>
@@ -404,34 +410,40 @@
     <t>Match 6</t>
   </si>
   <si>
+    <t>Match 7</t>
+  </si>
+  <si>
+    <t>Match 8</t>
+  </si>
+  <si>
     <t>Elimination Round 2</t>
   </si>
   <si>
-    <t>Match 7</t>
-  </si>
-  <si>
-    <t>Match 8</t>
-  </si>
-  <si>
     <t>Match 9</t>
   </si>
   <si>
     <t>Match 10</t>
   </si>
   <si>
+    <t>Match 11</t>
+  </si>
+  <si>
+    <t>Match 12</t>
+  </si>
+  <si>
     <t>Elimination Round 3</t>
   </si>
   <si>
-    <t>Match 11</t>
-  </si>
-  <si>
-    <t>Match 12</t>
+    <t>Match 13</t>
+  </si>
+  <si>
+    <t>Match 14</t>
   </si>
   <si>
     <t>Elimination Round 4</t>
   </si>
   <si>
-    <t>Match 13</t>
+    <t>Match 15</t>
   </si>
 </sst>
 </file>
@@ -728,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -832,11 +844,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -895,60 +916,60 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <themeElements>
-    <clrScheme name="Sheets">
-      <dk1>
-        <srgbClr val="000000"/>
-      </dk1>
-      <lt1>
-        <srgbClr val="FFFFFF"/>
-      </lt1>
-      <dk2>
-        <srgbClr val="000000"/>
-      </dk2>
-      <lt2>
-        <srgbClr val="FFFFFF"/>
-      </lt2>
-      <accent1>
-        <srgbClr val="4F81BD"/>
-      </accent1>
-      <accent2>
-        <srgbClr val="C0504D"/>
-      </accent2>
-      <accent3>
-        <srgbClr val="9BBB59"/>
-      </accent3>
-      <accent4>
-        <srgbClr val="8064A2"/>
-      </accent4>
-      <accent5>
-        <srgbClr val="4BACC6"/>
-      </accent5>
-      <accent6>
-        <srgbClr val="F79646"/>
-      </accent6>
-      <hlink>
-        <srgbClr val="0000FF"/>
-      </hlink>
-      <folHlink>
-        <srgbClr val="0000FF"/>
-      </folHlink>
-    </clrScheme>
-    <fontScheme name="Sheets">
-      <majorFont>
-        <latin typeface="Arial"/>
-        <ea typeface="Arial"/>
-        <cs typeface="Arial"/>
-      </majorFont>
-      <minorFont>
-        <latin typeface="Arial"/>
-        <ea typeface="Arial"/>
-        <cs typeface="Arial"/>
-      </minorFont>
-    </fontScheme>
-    <fmtScheme name="Office">
-      <fillStyleLst>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+  <a:themeElements>
+    <a:clrScheme name="Sheets">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="0000FF"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Sheets">
+      <a:majorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1004,8 +1025,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </fillStyleLst>
-      <lnStyleLst>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1027,8 +1048,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </lnStyleLst>
-      <effectStyleLst>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -1044,8 +1065,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </effectStyleLst>
-      <bgFillStyleLst>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1082,12 +1103,12 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </bgFillStyleLst>
-    </fmtScheme>
-  </themeElements>
-  <objectDefaults/>
-  <extraClrSchemeLst/>
-</theme>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1163,21 +1184,21 @@
     </row>
     <row r="5" spans="1:2" ht="12.75" customHeight="true">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12.75" customHeight="true">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
@@ -1191,7 +1212,7 @@
     </row>
     <row r="7" spans="1:2" ht="12.75" customHeight="true">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>32</v>
@@ -1205,21 +1226,21 @@
     </row>
     <row r="8" spans="1:2" ht="12.75" customHeight="true">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12.75" customHeight="true">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
@@ -1233,7 +1254,7 @@
     </row>
     <row r="10" spans="1:2" ht="12.75" customHeight="true">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>42</v>
@@ -1247,201 +1268,214 @@
     </row>
     <row r="11" spans="1:2" ht="12.75" customHeight="true">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12.75" customHeight="true">
       <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12.75" customHeight="true">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
         <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12.75" customHeight="true">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
         <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12.75" customHeight="true">
       <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
         <v>58</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12.75" customHeight="true">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12.75" customHeight="true">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
         <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12.75" customHeight="true">
       <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
         <v>68</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12.75" customHeight="true">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12.75" customHeight="true">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
         <v>75</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12.75" customHeight="true">
       <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
         <v>78</v>
-      </c>
-      <c r="B21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12.75" customHeight="true">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12.75" customHeight="true">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
         <v>85</v>
-      </c>
-      <c r="C23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12.75" customHeight="true">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
         <v>88</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="12.75" customHeight="true">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
         <v>89</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C25" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="12.75" customHeight="true"/>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="26" spans="1:2" ht="12.75" customHeight="true">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
@@ -2491,100 +2525,110 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="A2" s="25" t="str">
-        <f>data!A5</f>
+        <f>data!$A$4</f>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="str">
-        <f>data!B2</f>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>91</v>
+        <f>data!$B$2</f>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="27" t="str">
-        <f>data!B3</f>
-      </c>
+        <f>data!$B$3</f>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="22"/>
       <c r="G4" s="20"/>
     </row>
     <row r="5">
-      <c r="A5" s="27" t="str">
-        <f>data!B4</f>
+      <c r="A5" s="28" t="str">
+        <f>data!$B$4</f>
       </c>
       <c r="G5" s="21">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="28" t="str">
-        <f>data!B5</f>
-      </c>
+      <c r="A6" s="22"/>
       <c r="C6" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="22"/>
       <c r="I6" s="20"/>
     </row>
     <row r="7">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25" t="str">
+        <f>data!$A$7</f>
+      </c>
       <c r="D7" s="22"/>
       <c r="E7" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="20"/>
       <c r="I7" s="20"/>
     </row>
     <row r="8">
-      <c r="A8" s="25" t="str">
-        <f>data!A8</f>
+      <c r="A8" s="26" t="str">
+        <f>data!$B$5</f>
       </c>
       <c r="C8" s="24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="20"/>
       <c r="I8" s="20"/>
     </row>
     <row r="9">
-      <c r="A9" s="26" t="str">
-        <f>data!B6</f>
+      <c r="A9" s="27" t="str">
+        <f>data!$B$6</f>
       </c>
       <c r="I9" s="21">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="27" t="str">
-        <f>data!B7</f>
+      <c r="A10" s="28" t="str">
+        <f>data!$B$7</f>
       </c>
       <c r="C10" s="24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="22"/>
       <c r="K10" s="20"/>
     </row>
     <row r="11">
-      <c r="A11" s="28" t="str">
-        <f>data!B8</f>
-      </c>
+      <c r="A11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="20"/>
       <c r="K11" s="20"/>
     </row>
     <row r="12">
-      <c r="A12" s="22"/>
+      <c r="A12" s="25" t="str">
+        <f>data!$A$10</f>
+      </c>
       <c r="C12" s="24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="20"/>
@@ -2594,91 +2638,100 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13">
-      <c r="A13" s="25" t="str">
-        <f>data!A11</f>
+      <c r="A13" s="26" t="str">
+        <f>data!$B$8</f>
       </c>
       <c r="G13" s="21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14">
-      <c r="A14" s="26" t="str">
-        <f>data!B9</f>
+      <c r="A14" s="27" t="str">
+        <f>data!$B$9</f>
       </c>
       <c r="C14" s="24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="A15" s="27" t="str">
-        <f>data!B10</f>
+      <c r="A15" s="28" t="str">
+        <f>data!$B$10</f>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="20"/>
       <c r="K15" s="20"/>
     </row>
     <row r="16">
-      <c r="A16" s="28" t="str">
-        <f>data!B11</f>
-      </c>
+      <c r="A16" s="22"/>
       <c r="C16" s="24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="20"/>
       <c r="K16" s="20"/>
     </row>
     <row r="17">
-      <c r="A17" s="22"/>
+      <c r="A17" s="25" t="str">
+        <f>data!$A$13</f>
+      </c>
       <c r="K17" s="21">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="25" t="str">
-        <f>data!A14</f>
+      <c r="A18" s="26" t="str">
+        <f>data!$B$11</f>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="K18" s="20"/>
     </row>
     <row r="19">
-      <c r="A19" s="26" t="str">
-        <f>data!B12</f>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>98</v>
+      <c r="A19" s="27" t="str">
+        <f>data!$B$12</f>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="21">
+        <v>5</v>
       </c>
       <c r="K19" s="20"/>
     </row>
     <row r="20">
-      <c r="A20" s="27" t="str">
-        <f>data!B13</f>
-      </c>
+      <c r="A20" s="28" t="str">
+        <f>data!$B$13</f>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="22"/>
       <c r="G20" s="20"/>
       <c r="K20" s="20"/>
     </row>
     <row r="21">
-      <c r="A21" s="28" t="str">
-        <f>data!B14</f>
-      </c>
+      <c r="A21" s="22"/>
       <c r="G21" s="21">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K21" s="20"/>
     </row>
     <row r="22">
-      <c r="A22" s="22"/>
+      <c r="A22" s="25" t="str">
+        <f>data!$A$16</f>
+      </c>
       <c r="C22" s="24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="22"/>
@@ -2686,12 +2739,12 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23">
-      <c r="A23" s="25" t="str">
-        <f>data!A17</f>
+      <c r="A23" s="26" t="str">
+        <f>data!$B$14</f>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="20"/>
@@ -2699,11 +2752,11 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24">
-      <c r="A24" s="26" t="str">
-        <f>data!B15</f>
+      <c r="A24" s="27" t="str">
+        <f>data!$B$15</f>
       </c>
       <c r="C24" s="24" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="20"/>
@@ -2711,38 +2764,38 @@
       <c r="K24" s="20"/>
     </row>
     <row r="25">
-      <c r="A25" s="27" t="str">
-        <f>data!B16</f>
+      <c r="A25" s="28" t="str">
+        <f>data!$B$16</f>
       </c>
       <c r="I25" s="21">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J25" s="23"/>
       <c r="K25" s="20"/>
     </row>
     <row r="26">
-      <c r="A26" s="28" t="str">
-        <f>data!B17</f>
-      </c>
+      <c r="A26" s="22"/>
       <c r="C26" s="24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I26" s="20"/>
     </row>
     <row r="27">
-      <c r="A27" s="22"/>
+      <c r="A27" s="25" t="str">
+        <f>data!$A$19</f>
+      </c>
       <c r="D27" s="22"/>
       <c r="E27" s="21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I27" s="20"/>
     </row>
     <row r="28">
-      <c r="A28" s="25" t="str">
-        <f>data!A20</f>
+      <c r="A28" s="26" t="str">
+        <f>data!$B$17</f>
       </c>
       <c r="C28" s="24" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="20"/>
@@ -2751,70 +2804,83 @@
       <c r="I28" s="20"/>
     </row>
     <row r="29">
-      <c r="A29" s="26" t="str">
-        <f>data!B18</f>
+      <c r="A29" s="27" t="str">
+        <f>data!$B$18</f>
       </c>
       <c r="G29" s="21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H29" s="23"/>
       <c r="I29" s="20"/>
     </row>
     <row r="30">
-      <c r="A30" s="27" t="str">
-        <f>data!B19</f>
+      <c r="A30" s="28" t="str">
+        <f>data!$B$19</f>
       </c>
       <c r="C30" s="24" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G30" s="20"/>
     </row>
     <row r="31">
-      <c r="A31" s="28" t="str">
-        <f>data!B20</f>
-      </c>
+      <c r="A31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="20"/>
     </row>
     <row r="32">
-      <c r="A32" s="22"/>
+      <c r="A32" s="25" t="str">
+        <f>data!$A$22</f>
+      </c>
       <c r="C32" s="24" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="20"/>
     </row>
     <row r="33">
-      <c r="A33" s="25" t="str">
-        <f>data!A24</f>
+      <c r="A33" s="26" t="str">
+        <f>data!$B$20</f>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="26" t="str">
-        <f>data!B21</f>
+      <c r="A34" s="27" t="str">
+        <f>data!$B$21</f>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="str">
-        <f>data!B22</f>
+      <c r="A35" s="28" t="str">
+        <f>data!$B$22</f>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="str">
-        <f>data!B23</f>
-      </c>
+      <c r="A36" s="22"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="str">
-        <f>data!B24</f>
+      <c r="A37" s="25" t="str">
+        <f>data!$A$25</f>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="22"/>
+      <c r="A38" s="26" t="str">
+        <f>data!$B$23</f>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="27" t="str">
+        <f>data!$B$24</f>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="28" t="str">
+        <f>data!$B$25</f>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="22"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
@@ -2866,13 +2932,13 @@
     </row>
     <row r="2" spans="1:8" s="11" customFormat="true" ht="16">
       <c r="A2" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
       </c>
       <c r="C2" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" s="12">
         <v>2.0833333333333333E-3</v>
@@ -2976,7 +3042,7 @@
     </row>
     <row r="8" spans="1:8" s="11" customFormat="true" ht="16">
       <c r="A8" s="11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>
@@ -3060,6 +3126,7 @@
     <col customWidth="true" max="26" min="11" width="8.83203125"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2" spans="1:8" ht="20">
       <c r="A2" s="2"/>
       <c r="B2" s="15" t="s">
@@ -3091,128 +3158,130 @@
     </row>
     <row r="5" spans="1:8" ht="17" customHeight="true" thickBot="true">
       <c r="B5" s="6" t="str">
-        <f>data!A5</f>
+        <f>data!$A$4</f>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="6" t="str">
-        <f>data!A14</f>
+        <f>data!$A$13</f>
       </c>
       <c r="F5" s="6" t="str">
-        <f>data!A24</f>
+        <f>data!$A$22</f>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" customHeight="true" thickBot="true">
       <c r="B6" s="5" t="str">
-        <f>data!B2</f>
+        <f>data!$B$2</f>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="str">
-        <f>data!B12</f>
+        <f>data!$B$11</f>
       </c>
       <c r="F6" s="5" t="str">
-        <f>data!B21</f>
+        <f>data!$B$20</f>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" customHeight="true" thickBot="true">
       <c r="B7" s="5" t="str">
-        <f>data!B3</f>
+        <f>data!$B$3</f>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="str">
-        <f>data!B13</f>
+        <f>data!$B$12</f>
       </c>
       <c r="F7" s="5" t="str">
-        <f>data!B22</f>
+        <f>data!$B$21</f>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" customHeight="true" thickBot="true">
       <c r="B8" s="5" t="str">
-        <f>data!B4</f>
+        <f>data!$B$4</f>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="str">
-        <f>data!B14</f>
+        <f>data!$B$13</f>
       </c>
       <c r="F8" s="5" t="str">
-        <f>data!B23</f>
-      </c>
-    </row>
-    <row r="9" ht="17" customHeight="true">
-      <c r="B9" s="5" t="str">
-        <f>data!B5</f>
-      </c>
-      <c r="F9" s="5" t="str">
-        <f>data!B24</f>
-      </c>
-    </row>
+        <f>data!$B$22</f>
+      </c>
+    </row>
+    <row r="9" ht="17" customHeight="true"/>
     <row r="10" ht="17" customHeight="true"/>
     <row r="11" ht="17" customHeight="true">
+      <c r="B11" s="6" t="str">
+        <f>data!$A$7</f>
+      </c>
       <c r="D11" s="6" t="str">
-        <f>data!A17</f>
+        <f>data!$A$16</f>
+      </c>
+      <c r="F11" s="6" t="str">
+        <f>data!$A$25</f>
       </c>
     </row>
     <row r="12" ht="17" customHeight="true">
-      <c r="B12" s="6" t="str">
-        <f>data!A8</f>
+      <c r="B12" s="5" t="str">
+        <f>data!$B$5</f>
       </c>
       <c r="D12" s="5" t="str">
-        <f>data!B15</f>
+        <f>data!$B$14</f>
+      </c>
+      <c r="F12" s="5" t="str">
+        <f>data!$B$23</f>
       </c>
     </row>
     <row r="13" ht="17" customHeight="true">
       <c r="B13" s="5" t="str">
-        <f>data!B6</f>
+        <f>data!$B$6</f>
       </c>
       <c r="D13" s="5" t="str">
-        <f>data!B16</f>
+        <f>data!$B$15</f>
+      </c>
+      <c r="F13" s="5" t="str">
+        <f>data!$B$24</f>
       </c>
     </row>
     <row r="14" ht="17" customHeight="true">
       <c r="B14" s="5" t="str">
-        <f>data!B7</f>
+        <f>data!$B$7</f>
       </c>
       <c r="D14" s="5" t="str">
-        <f>data!B17</f>
-      </c>
-    </row>
-    <row r="15" ht="17" customHeight="true">
-      <c r="B15" s="5" t="str">
-        <f>data!B8</f>
-      </c>
-    </row>
+        <f>data!$B$16</f>
+      </c>
+      <c r="F14" s="5" t="str">
+        <f>data!$B$25</f>
+      </c>
+    </row>
+    <row r="15" ht="17" customHeight="true"/>
     <row r="16" ht="17" customHeight="true"/>
     <row r="17" ht="17" customHeight="true">
+      <c r="B17" s="6" t="str">
+        <f>data!$A$10</f>
+      </c>
       <c r="D17" s="6" t="str">
-        <f>data!A20</f>
+        <f>data!$A$19</f>
       </c>
     </row>
     <row r="18" ht="17" customHeight="true">
-      <c r="B18" s="6" t="str">
-        <f>data!A11</f>
+      <c r="B18" s="5" t="str">
+        <f>data!$B$8</f>
       </c>
       <c r="D18" s="5" t="str">
-        <f>data!B18</f>
+        <f>data!$B$17</f>
       </c>
     </row>
     <row r="19" ht="17" customHeight="true">
       <c r="B19" s="5" t="str">
-        <f>data!B9</f>
+        <f>data!$B$9</f>
       </c>
       <c r="D19" s="5" t="str">
-        <f>data!B19</f>
+        <f>data!$B$18</f>
       </c>
     </row>
     <row r="20" ht="17" customHeight="true">
       <c r="B20" s="5" t="str">
-        <f>data!B10</f>
+        <f>data!$B$10</f>
       </c>
       <c r="D20" s="5" t="str">
-        <f>data!B20</f>
-      </c>
-    </row>
-    <row r="21" ht="17" customHeight="true">
-      <c r="B21" s="5" t="str">
-        <f>data!B11</f>
+        <f>data!$B$19</f>
       </c>
     </row>
   </sheetData>
@@ -3249,9 +3318,12 @@
     <col max="16384" min="16" style="7" width="10.83203125"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3"/>
     <row r="4">
       <c r="A4" s="29" t="str">
-        <f>data!A5</f>
+        <f>data!$A$4</f>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -3260,7 +3332,7 @@
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
       <c r="I4" s="29" t="str">
-        <f>data!A8</f>
+        <f>data!$A$7</f>
       </c>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
@@ -3271,27 +3343,27 @@
     </row>
     <row r="5">
       <c r="A5" s="30" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="31" t="str">
-        <f>data!B2</f>
+        <f>data!$B$2</f>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -3299,10 +3371,10 @@
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
       <c r="G6" s="31" t="str">
-        <f>data!B3</f>
+        <f>data!$B$3</f>
       </c>
       <c r="I6" s="31" t="str">
-        <f>data!B6</f>
+        <f>data!$B$5</f>
       </c>
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
@@ -3310,12 +3382,12 @@
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="str">
-        <f>data!B7</f>
+        <f>data!$B$6</f>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="31" t="str">
-        <f>data!B4</f>
+        <f>data!$B$4</f>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -3323,10 +3395,10 @@
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
       <c r="G7" s="31" t="str">
-        <f>data!B3</f>
+        <f>data!$B$3</f>
       </c>
       <c r="I7" s="31" t="str">
-        <f>data!B8</f>
+        <f>data!$B$7</f>
       </c>
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
@@ -3334,12 +3406,12 @@
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="str">
-        <f>data!B7</f>
+        <f>data!$B$6</f>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="31" t="str">
-        <f>data!B4</f>
+        <f>data!$B$4</f>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -3347,10 +3419,10 @@
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31" t="str">
-        <f>data!B5</f>
+        <f>data!$B$2</f>
       </c>
       <c r="I8" s="31" t="str">
-        <f>data!B8</f>
+        <f>data!$B$7</f>
       </c>
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
@@ -3358,503 +3430,485 @@
       <c r="M8" s="31"/>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="str">
-        <f>data!B6</f>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="31" t="str">
-        <f>data!B3</f>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31" t="str">
-        <f>data!B5</f>
-      </c>
-    </row>
+        <f>data!$B$5</f>
+      </c>
+    </row>
+    <row r="9"/>
     <row r="10">
-      <c r="A10" s="31" t="str">
-        <f>data!B2</f>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31" t="str">
-        <f>data!B4</f>
-      </c>
+      <c r="F10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="23"/>
       <c r="N10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" s="23"/>
+    </row>
+    <row r="11">
+      <c r="F11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="N11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" s="23"/>
+    </row>
+    <row r="12">
+      <c r="F12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="N12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" s="23"/>
+    </row>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15">
+      <c r="A15" s="29" t="str">
+        <f>data!$A$10</f>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="I15" s="29" t="str">
+        <f>data!$A$13</f>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="O10" s="23"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="31" t="str">
-        <f>data!B2</f>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31" t="str">
-        <f>data!B5</f>
-      </c>
-      <c r="N11" s="7" t="s">
+      <c r="D16" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="O11" s="23"/>
-    </row>
-    <row r="12">
-      <c r="N12" s="7" t="s">
+      <c r="G16" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="O12" s="23"/>
-    </row>
-    <row r="13">
-      <c r="F13" s="7" t="s">
+      <c r="I16" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14">
-      <c r="F14" s="7" t="s">
+      <c r="L16" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15">
-      <c r="F15" s="7" t="s">
+      <c r="O16" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16">
-      <c r="F16" s="7" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="31" t="str">
+        <f>data!$B$8</f>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31" t="str">
+        <f>data!$B$9</f>
+      </c>
+      <c r="I17" s="31" t="str">
+        <f>data!$B$11</f>
+      </c>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31" t="str">
+        <f>data!$B$12</f>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="31" t="str">
+        <f>data!$B$10</f>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31" t="str">
+        <f>data!$B$9</f>
+      </c>
+      <c r="I18" s="31" t="str">
+        <f>data!$B$13</f>
+      </c>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31" t="str">
+        <f>data!$B$12</f>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="31" t="str">
+        <f>data!$B$10</f>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31" t="str">
+        <f>data!$B$8</f>
+      </c>
+      <c r="I19" s="31" t="str">
+        <f>data!$B$13</f>
+      </c>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31" t="str">
+        <f>data!$B$11</f>
+      </c>
+    </row>
+    <row r="20"/>
+    <row r="21">
+      <c r="F21" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="29" t="str">
-        <f>data!A11</f>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="I19" s="29" t="str">
-        <f>data!A14</f>
-      </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="O20" s="35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="31" t="str">
-        <f>data!B9</f>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31" t="str">
-        <f>data!B10</f>
-      </c>
-      <c r="I21" s="31" t="str">
-        <f>data!B12</f>
-      </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="str">
-        <f>data!B13</f>
-      </c>
+      <c r="G21" s="23"/>
+      <c r="N21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="O21" s="23"/>
     </row>
     <row r="22">
-      <c r="A22" s="31" t="str">
-        <f>data!B11</f>
-      </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31" t="str">
-        <f>data!B10</f>
-      </c>
-      <c r="I22" s="31" t="str">
-        <f>data!B14</f>
-      </c>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="str">
-        <f>data!B13</f>
-      </c>
+      <c r="F22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="N22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="O22" s="23"/>
     </row>
     <row r="23">
-      <c r="A23" s="31" t="str">
-        <f>data!B11</f>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31" t="str">
-        <f>data!B9</f>
-      </c>
-      <c r="I23" s="31" t="str">
-        <f>data!B14</f>
-      </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="str">
-        <f>data!B12</f>
-      </c>
-    </row>
-    <row r="25">
-      <c r="F25" s="7" t="s">
+      <c r="F23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="N23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O23" s="23"/>
+    </row>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26">
+      <c r="A26" s="29" t="str">
+        <f>data!$A$16</f>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="I26" s="29" t="str">
+        <f>data!$A$19</f>
+      </c>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="N25" s="7" t="s">
+      <c r="D27" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="O25" s="23"/>
-    </row>
-    <row r="26">
-      <c r="F26" s="7" t="s">
+      <c r="L27" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="N26" s="7" t="s">
+      <c r="O27" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="31" t="str">
+        <f>data!$B$14</f>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31" t="str">
+        <f>data!$B$15</f>
+      </c>
+      <c r="I28" s="31" t="str">
+        <f>data!$B$17</f>
+      </c>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31" t="str">
+        <f>data!$B$18</f>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="31" t="str">
+        <f>data!$B$16</f>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31" t="str">
+        <f>data!$B$15</f>
+      </c>
+      <c r="I29" s="31" t="str">
+        <f>data!$B$19</f>
+      </c>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31" t="str">
+        <f>data!$B$18</f>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="31" t="str">
+        <f>data!$B$16</f>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31" t="str">
+        <f>data!$B$14</f>
+      </c>
+      <c r="I30" s="31" t="str">
+        <f>data!$B$19</f>
+      </c>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="str">
+        <f>data!$B$17</f>
+      </c>
+    </row>
+    <row r="31"/>
+    <row r="32">
+      <c r="F32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="23"/>
+      <c r="N32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="O32" s="23"/>
+    </row>
+    <row r="33">
+      <c r="F33" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="23"/>
+      <c r="N33" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="O33" s="23"/>
+    </row>
+    <row r="34">
+      <c r="F34" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="23"/>
+      <c r="N34" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O34" s="23"/>
+    </row>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37">
+      <c r="A37" s="29" t="str">
+        <f>data!$A$22</f>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="I37" s="29" t="str">
+        <f>data!$A$25</f>
+      </c>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="O26" s="23"/>
-    </row>
-    <row r="27">
-      <c r="F27" s="7" t="s">
+      <c r="G38" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="23"/>
-      <c r="N27" s="7" t="s">
+      <c r="I38" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="L38" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="O38" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="O27" s="23"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="29" t="str">
-        <f>data!A17</f>
-      </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="I30" s="29" t="str">
-        <f>data!A20</f>
-      </c>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="I31" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="L31" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="O31" s="37" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="31" t="str">
-        <f>data!B15</f>
-      </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31" t="str">
-        <f>data!B16</f>
-      </c>
-      <c r="I32" s="31" t="str">
-        <f>data!B18</f>
-      </c>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="str">
-        <f>data!B19</f>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="31" t="str">
-        <f>data!B17</f>
-      </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31" t="str">
-        <f>data!B16</f>
-      </c>
-      <c r="I33" s="31" t="str">
-        <f>data!B20</f>
-      </c>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="str">
-        <f>data!B19</f>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="31" t="str">
-        <f>data!B17</f>
-      </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31" t="str">
-        <f>data!B15</f>
-      </c>
-      <c r="I34" s="31" t="str">
-        <f>data!B20</f>
-      </c>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="str">
-        <f>data!B18</f>
-      </c>
-    </row>
-    <row r="36">
-      <c r="F36" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G36" s="23"/>
-      <c r="N36" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="O36" s="23"/>
-    </row>
-    <row r="37">
-      <c r="F37" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G37" s="23"/>
-      <c r="N37" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="O37" s="23"/>
-    </row>
-    <row r="38">
-      <c r="F38" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G38" s="23"/>
-      <c r="N38" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="O38" s="23"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="31" t="str">
+        <f>data!$B$20</f>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31" t="str">
+        <f>data!$B$21</f>
+      </c>
+      <c r="I39" s="31" t="str">
+        <f>data!$B$23</f>
+      </c>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31" t="str">
+        <f>data!$B$24</f>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="31" t="str">
+        <f>data!$B$22</f>
+      </c>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31" t="str">
+        <f>data!$B$21</f>
+      </c>
+      <c r="I40" s="31" t="str">
+        <f>data!$B$25</f>
+      </c>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31" t="str">
+        <f>data!$B$24</f>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="29" t="str">
-        <f>data!A24</f>
-      </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42" s="38" t="s">
-        <v>107</v>
-      </c>
-    </row>
+      <c r="A41" s="31" t="str">
+        <f>data!$B$22</f>
+      </c>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31" t="str">
+        <f>data!$B$20</f>
+      </c>
+      <c r="I41" s="31" t="str">
+        <f>data!$B$25</f>
+      </c>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31" t="str">
+        <f>data!$B$23</f>
+      </c>
+    </row>
+    <row r="42"/>
     <row r="43">
-      <c r="A43" s="31" t="str">
-        <f>data!B21</f>
-      </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31" t="str">
-        <f>data!B22</f>
-      </c>
+      <c r="F43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" s="23"/>
+      <c r="N43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="O43" s="23"/>
     </row>
     <row r="44">
-      <c r="A44" s="31" t="str">
-        <f>data!B23</f>
-      </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31" t="str">
-        <f>data!B22</f>
-      </c>
+      <c r="F44" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="23"/>
+      <c r="N44" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="O44" s="23"/>
     </row>
     <row r="45">
-      <c r="A45" s="31" t="str">
-        <f>data!B23</f>
-      </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31" t="str">
-        <f>data!B24</f>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="31" t="str">
-        <f>data!B22</f>
-      </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31" t="str">
-        <f>data!B24</f>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="31" t="str">
-        <f>data!B21</f>
-      </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31" t="str">
-        <f>data!B23</f>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="31" t="str">
-        <f>data!B21</f>
-      </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31" t="str">
-        <f>data!B24</f>
-      </c>
-    </row>
-    <row r="50">
-      <c r="F50" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G50" s="23"/>
-    </row>
-    <row r="51">
-      <c r="F51" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G51" s="23"/>
-    </row>
-    <row r="52">
-      <c r="F52" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G52" s="23"/>
-    </row>
-    <row r="53">
-      <c r="F53" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G53" s="23"/>
+      <c r="F45" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" s="23"/>
+      <c r="N45" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O45" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="I4:O4"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="I19:O19"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="I30:O30"/>
-    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="I26:O26"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="I37:O37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3903,9 +3957,10 @@
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -3914,7 +3969,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
       <c r="I3" s="29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
@@ -3925,27 +3980,27 @@
     </row>
     <row r="4">
       <c r="A4" s="30" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>110</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="O4" s="42" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="31" t="str">
-        <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G25)</f>
+        <f>CONCATENATE("Pool A.1 ",'Pool Matches'!G10)</f>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -3956,7 +4011,7 @@
         <f>CONCATENATE("Pool B.2 ",'Pool Matches'!O11)</f>
       </c>
       <c r="I5" s="31" t="str">
-        <f>CONCATENATE("Pool E.1 ",'Pool Matches'!G36)</f>
+        <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G21)</f>
       </c>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
@@ -3964,32 +4019,35 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
       <c r="O5" s="31" t="str">
-        <f>CONCATENATE("Pool D.2 ",'Pool Matches'!O26)</f>
-      </c>
-    </row>
+        <f>CONCATENATE("Pool D.2 ",'Pool Matches'!O22)</f>
+      </c>
+    </row>
+    <row r="6"/>
     <row r="7">
       <c r="F7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G7" s="23"/>
       <c r="N7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O7" s="23"/>
     </row>
     <row r="8">
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G8" s="23"/>
       <c r="N8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O8" s="23"/>
     </row>
+    <row r="9"/>
+    <row r="10"/>
     <row r="11">
       <c r="A11" s="29" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -3998,7 +4056,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="I11" s="29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
@@ -4009,27 +4067,27 @@
     </row>
     <row r="12">
       <c r="A12" s="30" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>110</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L12" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="O12" s="44" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="O12" s="45" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="31" t="str">
-        <f>CONCATENATE("Pool G.1 ",'Pool Matches'!G50)</f>
+        <f>CONCATENATE("Pool E.1 ",'Pool Matches'!G32)</f>
       </c>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
@@ -4037,10 +4095,10 @@
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31" t="str">
-        <f>CONCATENATE("Pool F.2 ",'Pool Matches'!O37)</f>
+        <f>CONCATENATE("Pool F.2 ",'Pool Matches'!O33)</f>
       </c>
       <c r="I13" s="31" t="str">
-        <f>CONCATENATE("Pool A.2 ",'Pool Matches'!G14)</f>
+        <f>CONCATENATE("Pool G.1 ",'Pool Matches'!G43)</f>
       </c>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
@@ -4048,32 +4106,35 @@
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
       <c r="O13" s="31" t="str">
-        <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G26)</f>
-      </c>
-    </row>
+        <f>CONCATENATE("Pool H.2 ",'Pool Matches'!O44)</f>
+      </c>
+    </row>
+    <row r="14"/>
     <row r="15">
       <c r="F15" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G15" s="23"/>
       <c r="N15" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O15" s="23"/>
     </row>
     <row r="16">
       <c r="F16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G16" s="23"/>
       <c r="N16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O16" s="23"/>
     </row>
+    <row r="17"/>
+    <row r="18"/>
     <row r="19">
       <c r="A19" s="29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -4082,7 +4143,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="I19" s="29" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
@@ -4093,27 +4154,27 @@
     </row>
     <row r="20">
       <c r="A20" s="30" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>110</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L20" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="O20" s="46" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="O20" s="47" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="31" t="str">
-        <f>CONCATENATE("Pool D.1 ",'Pool Matches'!O25)</f>
+        <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O10)</f>
       </c>
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
@@ -4121,10 +4182,10 @@
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31" t="str">
-        <f>CONCATENATE("Pool E.2 ",'Pool Matches'!G37)</f>
+        <f>CONCATENATE("Pool A.2 ",'Pool Matches'!G11)</f>
       </c>
       <c r="I21" s="31" t="str">
-        <f>CONCATENATE("Pool F.1 ",'Pool Matches'!O36)</f>
+        <f>CONCATENATE("Pool D.1 ",'Pool Matches'!O21)</f>
       </c>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
@@ -4132,135 +4193,147 @@
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
       <c r="O21" s="31" t="str">
-        <f>CONCATENATE("Pool G.2 ",'Pool Matches'!G51)</f>
-      </c>
-    </row>
+        <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G22)</f>
+      </c>
+    </row>
+    <row r="22"/>
     <row r="23">
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G23" s="23"/>
       <c r="N23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O23" s="23"/>
     </row>
     <row r="24">
       <c r="F24" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G24" s="23"/>
       <c r="N24" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O24" s="23"/>
     </row>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27">
+      <c r="A27" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="I27" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="L28" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="O28" s="49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="31" t="str">
+        <f>CONCATENATE("Pool F.1 ",'Pool Matches'!O32)</f>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31" t="str">
+        <f>CONCATENATE("Pool E.2 ",'Pool Matches'!G33)</f>
+      </c>
+      <c r="I29" s="31" t="str">
+        <f>CONCATENATE("Pool H.1 ",'Pool Matches'!O43)</f>
+      </c>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31" t="str">
+        <f>CONCATENATE("Pool G.2 ",'Pool Matches'!G44)</f>
+      </c>
+    </row>
+    <row r="30"/>
+    <row r="31">
+      <c r="F31" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="N31" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="O31" s="23"/>
+    </row>
     <row r="32">
-      <c r="A32" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="I34" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="L35" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="O35" s="48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="31" t="str">
-        <f>CONCATENATE("Pool A.1 ",'Pool Matches'!G13)</f>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31" t="str">
-        <f>CONCATENATE("M 1 ",'Elimination Matches'!G7)</f>
-      </c>
-      <c r="I36" s="31" t="str">
-        <f>CONCATENATE("M 2 ",'Elimination Matches'!O7)</f>
-      </c>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31" t="str">
-        <f>CONCATENATE("M 3 ",'Elimination Matches'!G15)</f>
-      </c>
-    </row>
-    <row r="38">
-      <c r="F38" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G38" s="23"/>
-      <c r="N38" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="O38" s="23"/>
-    </row>
-    <row r="39">
-      <c r="F39" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G39" s="23"/>
-      <c r="N39" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="O39" s="23"/>
-    </row>
+      <c r="F32" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" s="23"/>
+      <c r="N32" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O32" s="23"/>
+    </row>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40">
+      <c r="A40" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+    </row>
+    <row r="41"/>
     <row r="42">
       <c r="A42" s="29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
@@ -4269,7 +4342,7 @@
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
       <c r="I42" s="29" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
@@ -4280,27 +4353,27 @@
     </row>
     <row r="43">
       <c r="A43" s="30" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="G43" s="49" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="G43" s="50" t="s">
+        <v>110</v>
       </c>
       <c r="I43" s="30" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L43" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="O43" s="50" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="O43" s="51" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="31" t="str">
-        <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O10)</f>
+        <f>CONCATENATE("M 1 ",'Elimination Matches'!G7)</f>
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
@@ -4308,10 +4381,10 @@
       <c r="E44" s="31"/>
       <c r="F44" s="31"/>
       <c r="G44" s="31" t="str">
-        <f>CONCATENATE("M 4 ",'Elimination Matches'!O15)</f>
+        <f>CONCATENATE("M 2 ",'Elimination Matches'!O7)</f>
       </c>
       <c r="I44" s="31" t="str">
-        <f>CONCATENATE("M 5 ",'Elimination Matches'!G23)</f>
+        <f>CONCATENATE("M 3 ",'Elimination Matches'!G15)</f>
       </c>
       <c r="J44" s="31"/>
       <c r="K44" s="31"/>
@@ -4319,200 +4392,306 @@
       <c r="M44" s="31"/>
       <c r="N44" s="31"/>
       <c r="O44" s="31" t="str">
-        <f>CONCATENATE("M 6 ",'Elimination Matches'!O23)</f>
-      </c>
-    </row>
+        <f>CONCATENATE("M 4 ",'Elimination Matches'!O15)</f>
+      </c>
+    </row>
+    <row r="45"/>
     <row r="46">
       <c r="F46" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G46" s="23"/>
       <c r="N46" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O46" s="23"/>
     </row>
     <row r="47">
       <c r="F47" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G47" s="23"/>
       <c r="N47" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O47" s="23"/>
     </row>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50">
+      <c r="A50" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="I50" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="I51" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="L51" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="O51" s="53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="31" t="str">
+        <f>CONCATENATE("M 5 ",'Elimination Matches'!G23)</f>
+      </c>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31" t="str">
+        <f>CONCATENATE("M 6 ",'Elimination Matches'!O23)</f>
+      </c>
+      <c r="I52" s="31" t="str">
+        <f>CONCATENATE("M 7 ",'Elimination Matches'!G31)</f>
+      </c>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31" t="str">
+        <f>CONCATENATE("M 8 ",'Elimination Matches'!O31)</f>
+      </c>
+    </row>
+    <row r="53"/>
+    <row r="54">
+      <c r="F54" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G54" s="23"/>
+      <c r="N54" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="O54" s="23"/>
+    </row>
     <row r="55">
-      <c r="A55" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="I57" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D58" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="G58" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="I58" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="L58" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="O58" s="52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="31" t="str">
-        <f>CONCATENATE("M 7 ",'Elimination Matches'!G38)</f>
-      </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31" t="str">
-        <f>CONCATENATE("M 8 ",'Elimination Matches'!O38)</f>
-      </c>
-      <c r="I59" s="31" t="str">
+      <c r="F55" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G55" s="23"/>
+      <c r="N55" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O55" s="23"/>
+    </row>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63">
+      <c r="A63" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+    </row>
+    <row r="64"/>
+    <row r="65">
+      <c r="A65" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="I65" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="29"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G66" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="I66" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="L66" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="O66" s="55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="31" t="str">
         <f>CONCATENATE("M 9 ",'Elimination Matches'!G46)</f>
       </c>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31" t="str">
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31" t="str">
         <f>CONCATENATE("M 10 ",'Elimination Matches'!O46)</f>
       </c>
-    </row>
-    <row r="61">
-      <c r="F61" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G61" s="23"/>
-      <c r="N61" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="O61" s="23"/>
-    </row>
-    <row r="62">
-      <c r="F62" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G62" s="23"/>
-      <c r="N62" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="O62" s="23"/>
+      <c r="I67" s="31" t="str">
+        <f>CONCATENATE("M 11 ",'Elimination Matches'!G54)</f>
+      </c>
+      <c r="J67" s="31"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="31" t="str">
+        <f>CONCATENATE("M 12 ",'Elimination Matches'!O54)</f>
+      </c>
+    </row>
+    <row r="68"/>
+    <row r="69">
+      <c r="F69" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G69" s="23"/>
+      <c r="N69" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="O69" s="23"/>
     </row>
     <row r="70">
-      <c r="A70" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="29"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D73" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="G73" s="53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="31" t="str">
-        <f>CONCATENATE("M 11 ",'Elimination Matches'!G61)</f>
-      </c>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31" t="str">
-        <f>CONCATENATE("M 12 ",'Elimination Matches'!O61)</f>
-      </c>
-    </row>
-    <row r="76">
-      <c r="F76" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G76" s="23"/>
-    </row>
-    <row r="77">
-      <c r="F77" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G77" s="23"/>
+      <c r="F70" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G70" s="23"/>
+      <c r="N70" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O70" s="23"/>
+    </row>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78">
+      <c r="A78" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="29"/>
+    </row>
+    <row r="79"/>
+    <row r="80">
+      <c r="A80" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G81" s="56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="31" t="str">
+        <f>CONCATENATE("M 13 ",'Elimination Matches'!G69)</f>
+      </c>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31" t="str">
+        <f>CONCATENATE("M 14 ",'Elimination Matches'!O69)</f>
+      </c>
+    </row>
+    <row r="83"/>
+    <row r="84">
+      <c r="F84" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G84" s="23"/>
+    </row>
+    <row r="85">
+      <c r="F85" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G85" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="I3:O3"/>
@@ -4520,16 +4699,18 @@
     <mergeCell ref="I11:O11"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="I19:O19"/>
-    <mergeCell ref="A32:O32"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="I34:O34"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="I27:O27"/>
+    <mergeCell ref="A40:O40"/>
     <mergeCell ref="A42:G42"/>
     <mergeCell ref="I42:O42"/>
-    <mergeCell ref="A55:O55"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="I57:O57"/>
-    <mergeCell ref="A70:O70"/>
-    <mergeCell ref="A72:G72"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="I50:O50"/>
+    <mergeCell ref="A63:O63"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="I65:O65"/>
+    <mergeCell ref="A78:O78"/>
+    <mergeCell ref="A80:G80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4554,329 +4735,343 @@
   </cols>
   <sheetData>
     <row r="1" ht="110" customHeight="true">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="40" t="str">
-        <f>data!D2</f>
+      <c r="B1" s="41" t="str">
+        <f>data!DB$2</f>
       </c>
     </row>
     <row r="2" ht="115" customHeight="true">
-      <c r="A2" s="39">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" ht="110" customHeight="true">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="40" t="str">
-        <f>data!D3</f>
+      <c r="B3" s="41" t="str">
+        <f>data!DB$3</f>
       </c>
     </row>
     <row r="4" ht="115" customHeight="true">
-      <c r="A4" s="39">
+      <c r="A4" s="40">
         <v>2</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="41"/>
     </row>
     <row r="5" ht="110" customHeight="true">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="40" t="str">
-        <f>data!D4</f>
+      <c r="B5" s="41" t="str">
+        <f>data!DB$4</f>
       </c>
     </row>
     <row r="6" ht="115" customHeight="true">
-      <c r="A6" s="39">
+      <c r="A6" s="40">
         <v>3</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="41"/>
     </row>
     <row r="7" ht="110" customHeight="true">
-      <c r="A7" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="40" t="str">
-        <f>data!D5</f>
+      <c r="A7" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="41" t="str">
+        <f>data!DB$5</f>
       </c>
     </row>
     <row r="8" ht="115" customHeight="true">
-      <c r="A8" s="39">
-        <v>4</v>
-      </c>
-      <c r="B8" s="40"/>
+      <c r="A8" s="40">
+        <v>1</v>
+      </c>
+      <c r="B8" s="41"/>
     </row>
     <row r="9" ht="110" customHeight="true">
-      <c r="A9" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="40" t="str">
-        <f>data!D6</f>
+      <c r="A9" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="41" t="str">
+        <f>data!DB$6</f>
       </c>
     </row>
     <row r="10" ht="115" customHeight="true">
-      <c r="A10" s="39">
+      <c r="A10" s="40">
+        <v>2</v>
+      </c>
+      <c r="B10" s="41"/>
+    </row>
+    <row r="11" ht="110" customHeight="true">
+      <c r="A11" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="41" t="str">
+        <f>data!DB$7</f>
+      </c>
+    </row>
+    <row r="12" ht="115" customHeight="true">
+      <c r="A12" s="40">
+        <v>3</v>
+      </c>
+      <c r="B12" s="41"/>
+    </row>
+    <row r="13" ht="110" customHeight="true">
+      <c r="A13" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="41" t="str">
+        <f>data!DB$8</f>
+      </c>
+    </row>
+    <row r="14" ht="115" customHeight="true">
+      <c r="A14" s="40">
         <v>1</v>
       </c>
-      <c r="B10" s="40"/>
-    </row>
-    <row r="11" ht="110" customHeight="true">
-      <c r="A11" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="40" t="str">
-        <f>data!D7</f>
-      </c>
-    </row>
-    <row r="12" ht="115" customHeight="true">
-      <c r="A12" s="39">
+      <c r="B14" s="41"/>
+    </row>
+    <row r="15" ht="110" customHeight="true">
+      <c r="A15" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="41" t="str">
+        <f>data!DB$9</f>
+      </c>
+    </row>
+    <row r="16" ht="115" customHeight="true">
+      <c r="A16" s="40">
         <v>2</v>
       </c>
-      <c r="B12" s="40"/>
-    </row>
-    <row r="13" ht="110" customHeight="true">
-      <c r="A13" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="40" t="str">
-        <f>data!D8</f>
-      </c>
-    </row>
-    <row r="14" ht="115" customHeight="true">
-      <c r="A14" s="39">
+      <c r="B16" s="41"/>
+    </row>
+    <row r="17" ht="110" customHeight="true">
+      <c r="A17" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="41" t="str">
+        <f>data!DB$10</f>
+      </c>
+    </row>
+    <row r="18" ht="115" customHeight="true">
+      <c r="A18" s="40">
         <v>3</v>
       </c>
-      <c r="B14" s="40"/>
-    </row>
-    <row r="15" ht="110" customHeight="true">
-      <c r="A15" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="40" t="str">
-        <f>data!D9</f>
-      </c>
-    </row>
-    <row r="16" ht="115" customHeight="true">
-      <c r="A16" s="39">
+      <c r="B18" s="41"/>
+    </row>
+    <row r="19" ht="110" customHeight="true">
+      <c r="A19" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="41" t="str">
+        <f>data!DB$11</f>
+      </c>
+    </row>
+    <row r="20" ht="115" customHeight="true">
+      <c r="A20" s="40">
         <v>1</v>
       </c>
-      <c r="B16" s="40"/>
-    </row>
-    <row r="17" ht="110" customHeight="true">
-      <c r="A17" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="40" t="str">
-        <f>data!D10</f>
-      </c>
-    </row>
-    <row r="18" ht="115" customHeight="true">
-      <c r="A18" s="39">
+      <c r="B20" s="41"/>
+    </row>
+    <row r="21" ht="110" customHeight="true">
+      <c r="A21" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="41" t="str">
+        <f>data!DB$12</f>
+      </c>
+    </row>
+    <row r="22" ht="115" customHeight="true">
+      <c r="A22" s="40">
         <v>2</v>
       </c>
-      <c r="B18" s="40"/>
-    </row>
-    <row r="19" ht="110" customHeight="true">
-      <c r="A19" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="40" t="str">
-        <f>data!D11</f>
-      </c>
-    </row>
-    <row r="20" ht="115" customHeight="true">
-      <c r="A20" s="39">
+      <c r="B22" s="41"/>
+    </row>
+    <row r="23" ht="110" customHeight="true">
+      <c r="A23" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="41" t="str">
+        <f>data!DB$13</f>
+      </c>
+    </row>
+    <row r="24" ht="115" customHeight="true">
+      <c r="A24" s="40">
         <v>3</v>
       </c>
-      <c r="B20" s="40"/>
-    </row>
-    <row r="21" ht="110" customHeight="true">
-      <c r="A21" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="40" t="str">
-        <f>data!D12</f>
-      </c>
-    </row>
-    <row r="22" ht="115" customHeight="true">
-      <c r="A22" s="39">
+      <c r="B24" s="41"/>
+    </row>
+    <row r="25" ht="110" customHeight="true">
+      <c r="A25" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="41" t="str">
+        <f>data!DB$14</f>
+      </c>
+    </row>
+    <row r="26" ht="115" customHeight="true">
+      <c r="A26" s="40">
         <v>1</v>
       </c>
-      <c r="B22" s="40"/>
-    </row>
-    <row r="23" ht="110" customHeight="true">
-      <c r="A23" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="40" t="str">
-        <f>data!D13</f>
-      </c>
-    </row>
-    <row r="24" ht="115" customHeight="true">
-      <c r="A24" s="39">
+      <c r="B26" s="41"/>
+    </row>
+    <row r="27" ht="110" customHeight="true">
+      <c r="A27" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="41" t="str">
+        <f>data!DB$15</f>
+      </c>
+    </row>
+    <row r="28" ht="115" customHeight="true">
+      <c r="A28" s="40">
         <v>2</v>
       </c>
-      <c r="B24" s="40"/>
-    </row>
-    <row r="25" ht="110" customHeight="true">
-      <c r="A25" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="40" t="str">
-        <f>data!D14</f>
-      </c>
-    </row>
-    <row r="26" ht="115" customHeight="true">
-      <c r="A26" s="39">
+      <c r="B28" s="41"/>
+    </row>
+    <row r="29" ht="110" customHeight="true">
+      <c r="A29" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="41" t="str">
+        <f>data!DB$16</f>
+      </c>
+    </row>
+    <row r="30" ht="115" customHeight="true">
+      <c r="A30" s="40">
         <v>3</v>
       </c>
-      <c r="B26" s="40"/>
-    </row>
-    <row r="27" ht="110" customHeight="true">
-      <c r="A27" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="40" t="str">
-        <f>data!D15</f>
-      </c>
-    </row>
-    <row r="28" ht="115" customHeight="true">
-      <c r="A28" s="39">
+      <c r="B30" s="41"/>
+    </row>
+    <row r="31" ht="110" customHeight="true">
+      <c r="A31" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="41" t="str">
+        <f>data!DB$17</f>
+      </c>
+    </row>
+    <row r="32" ht="115" customHeight="true">
+      <c r="A32" s="40">
         <v>1</v>
       </c>
-      <c r="B28" s="40"/>
-    </row>
-    <row r="29" ht="110" customHeight="true">
-      <c r="A29" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="40" t="str">
-        <f>data!D16</f>
-      </c>
-    </row>
-    <row r="30" ht="115" customHeight="true">
-      <c r="A30" s="39">
+      <c r="B32" s="41"/>
+    </row>
+    <row r="33" ht="110" customHeight="true">
+      <c r="A33" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="41" t="str">
+        <f>data!DB$18</f>
+      </c>
+    </row>
+    <row r="34" ht="115" customHeight="true">
+      <c r="A34" s="40">
         <v>2</v>
       </c>
-      <c r="B30" s="40"/>
-    </row>
-    <row r="31" ht="110" customHeight="true">
-      <c r="A31" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="40" t="str">
-        <f>data!D17</f>
-      </c>
-    </row>
-    <row r="32" ht="115" customHeight="true">
-      <c r="A32" s="39">
+      <c r="B34" s="41"/>
+    </row>
+    <row r="35" ht="110" customHeight="true">
+      <c r="A35" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="41" t="str">
+        <f>data!DB$19</f>
+      </c>
+    </row>
+    <row r="36" ht="115" customHeight="true">
+      <c r="A36" s="40">
         <v>3</v>
       </c>
-      <c r="B32" s="40"/>
-    </row>
-    <row r="33" ht="110" customHeight="true">
-      <c r="A33" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="40" t="str">
-        <f>data!D18</f>
-      </c>
-    </row>
-    <row r="34" ht="115" customHeight="true">
-      <c r="A34" s="39">
+      <c r="B36" s="41"/>
+    </row>
+    <row r="37" ht="110" customHeight="true">
+      <c r="A37" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="41" t="str">
+        <f>data!DB$20</f>
+      </c>
+    </row>
+    <row r="38" ht="115" customHeight="true">
+      <c r="A38" s="40">
         <v>1</v>
       </c>
-      <c r="B34" s="40"/>
-    </row>
-    <row r="35" ht="110" customHeight="true">
-      <c r="A35" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="40" t="str">
-        <f>data!D19</f>
-      </c>
-    </row>
-    <row r="36" ht="115" customHeight="true">
-      <c r="A36" s="39">
+      <c r="B38" s="41"/>
+    </row>
+    <row r="39" ht="110" customHeight="true">
+      <c r="A39" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="41" t="str">
+        <f>data!DB$21</f>
+      </c>
+    </row>
+    <row r="40" ht="115" customHeight="true">
+      <c r="A40" s="40">
         <v>2</v>
       </c>
-      <c r="B36" s="40"/>
-    </row>
-    <row r="37" ht="110" customHeight="true">
-      <c r="A37" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="40" t="str">
-        <f>data!D20</f>
-      </c>
-    </row>
-    <row r="38" ht="115" customHeight="true">
-      <c r="A38" s="39">
+      <c r="B40" s="41"/>
+    </row>
+    <row r="41" ht="110" customHeight="true">
+      <c r="A41" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="41" t="str">
+        <f>data!DB$22</f>
+      </c>
+    </row>
+    <row r="42" ht="115" customHeight="true">
+      <c r="A42" s="40">
         <v>3</v>
       </c>
-      <c r="B38" s="40"/>
-    </row>
-    <row r="39" ht="110" customHeight="true">
-      <c r="A39" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="40" t="str">
-        <f>data!D21</f>
-      </c>
-    </row>
-    <row r="40" ht="115" customHeight="true">
-      <c r="A40" s="39">
+      <c r="B42" s="41"/>
+    </row>
+    <row r="43" ht="110" customHeight="true">
+      <c r="A43" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="41" t="str">
+        <f>data!DB$23</f>
+      </c>
+    </row>
+    <row r="44" ht="115" customHeight="true">
+      <c r="A44" s="40">
         <v>1</v>
       </c>
-      <c r="B40" s="40"/>
-    </row>
-    <row r="41" ht="110" customHeight="true">
-      <c r="A41" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="40" t="str">
-        <f>data!D22</f>
-      </c>
-    </row>
-    <row r="42" ht="115" customHeight="true">
-      <c r="A42" s="39">
+      <c r="B44" s="41"/>
+    </row>
+    <row r="45" ht="110" customHeight="true">
+      <c r="A45" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="41" t="str">
+        <f>data!DB$24</f>
+      </c>
+    </row>
+    <row r="46" ht="115" customHeight="true">
+      <c r="A46" s="40">
         <v>2</v>
       </c>
-      <c r="B42" s="40"/>
-    </row>
-    <row r="43" ht="110" customHeight="true">
-      <c r="A43" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="40" t="str">
-        <f>data!D23</f>
-      </c>
-    </row>
-    <row r="44" ht="115" customHeight="true">
-      <c r="A44" s="39">
+      <c r="B46" s="41"/>
+    </row>
+    <row r="47" ht="110" customHeight="true">
+      <c r="A47" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="41" t="str">
+        <f>data!DB$25</f>
+      </c>
+    </row>
+    <row r="48" ht="115" customHeight="true">
+      <c r="A48" s="40">
         <v>3</v>
       </c>
-      <c r="B44" s="40"/>
-    </row>
-    <row r="45" ht="110" customHeight="true">
-      <c r="A45" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="40" t="str">
-        <f>data!D24</f>
-      </c>
-    </row>
-    <row r="46" ht="115" customHeight="true">
-      <c r="A46" s="39">
-        <v>4</v>
-      </c>
-      <c r="B46" s="40"/>
+      <c r="B48" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
@@ -4900,6 +5095,7 @@
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
   </mergeCells>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pools-example-medium.xlsx
+++ b/pools-example-medium.xlsx
@@ -586,7 +586,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -650,39 +650,24 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -694,8 +679,6 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -704,9 +687,6 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -715,11 +695,23 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -734,7 +726,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -814,88 +805,88 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4739,7 +4730,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="41" t="str">
-        <f>data!DB$2</f>
+        <f>data!D2</f>
       </c>
     </row>
     <row r="2" ht="115" customHeight="true">
@@ -4753,7 +4744,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="41" t="str">
-        <f>data!DB$3</f>
+        <f>data!D3</f>
       </c>
     </row>
     <row r="4" ht="115" customHeight="true">
@@ -4767,7 +4758,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="41" t="str">
-        <f>data!DB$4</f>
+        <f>data!D4</f>
       </c>
     </row>
     <row r="6" ht="115" customHeight="true">
@@ -4781,7 +4772,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="41" t="str">
-        <f>data!DB$5</f>
+        <f>data!D5</f>
       </c>
     </row>
     <row r="8" ht="115" customHeight="true">
@@ -4795,7 +4786,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="41" t="str">
-        <f>data!DB$6</f>
+        <f>data!D6</f>
       </c>
     </row>
     <row r="10" ht="115" customHeight="true">
@@ -4809,7 +4800,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="41" t="str">
-        <f>data!DB$7</f>
+        <f>data!D7</f>
       </c>
     </row>
     <row r="12" ht="115" customHeight="true">
@@ -4823,7 +4814,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="41" t="str">
-        <f>data!DB$8</f>
+        <f>data!D8</f>
       </c>
     </row>
     <row r="14" ht="115" customHeight="true">
@@ -4837,7 +4828,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="41" t="str">
-        <f>data!DB$9</f>
+        <f>data!D9</f>
       </c>
     </row>
     <row r="16" ht="115" customHeight="true">
@@ -4851,7 +4842,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="41" t="str">
-        <f>data!DB$10</f>
+        <f>data!D10</f>
       </c>
     </row>
     <row r="18" ht="115" customHeight="true">
@@ -4865,7 +4856,7 @@
         <v>45</v>
       </c>
       <c r="B19" s="41" t="str">
-        <f>data!DB$11</f>
+        <f>data!D11</f>
       </c>
     </row>
     <row r="20" ht="115" customHeight="true">
@@ -4879,7 +4870,7 @@
         <v>45</v>
       </c>
       <c r="B21" s="41" t="str">
-        <f>data!DB$12</f>
+        <f>data!D12</f>
       </c>
     </row>
     <row r="22" ht="115" customHeight="true">
@@ -4893,7 +4884,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="41" t="str">
-        <f>data!DB$13</f>
+        <f>data!D13</f>
       </c>
     </row>
     <row r="24" ht="115" customHeight="true">
@@ -4907,7 +4898,7 @@
         <v>53</v>
       </c>
       <c r="B25" s="41" t="str">
-        <f>data!DB$14</f>
+        <f>data!D14</f>
       </c>
     </row>
     <row r="26" ht="115" customHeight="true">
@@ -4921,7 +4912,7 @@
         <v>53</v>
       </c>
       <c r="B27" s="41" t="str">
-        <f>data!DB$15</f>
+        <f>data!D15</f>
       </c>
     </row>
     <row r="28" ht="115" customHeight="true">
@@ -4935,7 +4926,7 @@
         <v>53</v>
       </c>
       <c r="B29" s="41" t="str">
-        <f>data!DB$16</f>
+        <f>data!D16</f>
       </c>
     </row>
     <row r="30" ht="115" customHeight="true">
@@ -4949,7 +4940,7 @@
         <v>62</v>
       </c>
       <c r="B31" s="41" t="str">
-        <f>data!DB$17</f>
+        <f>data!D17</f>
       </c>
     </row>
     <row r="32" ht="115" customHeight="true">
@@ -4963,7 +4954,7 @@
         <v>62</v>
       </c>
       <c r="B33" s="41" t="str">
-        <f>data!DB$18</f>
+        <f>data!D18</f>
       </c>
     </row>
     <row r="34" ht="115" customHeight="true">
@@ -4977,7 +4968,7 @@
         <v>62</v>
       </c>
       <c r="B35" s="41" t="str">
-        <f>data!DB$19</f>
+        <f>data!D19</f>
       </c>
     </row>
     <row r="36" ht="115" customHeight="true">
@@ -4991,7 +4982,7 @@
         <v>72</v>
       </c>
       <c r="B37" s="41" t="str">
-        <f>data!DB$20</f>
+        <f>data!D20</f>
       </c>
     </row>
     <row r="38" ht="115" customHeight="true">
@@ -5005,7 +4996,7 @@
         <v>72</v>
       </c>
       <c r="B39" s="41" t="str">
-        <f>data!DB$21</f>
+        <f>data!D21</f>
       </c>
     </row>
     <row r="40" ht="115" customHeight="true">
@@ -5019,7 +5010,7 @@
         <v>72</v>
       </c>
       <c r="B41" s="41" t="str">
-        <f>data!DB$22</f>
+        <f>data!D22</f>
       </c>
     </row>
     <row r="42" ht="115" customHeight="true">
@@ -5033,7 +5024,7 @@
         <v>82</v>
       </c>
       <c r="B43" s="41" t="str">
-        <f>data!DB$23</f>
+        <f>data!D23</f>
       </c>
     </row>
     <row r="44" ht="115" customHeight="true">
@@ -5047,7 +5038,7 @@
         <v>82</v>
       </c>
       <c r="B45" s="41" t="str">
-        <f>data!DB$24</f>
+        <f>data!D24</f>
       </c>
     </row>
     <row r="46" ht="115" customHeight="true">
@@ -5061,7 +5052,7 @@
         <v>82</v>
       </c>
       <c r="B47" s="41" t="str">
-        <f>data!DB$25</f>
+        <f>data!D25</f>
       </c>
     </row>
     <row r="48" ht="115" customHeight="true">

--- a/pools-example-medium.xlsx
+++ b/pools-example-medium.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Elimination Round 1</t>
   </si>
@@ -318,54 +318,6 @@
   </si>
   <si>
     <t>YGRITTE</t>
-  </si>
-  <si>
-    <t>Pool A.1</t>
-  </si>
-  <si>
-    <t>Pool B.2</t>
-  </si>
-  <si>
-    <t>Pool C.1</t>
-  </si>
-  <si>
-    <t>Pool D.2</t>
-  </si>
-  <si>
-    <t>Pool E.1</t>
-  </si>
-  <si>
-    <t>Pool F.2</t>
-  </si>
-  <si>
-    <t>Pool G.1</t>
-  </si>
-  <si>
-    <t>Pool H.2</t>
-  </si>
-  <si>
-    <t>Pool B.1</t>
-  </si>
-  <si>
-    <t>Pool A.2</t>
-  </si>
-  <si>
-    <t>Pool D.1</t>
-  </si>
-  <si>
-    <t>Pool C.2</t>
-  </si>
-  <si>
-    <t>Pool F.1</t>
-  </si>
-  <si>
-    <t>Pool E.2</t>
-  </si>
-  <si>
-    <t>Pool H.1</t>
-  </si>
-  <si>
-    <t>Pool G.2</t>
   </si>
   <si>
     <t>Red</t>
@@ -535,12 +487,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="1"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -551,6 +497,12 @@
       <b val="1"/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -650,6 +602,39 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
     </border>
     <border>
       <left style="medium">
@@ -663,11 +648,6 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left style="medium">
@@ -696,34 +676,6 @@
         <color rgb="FF000000"/>
       </right>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -778,115 +730,115 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2518,360 +2470,360 @@
   <sheetData>
     <row r="1"/>
     <row r="2">
-      <c r="A2" s="25" t="str">
+      <c r="A2" s="36" t="str">
         <f>data!$A$4</f>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>92</v>
+      <c r="C2" s="35" t="str">
+        <f>CONCATENATE("Pool A.1",'Pool Matches'!G10)</f>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="26" t="str">
+      <c r="A3" s="37" t="str">
         <f>data!$B$2</f>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21">
+      <c r="D3" s="34"/>
+      <c r="E3" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="27" t="str">
+      <c r="A4" s="38" t="str">
         <f>data!$B$3</f>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="35" t="str">
+        <f>CONCATENATE("Pool B.2",'Pool Matches'!O11)</f>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5">
-      <c r="A5" s="28" t="str">
+      <c r="A5" s="39" t="str">
         <f>data!$B$4</f>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="33">
         <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="22"/>
-      <c r="C6" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="20"/>
+      <c r="A6" s="34"/>
+      <c r="C6" s="35" t="str">
+        <f>CONCATENATE("Pool C.1",'Pool Matches'!G21)</f>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7">
-      <c r="A7" s="25" t="str">
+      <c r="A7" s="36" t="str">
         <f>data!$A$7</f>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="21">
+      <c r="D7" s="34"/>
+      <c r="E7" s="33">
         <v>2</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8">
-      <c r="A8" s="26" t="str">
+      <c r="A8" s="37" t="str">
         <f>data!$B$5</f>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="C8" s="35" t="str">
+        <f>CONCATENATE("Pool D.2",'Pool Matches'!O22)</f>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9">
-      <c r="A9" s="27" t="str">
+      <c r="A9" s="38" t="str">
         <f>data!$B$6</f>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="33">
         <v>13</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="28" t="str">
+      <c r="A10" s="39" t="str">
         <f>data!$B$7</f>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="20"/>
+      <c r="C10" s="35" t="str">
+        <f>CONCATENATE("Pool E.1",'Pool Matches'!G32)</f>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11">
-      <c r="A11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="21">
+      <c r="A11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="33">
         <v>3</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="I11" s="32"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12">
-      <c r="A12" s="25" t="str">
+      <c r="A12" s="36" t="str">
         <f>data!$A$10</f>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="K12" s="20"/>
+      <c r="C12" s="35" t="str">
+        <f>CONCATENATE("Pool F.2",'Pool Matches'!O33)</f>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13">
-      <c r="A13" s="26" t="str">
+      <c r="A13" s="37" t="str">
         <f>data!$B$8</f>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="33">
         <v>10</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="32"/>
+      <c r="K13" s="32"/>
     </row>
     <row r="14">
-      <c r="A14" s="27" t="str">
+      <c r="A14" s="38" t="str">
         <f>data!$B$9</f>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="C14" s="35" t="str">
+        <f>CONCATENATE("Pool G.1",'Pool Matches'!G43)</f>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15">
-      <c r="A15" s="28" t="str">
+      <c r="A15" s="39" t="str">
         <f>data!$B$10</f>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="21">
+      <c r="D15" s="34"/>
+      <c r="E15" s="33">
         <v>4</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="32"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16">
-      <c r="A16" s="22"/>
-      <c r="C16" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="A16" s="34"/>
+      <c r="C16" s="35" t="str">
+        <f>CONCATENATE("Pool H.2",'Pool Matches'!O44)</f>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="32"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17">
-      <c r="A17" s="25" t="str">
+      <c r="A17" s="36" t="str">
         <f>data!$A$13</f>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="33">
         <v>15</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="26" t="str">
+      <c r="A18" s="37" t="str">
         <f>data!$B$11</f>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="K18" s="20"/>
+      <c r="C18" s="35" t="str">
+        <f>CONCATENATE("Pool B.1",'Pool Matches'!O10)</f>
+      </c>
+      <c r="K18" s="32"/>
     </row>
     <row r="19">
-      <c r="A19" s="27" t="str">
+      <c r="A19" s="38" t="str">
         <f>data!$B$12</f>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="21">
+      <c r="D19" s="34"/>
+      <c r="E19" s="33">
         <v>5</v>
       </c>
-      <c r="K19" s="20"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20">
-      <c r="A20" s="28" t="str">
+      <c r="A20" s="39" t="str">
         <f>data!$B$13</f>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="20"/>
-      <c r="K20" s="20"/>
+      <c r="C20" s="35" t="str">
+        <f>CONCATENATE("Pool A.2",'Pool Matches'!G11)</f>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="32"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21">
-      <c r="A21" s="22"/>
-      <c r="G21" s="21">
+      <c r="A21" s="34"/>
+      <c r="G21" s="33">
         <v>11</v>
       </c>
-      <c r="K21" s="20"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22">
-      <c r="A22" s="25" t="str">
+      <c r="A22" s="36" t="str">
         <f>data!$A$16</f>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="20"/>
-      <c r="K22" s="20"/>
+      <c r="C22" s="35" t="str">
+        <f>CONCATENATE("Pool D.1",'Pool Matches'!O21)</f>
+      </c>
+      <c r="G22" s="32"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="32"/>
+      <c r="K22" s="32"/>
     </row>
     <row r="23">
-      <c r="A23" s="26" t="str">
+      <c r="A23" s="37" t="str">
         <f>data!$B$14</f>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="21">
+      <c r="D23" s="34"/>
+      <c r="E23" s="33">
         <v>6</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="K23" s="20"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="K23" s="32"/>
     </row>
     <row r="24">
-      <c r="A24" s="27" t="str">
+      <c r="A24" s="38" t="str">
         <f>data!$B$15</f>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="K24" s="20"/>
+      <c r="C24" s="35" t="str">
+        <f>CONCATENATE("Pool C.2",'Pool Matches'!G22)</f>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="K24" s="32"/>
     </row>
     <row r="25">
-      <c r="A25" s="28" t="str">
+      <c r="A25" s="39" t="str">
         <f>data!$B$16</f>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="33">
         <v>14</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="20"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="32"/>
     </row>
     <row r="26">
-      <c r="A26" s="22"/>
-      <c r="C26" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="I26" s="20"/>
+      <c r="A26" s="34"/>
+      <c r="C26" s="35" t="str">
+        <f>CONCATENATE("Pool F.1",'Pool Matches'!O32)</f>
+      </c>
+      <c r="I26" s="32"/>
     </row>
     <row r="27">
-      <c r="A27" s="25" t="str">
+      <c r="A27" s="36" t="str">
         <f>data!$A$19</f>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="21">
+      <c r="D27" s="34"/>
+      <c r="E27" s="33">
         <v>7</v>
       </c>
-      <c r="I27" s="20"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28">
-      <c r="A28" s="26" t="str">
+      <c r="A28" s="37" t="str">
         <f>data!$B$17</f>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="20"/>
-      <c r="I28" s="20"/>
+      <c r="C28" s="35" t="str">
+        <f>CONCATENATE("Pool E.2",'Pool Matches'!G33)</f>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="32"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29">
-      <c r="A29" s="27" t="str">
+      <c r="A29" s="38" t="str">
         <f>data!$B$18</f>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="33">
         <v>12</v>
       </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="20"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30">
-      <c r="A30" s="28" t="str">
+      <c r="A30" s="39" t="str">
         <f>data!$B$19</f>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="20"/>
+      <c r="C30" s="35" t="str">
+        <f>CONCATENATE("Pool H.1",'Pool Matches'!O43)</f>
+      </c>
+      <c r="G30" s="32"/>
     </row>
     <row r="31">
-      <c r="A31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="21">
+      <c r="A31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="33">
         <v>8</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="20"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32">
-      <c r="A32" s="25" t="str">
+      <c r="A32" s="36" t="str">
         <f>data!$A$22</f>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="20"/>
+      <c r="C32" s="35" t="str">
+        <f>CONCATENATE("Pool G.2",'Pool Matches'!G44)</f>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33">
-      <c r="A33" s="26" t="str">
+      <c r="A33" s="37" t="str">
         <f>data!$B$20</f>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="27" t="str">
+      <c r="A34" s="38" t="str">
         <f>data!$B$21</f>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="str">
+      <c r="A35" s="39" t="str">
         <f>data!$B$22</f>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="22"/>
+      <c r="A36" s="34"/>
     </row>
     <row r="37">
-      <c r="A37" s="25" t="str">
+      <c r="A37" s="36" t="str">
         <f>data!$A$25</f>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="26" t="str">
+      <c r="A38" s="37" t="str">
         <f>data!$B$23</f>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="str">
+      <c r="A39" s="38" t="str">
         <f>data!$B$24</f>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="str">
+      <c r="A40" s="39" t="str">
         <f>data!$B$25</f>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="22"/>
+      <c r="A41" s="34"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
@@ -3313,582 +3265,582 @@
     <row r="2"/>
     <row r="3"/>
     <row r="4">
-      <c r="A4" s="29" t="str">
+      <c r="A4" s="20" t="str">
         <f>data!$A$4</f>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="I4" s="29" t="str">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="I4" s="20" t="str">
         <f>data!$A$7</f>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
     </row>
     <row r="5">
-      <c r="A5" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>110</v>
+      <c r="A5" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="31" t="str">
+      <c r="A6" s="22" t="str">
         <f>data!$B$2</f>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31" t="str">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22" t="str">
         <f>data!$B$3</f>
       </c>
-      <c r="I6" s="31" t="str">
+      <c r="I6" s="22" t="str">
         <f>data!$B$5</f>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31" t="str">
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22" t="str">
         <f>data!$B$6</f>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="31" t="str">
+      <c r="A7" s="22" t="str">
         <f>data!$B$4</f>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31" t="str">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22" t="str">
         <f>data!$B$3</f>
       </c>
-      <c r="I7" s="31" t="str">
+      <c r="I7" s="22" t="str">
         <f>data!$B$7</f>
       </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31" t="str">
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22" t="str">
         <f>data!$B$6</f>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="31" t="str">
+      <c r="A8" s="22" t="str">
         <f>data!$B$4</f>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31" t="str">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22" t="str">
         <f>data!$B$2</f>
       </c>
-      <c r="I8" s="31" t="str">
+      <c r="I8" s="22" t="str">
         <f>data!$B$7</f>
       </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31" t="str">
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22" t="str">
         <f>data!$B$5</f>
       </c>
     </row>
     <row r="9"/>
     <row r="10">
       <c r="F10" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="23"/>
+        <v>95</v>
+      </c>
+      <c r="G10" s="24"/>
       <c r="N10" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="O10" s="23"/>
+        <v>95</v>
+      </c>
+      <c r="O10" s="24"/>
     </row>
     <row r="11">
       <c r="F11" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" s="23"/>
+        <v>96</v>
+      </c>
+      <c r="G11" s="24"/>
       <c r="N11" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="O11" s="23"/>
+        <v>96</v>
+      </c>
+      <c r="O11" s="24"/>
     </row>
     <row r="12">
       <c r="F12" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" s="23"/>
+        <v>97</v>
+      </c>
+      <c r="G12" s="24"/>
       <c r="N12" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="O12" s="23"/>
+        <v>97</v>
+      </c>
+      <c r="O12" s="24"/>
     </row>
     <row r="13"/>
     <row r="14"/>
     <row r="15">
-      <c r="A15" s="29" t="str">
+      <c r="A15" s="20" t="str">
         <f>data!$A$10</f>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="I15" s="29" t="str">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="I15" s="20" t="str">
         <f>data!$A$13</f>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
     </row>
     <row r="16">
-      <c r="A16" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="O16" s="35" t="s">
-        <v>110</v>
+      <c r="A16" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="31" t="str">
+      <c r="A17" s="22" t="str">
         <f>data!$B$8</f>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31" t="str">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22" t="str">
         <f>data!$B$9</f>
       </c>
-      <c r="I17" s="31" t="str">
+      <c r="I17" s="22" t="str">
         <f>data!$B$11</f>
       </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31" t="str">
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22" t="str">
         <f>data!$B$12</f>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="31" t="str">
+      <c r="A18" s="22" t="str">
         <f>data!$B$10</f>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31" t="str">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22" t="str">
         <f>data!$B$9</f>
       </c>
-      <c r="I18" s="31" t="str">
+      <c r="I18" s="22" t="str">
         <f>data!$B$13</f>
       </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="str">
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22" t="str">
         <f>data!$B$12</f>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="31" t="str">
+      <c r="A19" s="22" t="str">
         <f>data!$B$10</f>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31" t="str">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22" t="str">
         <f>data!$B$8</f>
       </c>
-      <c r="I19" s="31" t="str">
+      <c r="I19" s="22" t="str">
         <f>data!$B$13</f>
       </c>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="str">
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22" t="str">
         <f>data!$B$11</f>
       </c>
     </row>
     <row r="20"/>
     <row r="21">
       <c r="F21" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="23"/>
+        <v>95</v>
+      </c>
+      <c r="G21" s="24"/>
       <c r="N21" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="O21" s="23"/>
+        <v>95</v>
+      </c>
+      <c r="O21" s="24"/>
     </row>
     <row r="22">
       <c r="F22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="23"/>
+        <v>96</v>
+      </c>
+      <c r="G22" s="24"/>
       <c r="N22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="O22" s="23"/>
+        <v>96</v>
+      </c>
+      <c r="O22" s="24"/>
     </row>
     <row r="23">
       <c r="F23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="23"/>
+        <v>97</v>
+      </c>
+      <c r="G23" s="24"/>
       <c r="N23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="O23" s="23"/>
+        <v>97</v>
+      </c>
+      <c r="O23" s="24"/>
     </row>
     <row r="24"/>
     <row r="25"/>
     <row r="26">
-      <c r="A26" s="29" t="str">
+      <c r="A26" s="20" t="str">
         <f>data!$A$16</f>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="I26" s="29" t="str">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="I26" s="20" t="str">
         <f>data!$A$19</f>
       </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
     </row>
     <row r="27">
-      <c r="A27" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="L27" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="O27" s="37" t="s">
-        <v>110</v>
+      <c r="A27" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="31" t="str">
+      <c r="A28" s="22" t="str">
         <f>data!$B$14</f>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31" t="str">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22" t="str">
         <f>data!$B$15</f>
       </c>
-      <c r="I28" s="31" t="str">
+      <c r="I28" s="22" t="str">
         <f>data!$B$17</f>
       </c>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31" t="str">
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22" t="str">
         <f>data!$B$18</f>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="31" t="str">
+      <c r="A29" s="22" t="str">
         <f>data!$B$16</f>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31" t="str">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22" t="str">
         <f>data!$B$15</f>
       </c>
-      <c r="I29" s="31" t="str">
+      <c r="I29" s="22" t="str">
         <f>data!$B$19</f>
       </c>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31" t="str">
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22" t="str">
         <f>data!$B$18</f>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="31" t="str">
+      <c r="A30" s="22" t="str">
         <f>data!$B$16</f>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31" t="str">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22" t="str">
         <f>data!$B$14</f>
       </c>
-      <c r="I30" s="31" t="str">
+      <c r="I30" s="22" t="str">
         <f>data!$B$19</f>
       </c>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="str">
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22" t="str">
         <f>data!$B$17</f>
       </c>
     </row>
     <row r="31"/>
     <row r="32">
       <c r="F32" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32" s="23"/>
+        <v>95</v>
+      </c>
+      <c r="G32" s="24"/>
       <c r="N32" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="O32" s="23"/>
+        <v>95</v>
+      </c>
+      <c r="O32" s="24"/>
     </row>
     <row r="33">
       <c r="F33" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G33" s="23"/>
+        <v>96</v>
+      </c>
+      <c r="G33" s="24"/>
       <c r="N33" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="O33" s="23"/>
+        <v>96</v>
+      </c>
+      <c r="O33" s="24"/>
     </row>
     <row r="34">
       <c r="F34" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G34" s="23"/>
+        <v>97</v>
+      </c>
+      <c r="G34" s="24"/>
       <c r="N34" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="O34" s="23"/>
+        <v>97</v>
+      </c>
+      <c r="O34" s="24"/>
     </row>
     <row r="35"/>
     <row r="36"/>
     <row r="37">
-      <c r="A37" s="29" t="str">
+      <c r="A37" s="20" t="str">
         <f>data!$A$22</f>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="I37" s="29" t="str">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="I37" s="20" t="str">
         <f>data!$A$25</f>
       </c>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
     </row>
     <row r="38">
-      <c r="A38" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="G38" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="I38" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="L38" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="O38" s="39" t="s">
-        <v>110</v>
+      <c r="A38" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="L38" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="O38" s="31" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="31" t="str">
+      <c r="A39" s="22" t="str">
         <f>data!$B$20</f>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31" t="str">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22" t="str">
         <f>data!$B$21</f>
       </c>
-      <c r="I39" s="31" t="str">
+      <c r="I39" s="22" t="str">
         <f>data!$B$23</f>
       </c>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31" t="str">
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22" t="str">
         <f>data!$B$24</f>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="31" t="str">
+      <c r="A40" s="22" t="str">
         <f>data!$B$22</f>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31" t="str">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22" t="str">
         <f>data!$B$21</f>
       </c>
-      <c r="I40" s="31" t="str">
+      <c r="I40" s="22" t="str">
         <f>data!$B$25</f>
       </c>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31" t="str">
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22" t="str">
         <f>data!$B$24</f>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="31" t="str">
+      <c r="A41" s="22" t="str">
         <f>data!$B$22</f>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31" t="str">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22" t="str">
         <f>data!$B$20</f>
       </c>
-      <c r="I41" s="31" t="str">
+      <c r="I41" s="22" t="str">
         <f>data!$B$25</f>
       </c>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31" t="str">
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22" t="str">
         <f>data!$B$23</f>
       </c>
     </row>
     <row r="42"/>
     <row r="43">
       <c r="F43" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G43" s="23"/>
+        <v>95</v>
+      </c>
+      <c r="G43" s="24"/>
       <c r="N43" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="O43" s="23"/>
+        <v>95</v>
+      </c>
+      <c r="O43" s="24"/>
     </row>
     <row r="44">
       <c r="F44" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G44" s="23"/>
+        <v>96</v>
+      </c>
+      <c r="G44" s="24"/>
       <c r="N44" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="O44" s="23"/>
+        <v>96</v>
+      </c>
+      <c r="O44" s="24"/>
     </row>
     <row r="45">
       <c r="F45" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G45" s="23"/>
+        <v>97</v>
+      </c>
+      <c r="G45" s="24"/>
       <c r="N45" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="O45" s="23"/>
+        <v>97</v>
+      </c>
+      <c r="O45" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3930,370 +3882,370 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="true">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
     </row>
     <row r="2"/>
     <row r="3">
-      <c r="A3" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="I3" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
+      <c r="A3" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="I3" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
     </row>
     <row r="4">
-      <c r="A4" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>109</v>
+      <c r="A4" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>109</v>
+        <v>94</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="O4" s="43" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="31" t="str">
+      <c r="A5" s="22" t="str">
         <f>CONCATENATE("Pool A.1 ",'Pool Matches'!G10)</f>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31" t="str">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22" t="str">
         <f>CONCATENATE("Pool B.2 ",'Pool Matches'!O11)</f>
       </c>
-      <c r="I5" s="31" t="str">
+      <c r="I5" s="22" t="str">
         <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G21)</f>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31" t="str">
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22" t="str">
         <f>CONCATENATE("Pool D.2 ",'Pool Matches'!O22)</f>
       </c>
     </row>
     <row r="6"/>
     <row r="7">
       <c r="F7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="G7" s="24"/>
       <c r="N7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="O7" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="O7" s="24"/>
     </row>
     <row r="8">
       <c r="F8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="G8" s="24"/>
       <c r="N8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="O8" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="O8" s="24"/>
     </row>
     <row r="9"/>
     <row r="10"/>
     <row r="11">
-      <c r="A11" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="I11" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
+      <c r="A11" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="I11" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
     </row>
     <row r="12">
-      <c r="A12" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>109</v>
+      <c r="A12" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>109</v>
+        <v>94</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="O12" s="45" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="31" t="str">
+      <c r="A13" s="22" t="str">
         <f>CONCATENATE("Pool E.1 ",'Pool Matches'!G32)</f>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31" t="str">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22" t="str">
         <f>CONCATENATE("Pool F.2 ",'Pool Matches'!O33)</f>
       </c>
-      <c r="I13" s="31" t="str">
+      <c r="I13" s="22" t="str">
         <f>CONCATENATE("Pool G.1 ",'Pool Matches'!G43)</f>
       </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31" t="str">
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22" t="str">
         <f>CONCATENATE("Pool H.2 ",'Pool Matches'!O44)</f>
       </c>
     </row>
     <row r="14"/>
     <row r="15">
       <c r="F15" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="N15" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="O15" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="O15" s="24"/>
     </row>
     <row r="16">
       <c r="F16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="G16" s="24"/>
       <c r="N16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="O16" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="O16" s="24"/>
     </row>
     <row r="17"/>
     <row r="18"/>
     <row r="19">
-      <c r="A19" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="I19" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
+      <c r="A19" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="I19" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
     </row>
     <row r="20">
-      <c r="A20" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>109</v>
+      <c r="A20" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="L20" s="31" t="s">
-        <v>109</v>
+        <v>94</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="O20" s="47" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="31" t="str">
+      <c r="A21" s="22" t="str">
         <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O10)</f>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31" t="str">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22" t="str">
         <f>CONCATENATE("Pool A.2 ",'Pool Matches'!G11)</f>
       </c>
-      <c r="I21" s="31" t="str">
+      <c r="I21" s="22" t="str">
         <f>CONCATENATE("Pool D.1 ",'Pool Matches'!O21)</f>
       </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="str">
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22" t="str">
         <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G22)</f>
       </c>
     </row>
     <row r="22"/>
     <row r="23">
       <c r="F23" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="G23" s="24"/>
       <c r="N23" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="O23" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="O23" s="24"/>
     </row>
     <row r="24">
       <c r="F24" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G24" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="G24" s="24"/>
       <c r="N24" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="O24" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="O24" s="24"/>
     </row>
     <row r="25"/>
     <row r="26"/>
     <row r="27">
-      <c r="A27" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="I27" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
+      <c r="A27" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="I27" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
     </row>
     <row r="28">
-      <c r="A28" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>109</v>
+      <c r="A28" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="G28" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="L28" s="31" t="s">
-        <v>109</v>
+        <v>94</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="O28" s="49" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="31" t="str">
+      <c r="A29" s="22" t="str">
         <f>CONCATENATE("Pool F.1 ",'Pool Matches'!O32)</f>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31" t="str">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22" t="str">
         <f>CONCATENATE("Pool E.2 ",'Pool Matches'!G33)</f>
       </c>
-      <c r="I29" s="31" t="str">
+      <c r="I29" s="22" t="str">
         <f>CONCATENATE("Pool H.1 ",'Pool Matches'!O43)</f>
       </c>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31" t="str">
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22" t="str">
         <f>CONCATENATE("Pool G.2 ",'Pool Matches'!G44)</f>
       </c>
     </row>
     <row r="30"/>
     <row r="31">
       <c r="F31" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="G31" s="24"/>
       <c r="N31" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="O31" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="O31" s="24"/>
     </row>
     <row r="32">
       <c r="F32" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G32" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="G32" s="24"/>
       <c r="N32" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="O32" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="O32" s="24"/>
     </row>
     <row r="33"/>
     <row r="34"/>
@@ -4303,196 +4255,196 @@
     <row r="38"/>
     <row r="39"/>
     <row r="40">
-      <c r="A40" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
+      <c r="A40" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
     </row>
     <row r="41"/>
     <row r="42">
-      <c r="A42" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="I42" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
+      <c r="A42" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="I42" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
     </row>
     <row r="43">
-      <c r="A43" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>109</v>
+      <c r="A43" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="G43" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="I43" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="L43" s="31" t="s">
-        <v>109</v>
+        <v>94</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="L43" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="O43" s="51" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="31" t="str">
+      <c r="A44" s="22" t="str">
         <f>CONCATENATE("M 1 ",'Elimination Matches'!G7)</f>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31" t="str">
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22" t="str">
         <f>CONCATENATE("M 2 ",'Elimination Matches'!O7)</f>
       </c>
-      <c r="I44" s="31" t="str">
+      <c r="I44" s="22" t="str">
         <f>CONCATENATE("M 3 ",'Elimination Matches'!G15)</f>
       </c>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31" t="str">
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22" t="str">
         <f>CONCATENATE("M 4 ",'Elimination Matches'!O15)</f>
       </c>
     </row>
     <row r="45"/>
     <row r="46">
       <c r="F46" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G46" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="G46" s="24"/>
       <c r="N46" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="O46" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="O46" s="24"/>
     </row>
     <row r="47">
       <c r="F47" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G47" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="G47" s="24"/>
       <c r="N47" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="O47" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="O47" s="24"/>
     </row>
     <row r="48"/>
     <row r="49"/>
     <row r="50">
-      <c r="A50" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="I50" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
+      <c r="A50" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="I50" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
     </row>
     <row r="51">
-      <c r="A51" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>109</v>
+      <c r="A51" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="G51" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="I51" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="L51" s="31" t="s">
-        <v>109</v>
+        <v>94</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="L51" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="O51" s="53" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="31" t="str">
+      <c r="A52" s="22" t="str">
         <f>CONCATENATE("M 5 ",'Elimination Matches'!G23)</f>
       </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31" t="str">
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22" t="str">
         <f>CONCATENATE("M 6 ",'Elimination Matches'!O23)</f>
       </c>
-      <c r="I52" s="31" t="str">
+      <c r="I52" s="22" t="str">
         <f>CONCATENATE("M 7 ",'Elimination Matches'!G31)</f>
       </c>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31" t="str">
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22" t="str">
         <f>CONCATENATE("M 8 ",'Elimination Matches'!O31)</f>
       </c>
     </row>
     <row r="53"/>
     <row r="54">
       <c r="F54" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G54" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="G54" s="24"/>
       <c r="N54" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="O54" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="O54" s="24"/>
     </row>
     <row r="55">
       <c r="F55" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G55" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="G55" s="24"/>
       <c r="N55" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="O55" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="O55" s="24"/>
     </row>
     <row r="56"/>
     <row r="57"/>
@@ -4502,109 +4454,109 @@
     <row r="61"/>
     <row r="62"/>
     <row r="63">
-      <c r="A63" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="29"/>
+      <c r="A63" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
     </row>
     <row r="64"/>
     <row r="65">
-      <c r="A65" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="I65" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
-      <c r="O65" s="29"/>
+      <c r="A65" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="I65" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
     </row>
     <row r="66">
-      <c r="A66" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>109</v>
+      <c r="A66" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="G66" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="I66" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="L66" s="31" t="s">
-        <v>109</v>
+        <v>94</v>
+      </c>
+      <c r="I66" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="L66" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="O66" s="55" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="31" t="str">
+      <c r="A67" s="22" t="str">
         <f>CONCATENATE("M 9 ",'Elimination Matches'!G46)</f>
       </c>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31" t="str">
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22" t="str">
         <f>CONCATENATE("M 10 ",'Elimination Matches'!O46)</f>
       </c>
-      <c r="I67" s="31" t="str">
+      <c r="I67" s="22" t="str">
         <f>CONCATENATE("M 11 ",'Elimination Matches'!G54)</f>
       </c>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="31" t="str">
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22" t="str">
         <f>CONCATENATE("M 12 ",'Elimination Matches'!O54)</f>
       </c>
     </row>
     <row r="68"/>
     <row r="69">
       <c r="F69" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G69" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="G69" s="24"/>
       <c r="N69" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="O69" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="O69" s="24"/>
     </row>
     <row r="70">
       <c r="F70" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G70" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="G70" s="24"/>
       <c r="N70" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="O70" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="O70" s="24"/>
     </row>
     <row r="71"/>
     <row r="72"/>
@@ -4614,72 +4566,72 @@
     <row r="76"/>
     <row r="77"/>
     <row r="78">
-      <c r="A78" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="29"/>
-      <c r="N78" s="29"/>
-      <c r="O78" s="29"/>
+      <c r="A78" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="20"/>
+      <c r="O78" s="20"/>
     </row>
     <row r="79"/>
     <row r="80">
-      <c r="A80" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
+      <c r="A80" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
     </row>
     <row r="81">
-      <c r="A81" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D81" s="31" t="s">
-        <v>109</v>
+      <c r="A81" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="G81" s="56" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="31" t="str">
+      <c r="A82" s="22" t="str">
         <f>CONCATENATE("M 13 ",'Elimination Matches'!G69)</f>
       </c>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31" t="str">
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22" t="str">
         <f>CONCATENATE("M 14 ",'Elimination Matches'!O69)</f>
       </c>
     </row>
     <row r="83"/>
     <row r="84">
       <c r="F84" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G84" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="G84" s="24"/>
     </row>
     <row r="85">
       <c r="F85" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G85" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="G85" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/pools-example-medium.xlsx
+++ b/pools-example-medium.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="26060" windowHeight="21580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="26060" windowHeight="21580" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Elimination Matches" sheetId="7" r:id="rId5"/>
     <sheet name="Names to Print" sheetId="8" r:id="rId6"/>
     <sheet name="Tree 1" sheetId="10" r:id="rId13"/>
+    <sheet name="Tags" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>Elimination Round 1</t>
   </si>
@@ -336,6 +337,78 @@
   </si>
   <si>
     <t xml:space="preserve">3. </t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
   </si>
   <si>
     <t>Match 1</t>
@@ -405,118 +478,119 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <u/>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="16"/>
+      <u/>
     </font>
     <font>
-      <b val="1"/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <u/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <family val="2"/>
       <b val="1"/>
       <i val="1"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="72"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="72"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="28"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="28"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <family val="2"/>
       <b val="1"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <family val="2"/>
       <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="28"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="110"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+    </font>
+    <font>
       <family val="2"/>
+      <b val="1"/>
+      <color/>
+      <sz val="150"/>
     </font>
   </fonts>
   <fills count="4">
@@ -683,7 +757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -794,6 +868,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -2474,12 +2551,12 @@
         <f>data!$A$4</f>
       </c>
       <c r="C2" s="35" t="str">
-        <f>CONCATENATE("Pool A.1",'Pool Matches'!G10)</f>
+        <f>CONCATENATE("Pool A.1 ",'Pool Matches'!G10)</f>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="37" t="str">
-        <f>data!$B$2</f>
+        <f>"1. " &amp; data!$B$2</f>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="33">
@@ -2488,10 +2565,10 @@
     </row>
     <row r="4">
       <c r="A4" s="38" t="str">
-        <f>data!$B$3</f>
+        <f>"2. " &amp; data!$B$3</f>
       </c>
       <c r="C4" s="35" t="str">
-        <f>CONCATENATE("Pool B.2",'Pool Matches'!O11)</f>
+        <f>CONCATENATE("Pool B.2 ",'Pool Matches'!O11)</f>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="32"/>
@@ -2500,7 +2577,7 @@
     </row>
     <row r="5">
       <c r="A5" s="39" t="str">
-        <f>data!$B$4</f>
+        <f>"3. " &amp; data!$B$4</f>
       </c>
       <c r="G5" s="33">
         <v>9</v>
@@ -2509,7 +2586,7 @@
     <row r="6">
       <c r="A6" s="34"/>
       <c r="C6" s="35" t="str">
-        <f>CONCATENATE("Pool C.1",'Pool Matches'!G21)</f>
+        <f>CONCATENATE("Pool C.1 ",'Pool Matches'!G21)</f>
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="34"/>
@@ -2529,10 +2606,10 @@
     </row>
     <row r="8">
       <c r="A8" s="37" t="str">
-        <f>data!$B$5</f>
+        <f>"1. " &amp; data!$B$5</f>
       </c>
       <c r="C8" s="35" t="str">
-        <f>CONCATENATE("Pool D.2",'Pool Matches'!O22)</f>
+        <f>CONCATENATE("Pool D.2 ",'Pool Matches'!O22)</f>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="32"/>
@@ -2540,7 +2617,7 @@
     </row>
     <row r="9">
       <c r="A9" s="38" t="str">
-        <f>data!$B$6</f>
+        <f>"2. " &amp; data!$B$6</f>
       </c>
       <c r="I9" s="33">
         <v>13</v>
@@ -2548,10 +2625,10 @@
     </row>
     <row r="10">
       <c r="A10" s="39" t="str">
-        <f>data!$B$7</f>
+        <f>"3. " &amp; data!$B$7</f>
       </c>
       <c r="C10" s="35" t="str">
-        <f>CONCATENATE("Pool E.1",'Pool Matches'!G32)</f>
+        <f>CONCATENATE("Pool E.1 ",'Pool Matches'!G32)</f>
       </c>
       <c r="I10" s="32"/>
       <c r="J10" s="34"/>
@@ -2571,7 +2648,7 @@
         <f>data!$A$10</f>
       </c>
       <c r="C12" s="35" t="str">
-        <f>CONCATENATE("Pool F.2",'Pool Matches'!O33)</f>
+        <f>CONCATENATE("Pool F.2 ",'Pool Matches'!O33)</f>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="32"/>
@@ -2582,7 +2659,7 @@
     </row>
     <row r="13">
       <c r="A13" s="37" t="str">
-        <f>data!$B$8</f>
+        <f>"1. " &amp; data!$B$8</f>
       </c>
       <c r="G13" s="33">
         <v>10</v>
@@ -2593,17 +2670,17 @@
     </row>
     <row r="14">
       <c r="A14" s="38" t="str">
-        <f>data!$B$9</f>
+        <f>"2. " &amp; data!$B$9</f>
       </c>
       <c r="C14" s="35" t="str">
-        <f>CONCATENATE("Pool G.1",'Pool Matches'!G43)</f>
+        <f>CONCATENATE("Pool G.1 ",'Pool Matches'!G43)</f>
       </c>
       <c r="G14" s="32"/>
       <c r="K14" s="32"/>
     </row>
     <row r="15">
       <c r="A15" s="39" t="str">
-        <f>data!$B$10</f>
+        <f>"3. " &amp; data!$B$10</f>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="33">
@@ -2616,7 +2693,7 @@
     <row r="16">
       <c r="A16" s="34"/>
       <c r="C16" s="35" t="str">
-        <f>CONCATENATE("Pool H.2",'Pool Matches'!O44)</f>
+        <f>CONCATENATE("Pool H.2 ",'Pool Matches'!O44)</f>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="32"/>
@@ -2632,16 +2709,16 @@
     </row>
     <row r="18">
       <c r="A18" s="37" t="str">
-        <f>data!$B$11</f>
+        <f>"1. " &amp; data!$B$11</f>
       </c>
       <c r="C18" s="35" t="str">
-        <f>CONCATENATE("Pool B.1",'Pool Matches'!O10)</f>
+        <f>CONCATENATE("Pool B.1 ",'Pool Matches'!O10)</f>
       </c>
       <c r="K18" s="32"/>
     </row>
     <row r="19">
       <c r="A19" s="38" t="str">
-        <f>data!$B$12</f>
+        <f>"2. " &amp; data!$B$12</f>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="33">
@@ -2651,10 +2728,10 @@
     </row>
     <row r="20">
       <c r="A20" s="39" t="str">
-        <f>data!$B$13</f>
+        <f>"3. " &amp; data!$B$13</f>
       </c>
       <c r="C20" s="35" t="str">
-        <f>CONCATENATE("Pool A.2",'Pool Matches'!G11)</f>
+        <f>CONCATENATE("Pool A.2 ",'Pool Matches'!G11)</f>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="32"/>
@@ -2674,7 +2751,7 @@
         <f>data!$A$16</f>
       </c>
       <c r="C22" s="35" t="str">
-        <f>CONCATENATE("Pool D.1",'Pool Matches'!O21)</f>
+        <f>CONCATENATE("Pool D.1 ",'Pool Matches'!O21)</f>
       </c>
       <c r="G22" s="32"/>
       <c r="H22" s="34"/>
@@ -2683,7 +2760,7 @@
     </row>
     <row r="23">
       <c r="A23" s="37" t="str">
-        <f>data!$B$14</f>
+        <f>"1. " &amp; data!$B$14</f>
       </c>
       <c r="D23" s="34"/>
       <c r="E23" s="33">
@@ -2696,10 +2773,10 @@
     </row>
     <row r="24">
       <c r="A24" s="38" t="str">
-        <f>data!$B$15</f>
+        <f>"2. " &amp; data!$B$15</f>
       </c>
       <c r="C24" s="35" t="str">
-        <f>CONCATENATE("Pool C.2",'Pool Matches'!G22)</f>
+        <f>CONCATENATE("Pool C.2 ",'Pool Matches'!G22)</f>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="32"/>
@@ -2708,7 +2785,7 @@
     </row>
     <row r="25">
       <c r="A25" s="39" t="str">
-        <f>data!$B$16</f>
+        <f>"3. " &amp; data!$B$16</f>
       </c>
       <c r="I25" s="33">
         <v>14</v>
@@ -2719,7 +2796,7 @@
     <row r="26">
       <c r="A26" s="34"/>
       <c r="C26" s="35" t="str">
-        <f>CONCATENATE("Pool F.1",'Pool Matches'!O32)</f>
+        <f>CONCATENATE("Pool F.1 ",'Pool Matches'!O32)</f>
       </c>
       <c r="I26" s="32"/>
     </row>
@@ -2735,10 +2812,10 @@
     </row>
     <row r="28">
       <c r="A28" s="37" t="str">
-        <f>data!$B$17</f>
+        <f>"1. " &amp; data!$B$17</f>
       </c>
       <c r="C28" s="35" t="str">
-        <f>CONCATENATE("Pool E.2",'Pool Matches'!G33)</f>
+        <f>CONCATENATE("Pool E.2 ",'Pool Matches'!G33)</f>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="32"/>
@@ -2748,7 +2825,7 @@
     </row>
     <row r="29">
       <c r="A29" s="38" t="str">
-        <f>data!$B$18</f>
+        <f>"2. " &amp; data!$B$18</f>
       </c>
       <c r="G29" s="33">
         <v>12</v>
@@ -2758,10 +2835,10 @@
     </row>
     <row r="30">
       <c r="A30" s="39" t="str">
-        <f>data!$B$19</f>
+        <f>"3. " &amp; data!$B$19</f>
       </c>
       <c r="C30" s="35" t="str">
-        <f>CONCATENATE("Pool H.1",'Pool Matches'!O43)</f>
+        <f>CONCATENATE("Pool H.1 ",'Pool Matches'!O43)</f>
       </c>
       <c r="G30" s="32"/>
     </row>
@@ -2779,24 +2856,24 @@
         <f>data!$A$22</f>
       </c>
       <c r="C32" s="35" t="str">
-        <f>CONCATENATE("Pool G.2",'Pool Matches'!G44)</f>
+        <f>CONCATENATE("Pool G.2 ",'Pool Matches'!G44)</f>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="32"/>
     </row>
     <row r="33">
       <c r="A33" s="37" t="str">
-        <f>data!$B$20</f>
+        <f>"1. " &amp; data!$B$20</f>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="38" t="str">
-        <f>data!$B$21</f>
+        <f>"2. " &amp; data!$B$21</f>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="39" t="str">
-        <f>data!$B$22</f>
+        <f>"3. " &amp; data!$B$22</f>
       </c>
     </row>
     <row r="36">
@@ -2809,17 +2886,17 @@
     </row>
     <row r="38">
       <c r="A38" s="37" t="str">
-        <f>data!$B$23</f>
+        <f>"1. " &amp; data!$B$23</f>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="38" t="str">
-        <f>data!$B$24</f>
+        <f>"2. " &amp; data!$B$24</f>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="39" t="str">
-        <f>data!$B$25</f>
+        <f>"3. " &amp; data!$B$25</f>
       </c>
     </row>
     <row r="41">
@@ -2828,6 +2905,166 @@
   </sheetData>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1" ht="400" customHeight="true">
+      <c r="A1" s="42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" ht="400" customHeight="true">
+      <c r="A2" s="42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" ht="400" customHeight="true">
+      <c r="A3" s="42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" ht="400" customHeight="true">
+      <c r="A4" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" ht="400" customHeight="true">
+      <c r="A5" s="42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" ht="400" customHeight="true">
+      <c r="A6" s="42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" ht="400" customHeight="true">
+      <c r="A7" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" ht="400" customHeight="true">
+      <c r="A8" s="42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" ht="400" customHeight="true">
+      <c r="A9" s="42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" ht="400" customHeight="true">
+      <c r="A10" s="42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" ht="400" customHeight="true">
+      <c r="A11" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" ht="400" customHeight="true">
+      <c r="A12" s="42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" ht="400" customHeight="true">
+      <c r="A13" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" ht="400" customHeight="true">
+      <c r="A14" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" ht="400" customHeight="true">
+      <c r="A15" s="42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" ht="400" customHeight="true">
+      <c r="A16" s="42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" ht="400" customHeight="true">
+      <c r="A17" s="42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" ht="400" customHeight="true">
+      <c r="A18" s="42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" ht="400" customHeight="true">
+      <c r="A19" s="42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" ht="400" customHeight="true">
+      <c r="A20" s="42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" ht="400" customHeight="true">
+      <c r="A21" s="42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" ht="400" customHeight="true">
+      <c r="A22" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" ht="400" customHeight="true">
+      <c r="A23" s="42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" ht="400" customHeight="true">
+      <c r="A24" s="42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="11"/>
+  <rowBreaks count="23" manualBreakCount="23">
+    <brk id="1" max="16383" man="true"/>
+    <brk id="2" max="16383" man="true"/>
+    <brk id="3" max="16383" man="true"/>
+    <brk id="4" max="16383" man="true"/>
+    <brk id="5" max="16383" man="true"/>
+    <brk id="6" max="16383" man="true"/>
+    <brk id="7" max="16383" man="true"/>
+    <brk id="8" max="16383" man="true"/>
+    <brk id="9" max="16383" man="true"/>
+    <brk id="10" max="16383" man="true"/>
+    <brk id="11" max="16383" man="true"/>
+    <brk id="12" max="16383" man="true"/>
+    <brk id="13" max="16383" man="true"/>
+    <brk id="14" max="16383" man="true"/>
+    <brk id="15" max="16383" man="true"/>
+    <brk id="16" max="16383" man="true"/>
+    <brk id="17" max="16383" man="true"/>
+    <brk id="18" max="16383" man="true"/>
+    <brk id="19" max="16383" man="true"/>
+    <brk id="20" max="16383" man="true"/>
+    <brk id="21" max="16383" man="true"/>
+    <brk id="22" max="16383" man="true"/>
+    <brk id="23" max="16383" man="true"/>
+  </rowBreaks>
+  <colBreaks/>
 </worksheet>
 </file>
 
@@ -2835,7 +3072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176316AF-4790-BF4E-A6AB-8C7837CD465B}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3113,38 +3350,38 @@
     </row>
     <row r="6" spans="1:8" ht="17" customHeight="true" thickBot="true">
       <c r="B6" s="5" t="str">
-        <f>data!$B$2</f>
+        <f>"1. " &amp; data!$B$2</f>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="str">
-        <f>data!$B$11</f>
+        <f>"1. " &amp; data!$B$11</f>
       </c>
       <c r="F6" s="5" t="str">
-        <f>data!$B$20</f>
+        <f>"1. " &amp; data!$B$20</f>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" customHeight="true" thickBot="true">
       <c r="B7" s="5" t="str">
-        <f>data!$B$3</f>
+        <f>"2. " &amp; data!$B$3</f>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="str">
-        <f>data!$B$12</f>
+        <f>"2. " &amp; data!$B$12</f>
       </c>
       <c r="F7" s="5" t="str">
-        <f>data!$B$21</f>
+        <f>"2. " &amp; data!$B$21</f>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" customHeight="true" thickBot="true">
       <c r="B8" s="5" t="str">
-        <f>data!$B$4</f>
+        <f>"3. " &amp; data!$B$4</f>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="str">
-        <f>data!$B$13</f>
+        <f>"3. " &amp; data!$B$13</f>
       </c>
       <c r="F8" s="5" t="str">
-        <f>data!$B$22</f>
+        <f>"3. " &amp; data!$B$22</f>
       </c>
     </row>
     <row r="9" ht="17" customHeight="true"/>
@@ -3162,35 +3399,35 @@
     </row>
     <row r="12" ht="17" customHeight="true">
       <c r="B12" s="5" t="str">
-        <f>data!$B$5</f>
+        <f>"1. " &amp; data!$B$5</f>
       </c>
       <c r="D12" s="5" t="str">
-        <f>data!$B$14</f>
+        <f>"1. " &amp; data!$B$14</f>
       </c>
       <c r="F12" s="5" t="str">
-        <f>data!$B$23</f>
+        <f>"1. " &amp; data!$B$23</f>
       </c>
     </row>
     <row r="13" ht="17" customHeight="true">
       <c r="B13" s="5" t="str">
-        <f>data!$B$6</f>
+        <f>"2. " &amp; data!$B$6</f>
       </c>
       <c r="D13" s="5" t="str">
-        <f>data!$B$15</f>
+        <f>"2. " &amp; data!$B$15</f>
       </c>
       <c r="F13" s="5" t="str">
-        <f>data!$B$24</f>
+        <f>"2. " &amp; data!$B$24</f>
       </c>
     </row>
     <row r="14" ht="17" customHeight="true">
       <c r="B14" s="5" t="str">
-        <f>data!$B$7</f>
+        <f>"3. " &amp; data!$B$7</f>
       </c>
       <c r="D14" s="5" t="str">
-        <f>data!$B$16</f>
+        <f>"3. " &amp; data!$B$16</f>
       </c>
       <c r="F14" s="5" t="str">
-        <f>data!$B$25</f>
+        <f>"3. " &amp; data!$B$25</f>
       </c>
     </row>
     <row r="15" ht="17" customHeight="true"/>
@@ -3205,26 +3442,26 @@
     </row>
     <row r="18" ht="17" customHeight="true">
       <c r="B18" s="5" t="str">
-        <f>data!$B$8</f>
+        <f>"1. " &amp; data!$B$8</f>
       </c>
       <c r="D18" s="5" t="str">
-        <f>data!$B$17</f>
+        <f>"1. " &amp; data!$B$17</f>
       </c>
     </row>
     <row r="19" ht="17" customHeight="true">
       <c r="B19" s="5" t="str">
-        <f>data!$B$9</f>
+        <f>"2. " &amp; data!$B$9</f>
       </c>
       <c r="D19" s="5" t="str">
-        <f>data!$B$18</f>
+        <f>"2. " &amp; data!$B$18</f>
       </c>
     </row>
     <row r="20" ht="17" customHeight="true">
       <c r="B20" s="5" t="str">
-        <f>data!$B$10</f>
+        <f>"3. " &amp; data!$B$10</f>
       </c>
       <c r="D20" s="5" t="str">
-        <f>data!$B$19</f>
+        <f>"3. " &amp; data!$B$19</f>
       </c>
     </row>
   </sheetData>
@@ -3233,7 +3470,7 @@
   </mergeCells>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.3937007874015748" bottom="0.984251968503937" header="0" footer="0"/>
-  <pageSetup orientation="landscape" paperSize="9"/>
+  <pageSetup fitToHeight="0" fitToWidth="1" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -3903,7 +4140,7 @@
     <row r="2"/>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -3912,7 +4149,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="I3" s="20" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
@@ -3928,7 +4165,7 @@
       <c r="D4" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="43" t="s">
         <v>94</v>
       </c>
       <c r="I4" s="21" t="s">
@@ -3937,7 +4174,7 @@
       <c r="L4" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="O4" s="44" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3968,21 +4205,21 @@
     <row r="6"/>
     <row r="7">
       <c r="F7" s="7" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="G7" s="24"/>
       <c r="N7" s="7" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="O7" s="24"/>
     </row>
     <row r="8">
       <c r="F8" s="7" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G8" s="24"/>
       <c r="N8" s="7" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="O8" s="24"/>
     </row>
@@ -3990,7 +4227,7 @@
     <row r="10"/>
     <row r="11">
       <c r="A11" s="20" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -3999,7 +4236,7 @@
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="I11" s="20" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
@@ -4015,7 +4252,7 @@
       <c r="D12" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="45" t="s">
         <v>94</v>
       </c>
       <c r="I12" s="21" t="s">
@@ -4024,7 +4261,7 @@
       <c r="L12" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="O12" s="45" t="s">
+      <c r="O12" s="46" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4055,21 +4292,21 @@
     <row r="14"/>
     <row r="15">
       <c r="F15" s="7" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="G15" s="24"/>
       <c r="N15" s="7" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="O15" s="24"/>
     </row>
     <row r="16">
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G16" s="24"/>
       <c r="N16" s="7" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="O16" s="24"/>
     </row>
@@ -4077,7 +4314,7 @@
     <row r="18"/>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -4086,7 +4323,7 @@
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="I19" s="20" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
@@ -4102,7 +4339,7 @@
       <c r="D20" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="47" t="s">
         <v>94</v>
       </c>
       <c r="I20" s="21" t="s">
@@ -4111,7 +4348,7 @@
       <c r="L20" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="O20" s="47" t="s">
+      <c r="O20" s="48" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4142,21 +4379,21 @@
     <row r="22"/>
     <row r="23">
       <c r="F23" s="7" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="G23" s="24"/>
       <c r="N23" s="7" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="O23" s="24"/>
     </row>
     <row r="24">
       <c r="F24" s="7" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G24" s="24"/>
       <c r="N24" s="7" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="O24" s="24"/>
     </row>
@@ -4164,7 +4401,7 @@
     <row r="26"/>
     <row r="27">
       <c r="A27" s="20" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -4173,7 +4410,7 @@
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="I27" s="20" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
@@ -4189,7 +4426,7 @@
       <c r="D28" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="48" t="s">
+      <c r="G28" s="49" t="s">
         <v>94</v>
       </c>
       <c r="I28" s="21" t="s">
@@ -4198,7 +4435,7 @@
       <c r="L28" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="O28" s="49" t="s">
+      <c r="O28" s="50" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4229,21 +4466,21 @@
     <row r="30"/>
     <row r="31">
       <c r="F31" s="7" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="G31" s="24"/>
       <c r="N31" s="7" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="O31" s="24"/>
     </row>
     <row r="32">
       <c r="F32" s="7" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G32" s="24"/>
       <c r="N32" s="7" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="O32" s="24"/>
     </row>
@@ -4256,7 +4493,7 @@
     <row r="39"/>
     <row r="40">
       <c r="A40" s="20" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -4276,7 +4513,7 @@
     <row r="41"/>
     <row r="42">
       <c r="A42" s="20" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -4285,7 +4522,7 @@
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
       <c r="I42" s="20" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
@@ -4301,7 +4538,7 @@
       <c r="D43" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="G43" s="50" t="s">
+      <c r="G43" s="51" t="s">
         <v>94</v>
       </c>
       <c r="I43" s="21" t="s">
@@ -4310,7 +4547,7 @@
       <c r="L43" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="O43" s="51" t="s">
+      <c r="O43" s="52" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4341,21 +4578,21 @@
     <row r="45"/>
     <row r="46">
       <c r="F46" s="7" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="G46" s="24"/>
       <c r="N46" s="7" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="O46" s="24"/>
     </row>
     <row r="47">
       <c r="F47" s="7" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G47" s="24"/>
       <c r="N47" s="7" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="O47" s="24"/>
     </row>
@@ -4363,7 +4600,7 @@
     <row r="49"/>
     <row r="50">
       <c r="A50" s="20" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -4372,7 +4609,7 @@
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
       <c r="I50" s="20" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
@@ -4388,7 +4625,7 @@
       <c r="D51" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="G51" s="52" t="s">
+      <c r="G51" s="53" t="s">
         <v>94</v>
       </c>
       <c r="I51" s="21" t="s">
@@ -4397,7 +4634,7 @@
       <c r="L51" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="O51" s="53" t="s">
+      <c r="O51" s="54" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4428,21 +4665,21 @@
     <row r="53"/>
     <row r="54">
       <c r="F54" s="7" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="G54" s="24"/>
       <c r="N54" s="7" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="O54" s="24"/>
     </row>
     <row r="55">
       <c r="F55" s="7" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G55" s="24"/>
       <c r="N55" s="7" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="O55" s="24"/>
     </row>
@@ -4455,7 +4692,7 @@
     <row r="62"/>
     <row r="63">
       <c r="A63" s="20" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
@@ -4475,7 +4712,7 @@
     <row r="64"/>
     <row r="65">
       <c r="A65" s="20" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
@@ -4484,7 +4721,7 @@
       <c r="F65" s="20"/>
       <c r="G65" s="20"/>
       <c r="I65" s="20" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="J65" s="20"/>
       <c r="K65" s="20"/>
@@ -4500,7 +4737,7 @@
       <c r="D66" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="G66" s="54" t="s">
+      <c r="G66" s="55" t="s">
         <v>94</v>
       </c>
       <c r="I66" s="21" t="s">
@@ -4509,7 +4746,7 @@
       <c r="L66" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="O66" s="55" t="s">
+      <c r="O66" s="56" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4540,21 +4777,21 @@
     <row r="68"/>
     <row r="69">
       <c r="F69" s="7" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="G69" s="24"/>
       <c r="N69" s="7" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="O69" s="24"/>
     </row>
     <row r="70">
       <c r="F70" s="7" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G70" s="24"/>
       <c r="N70" s="7" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="O70" s="24"/>
     </row>
@@ -4567,7 +4804,7 @@
     <row r="77"/>
     <row r="78">
       <c r="A78" s="20" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
@@ -4587,7 +4824,7 @@
     <row r="79"/>
     <row r="80">
       <c r="A80" s="20" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -4603,7 +4840,7 @@
       <c r="D81" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="G81" s="56" t="s">
+      <c r="G81" s="57" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4623,13 +4860,13 @@
     <row r="83"/>
     <row r="84">
       <c r="F84" s="7" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="G84" s="24"/>
     </row>
     <row r="85">
       <c r="F85" s="7" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G85" s="24"/>
     </row>
@@ -5043,5 +5280,16 @@
   <printOptions horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" horizontalDpi="0" orientation="landscape" paperSize="8" verticalDpi="0"/>
+  <rowBreaks count="8" manualBreakCount="8">
+    <brk id="6" max="16383" man="true"/>
+    <brk id="12" max="16383" man="true"/>
+    <brk id="18" max="16383" man="true"/>
+    <brk id="24" max="16383" man="true"/>
+    <brk id="30" max="16383" man="true"/>
+    <brk id="36" max="16383" man="true"/>
+    <brk id="42" max="16383" man="true"/>
+    <brk id="48" max="16383" man="true"/>
+  </rowBreaks>
+  <colBreaks/>
 </worksheet>
 </file>